--- a/txsb_top_timing_bdlmin_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmin_tran_channel_s_tsmc2ff_meas.xlsx
@@ -489,13 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
+        <fgColor rgb="FF0094D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0094D1"/>
+        <fgColor rgb="FFFF9133"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,160 +1122,160 @@
         <v>91</v>
       </c>
       <c r="T2">
-        <v>228.16</v>
+        <v>227.965</v>
       </c>
       <c r="U2">
-        <v>229.607</v>
+        <v>229.347</v>
       </c>
       <c r="V2">
-        <v>228.883</v>
+        <v>228.656</v>
       </c>
       <c r="W2" s="2">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="X2" s="3">
-        <v>20.6197</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>19.2639</v>
+        <v>-49.781</v>
+      </c>
+      <c r="X2" s="2">
+        <v>20.4801</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>19.1687</v>
       </c>
       <c r="Z2">
-        <v>21.8238</v>
+        <v>21.9726</v>
       </c>
       <c r="AA2">
-        <v>23.3597</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3061.46</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>3061.66</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>3061.56</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0.197361</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>18.1513</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>17.2811</v>
+        <v>23.4758</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>8061.42</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>9061.629999999999</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>8561.52</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>5.67019</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>18.1516</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>17.2797</v>
       </c>
       <c r="AH2">
-        <v>33.0555</v>
+        <v>33.0549</v>
       </c>
       <c r="AI2">
-        <v>34.72</v>
+        <v>34.7228</v>
       </c>
       <c r="AJ2">
-        <v>61.4628</v>
+        <v>-938.5800000000002</v>
       </c>
       <c r="AK2">
-        <v>61.6628</v>
+        <v>61.62710000000001</v>
       </c>
       <c r="AL2">
-        <v>61.56280000000001</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>25.0047</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>18.1513</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>17.2811</v>
+        <v>-438.477</v>
+      </c>
+      <c r="AM2">
+        <v>50.0224</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>18.1516</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>17.2797</v>
       </c>
       <c r="AP2">
-        <v>33.0555</v>
+        <v>33.0549</v>
       </c>
       <c r="AQ2">
-        <v>34.72</v>
+        <v>34.7228</v>
       </c>
       <c r="AR2">
-        <v>130.427</v>
+        <v>130.673</v>
       </c>
       <c r="AS2">
-        <v>129.952</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>66.69070000000001</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>224.205</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>223.085</v>
+        <v>129.966</v>
+      </c>
+      <c r="AT2">
+        <v>49.9209</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>224.212</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>223.084</v>
       </c>
       <c r="AW2">
-        <v>2.00709</v>
+        <v>2.00703</v>
       </c>
       <c r="AX2">
-        <v>2.01717</v>
+        <v>2.01718</v>
       </c>
       <c r="AY2">
-        <v>32.3216</v>
+        <v>32.3246</v>
       </c>
       <c r="AZ2">
-        <v>32.7461</v>
+        <v>32.7514</v>
       </c>
       <c r="BA2" s="2">
-        <v>66.681</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>3.17298</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>3.02149</v>
+        <v>-49.9564</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>3.16764</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>3.01785</v>
       </c>
       <c r="BD2">
-        <v>141.822</v>
+        <v>142.062</v>
       </c>
       <c r="BE2">
-        <v>148.933</v>
+        <v>149.113</v>
       </c>
       <c r="BF2">
-        <v>47.6916</v>
+        <v>47.6026</v>
       </c>
       <c r="BG2">
-        <v>45.5857</v>
+        <v>45.5026</v>
       </c>
       <c r="BH2" s="2">
-        <v>66.5926</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>7.84608</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>7.01543</v>
+        <v>-50.2215</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>7.84989</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>6.99212</v>
       </c>
       <c r="BK2">
-        <v>57.3535</v>
+        <v>57.3256</v>
       </c>
       <c r="BL2">
-        <v>64.1444</v>
+        <v>64.35809999999999</v>
       </c>
       <c r="BM2">
-        <v>66.0592</v>
+        <v>65.9581</v>
       </c>
       <c r="BN2">
-        <v>68.37430000000001</v>
+        <v>68.17830000000001</v>
       </c>
       <c r="BO2" s="2">
-        <v>66.7353</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>5.12137</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>2.26935</v>
+        <v>-49.8054</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>5.11453</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>2.27055</v>
       </c>
       <c r="BR2">
-        <v>87.8672</v>
+        <v>87.9847</v>
       </c>
       <c r="BS2">
-        <v>198.294</v>
+        <v>198.189</v>
       </c>
       <c r="BT2" s="4" t="s">
         <v>92</v>
@@ -1358,160 +1358,160 @@
         <v>108</v>
       </c>
       <c r="T3">
-        <v>254.62</v>
+        <v>254.352</v>
       </c>
       <c r="U3">
-        <v>255.212</v>
+        <v>254.787</v>
       </c>
       <c r="V3">
-        <v>254.916</v>
+        <v>254.569</v>
       </c>
       <c r="W3" s="2">
-        <v>66.6833</v>
-      </c>
-      <c r="X3" s="3">
-        <v>28.3455</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>25.7474</v>
+        <v>-49.9551</v>
+      </c>
+      <c r="X3" s="2">
+        <v>28.091</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>25.4894</v>
       </c>
       <c r="Z3">
-        <v>16.2989</v>
+        <v>16.4465</v>
       </c>
       <c r="AA3">
-        <v>17.9435</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>3073.8</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>3073.86</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>3073.83</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>3.69405</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>22.7562</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>21.9961</v>
+        <v>18.1252</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>8073.75</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>9073.84</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>8573.790000000001</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.738473</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>22.757</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>21.9949</v>
       </c>
       <c r="AH3">
-        <v>27.175</v>
+        <v>27.174</v>
       </c>
       <c r="AI3">
-        <v>28.1141</v>
+        <v>28.1156</v>
       </c>
       <c r="AJ3">
-        <v>73.7983</v>
+        <v>-926.2479999999999</v>
       </c>
       <c r="AK3">
-        <v>73.8554</v>
+        <v>73.83499999999999</v>
       </c>
       <c r="AL3">
-        <v>73.82689999999999</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>25.0016</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>22.7562</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>21.9961</v>
+        <v>-426.207</v>
+      </c>
+      <c r="AM3">
+        <v>50.01</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>22.757</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>21.9949</v>
       </c>
       <c r="AP3">
-        <v>27.175</v>
+        <v>27.174</v>
       </c>
       <c r="AQ3">
-        <v>28.1141</v>
+        <v>28.1156</v>
       </c>
       <c r="AR3">
-        <v>-8653.84</v>
+        <v>-2653.59</v>
       </c>
       <c r="AS3">
-        <v>-8799</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>92.8167</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>229.815</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>228.326</v>
+        <v>-2162.91</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>2064.12</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>229.89</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>228.391</v>
       </c>
       <c r="AW3">
-        <v>2.01031</v>
+        <v>2.00965</v>
       </c>
       <c r="AX3">
-        <v>2.02342</v>
+        <v>2.02284</v>
       </c>
       <c r="AY3">
-        <v>37.6064</v>
+        <v>37.6057</v>
       </c>
       <c r="AZ3">
-        <v>38.0075</v>
+        <v>38.0082</v>
       </c>
       <c r="BA3" s="2">
-        <v>66.6799</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>3.79067</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>3.65409</v>
+        <v>-49.9603</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>3.786280000000001</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>3.6509</v>
       </c>
       <c r="BD3">
-        <v>122.353</v>
+        <v>122.495</v>
       </c>
       <c r="BE3">
-        <v>126.926</v>
+        <v>127.037</v>
       </c>
       <c r="BF3">
-        <v>57.0322</v>
+        <v>56.9127</v>
       </c>
       <c r="BG3">
-        <v>54.0227</v>
+        <v>53.9154</v>
       </c>
       <c r="BH3" s="2">
-        <v>66.5604</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>9.850669999999999</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>9.11777</v>
+        <v>-50.3175</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>9.851369999999999</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>9.074340000000001</v>
       </c>
       <c r="BK3">
-        <v>47.0831</v>
+        <v>47.0798</v>
       </c>
       <c r="BL3">
-        <v>50.8677</v>
+        <v>51.1112</v>
       </c>
       <c r="BM3">
-        <v>78.218</v>
+        <v>78.0812</v>
       </c>
       <c r="BN3">
-        <v>80.3387</v>
+        <v>80.0402</v>
       </c>
       <c r="BO3" s="2">
-        <v>66.7282</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>5.97543</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>2.6793</v>
+        <v>-49.8327</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>5.9699</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>2.68844</v>
       </c>
       <c r="BR3">
-        <v>77.31659999999999</v>
+        <v>77.3882</v>
       </c>
       <c r="BS3">
-        <v>172.433</v>
+        <v>171.847</v>
       </c>
       <c r="BT3" s="4" t="s">
         <v>92</v>
@@ -1594,160 +1594,160 @@
         <v>112</v>
       </c>
       <c r="T4">
-        <v>252.657</v>
+        <v>252.442</v>
       </c>
       <c r="U4">
-        <v>254.14</v>
+        <v>253.927</v>
       </c>
       <c r="V4">
-        <v>253.399</v>
+        <v>253.185</v>
       </c>
       <c r="W4" s="2">
-        <v>66.75660000000001</v>
-      </c>
-      <c r="X4" s="3">
-        <v>24.2248</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>21.5612</v>
+        <v>-49.7221</v>
+      </c>
+      <c r="X4" s="2">
+        <v>24.0837</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>21.4581</v>
       </c>
       <c r="Z4">
-        <v>19.0714</v>
+        <v>19.1831</v>
       </c>
       <c r="AA4">
-        <v>21.4274</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>3071.89</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>3071.77</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>3071.83</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0.266306</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>21.3177</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>19.9026</v>
+        <v>21.5303</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>8071.84</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>9071.720000000001</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>8571.780000000001</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1.08293</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>21.3207</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>19.9031</v>
       </c>
       <c r="AH4">
-        <v>29.0087</v>
+        <v>29.0047</v>
       </c>
       <c r="AI4">
-        <v>31.0714</v>
+        <v>31.0705</v>
       </c>
       <c r="AJ4">
-        <v>71.8879</v>
+        <v>-928.1610000000001</v>
       </c>
       <c r="AK4">
-        <v>71.77</v>
+        <v>71.7189</v>
       </c>
       <c r="AL4">
-        <v>71.82900000000001</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>24.9966</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>21.3177</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>19.9026</v>
+        <v>-428.221</v>
+      </c>
+      <c r="AM4">
+        <v>49.9908</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>21.3207</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>19.9031</v>
       </c>
       <c r="AP4">
-        <v>29.0087</v>
+        <v>29.0047</v>
       </c>
       <c r="AQ4">
-        <v>31.0714</v>
+        <v>31.0705</v>
       </c>
       <c r="AR4">
-        <v>167.25</v>
+        <v>172.695</v>
       </c>
       <c r="AS4">
-        <v>158.264</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>66.6078</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>226.839</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>225.051</v>
+        <v>158.528</v>
+      </c>
+      <c r="AT4">
+        <v>50.252</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>226.861</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>225.072</v>
       </c>
       <c r="AW4">
-        <v>2.03669</v>
+        <v>2.03649</v>
       </c>
       <c r="AX4">
-        <v>2.05287</v>
+        <v>2.05268</v>
       </c>
       <c r="AY4">
-        <v>36.0446</v>
+        <v>36.046</v>
       </c>
       <c r="AZ4">
-        <v>36.4593</v>
+        <v>36.4638</v>
       </c>
       <c r="BA4" s="2">
-        <v>66.681</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>3.24829</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>3.09058</v>
+        <v>-49.9566</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>3.24775</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>3.09239</v>
       </c>
       <c r="BD4">
-        <v>142.783</v>
+        <v>142.806</v>
       </c>
       <c r="BE4">
-        <v>150.069</v>
+        <v>149.981</v>
       </c>
       <c r="BF4">
-        <v>55.5437</v>
+        <v>55.4171</v>
       </c>
       <c r="BG4">
-        <v>52.325</v>
+        <v>52.2089</v>
       </c>
       <c r="BH4" s="2">
-        <v>66.5531</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>8.93357</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>8.218389999999999</v>
+        <v>-50.3395</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>8.94139</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>8.217580000000002</v>
       </c>
       <c r="BK4">
-        <v>51.9166</v>
+        <v>51.8712</v>
       </c>
       <c r="BL4">
-        <v>56.4344</v>
+        <v>56.44</v>
       </c>
       <c r="BM4">
-        <v>77.89800000000001</v>
+        <v>77.76900000000001</v>
       </c>
       <c r="BN4">
-        <v>81.0284</v>
+        <v>80.90820000000001</v>
       </c>
       <c r="BO4" s="2">
-        <v>66.76260000000001</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>5.7077</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>2.54574</v>
+        <v>-49.7167</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>5.70085</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>2.54525</v>
       </c>
       <c r="BR4">
-        <v>80.9432</v>
+        <v>81.04049999999999</v>
       </c>
       <c r="BS4">
-        <v>181.479</v>
+        <v>181.514</v>
       </c>
       <c r="BT4" s="4" t="s">
         <v>92</v>
@@ -1830,160 +1830,160 @@
         <v>115</v>
       </c>
       <c r="T5">
-        <v>275.964</v>
+        <v>275.558</v>
       </c>
       <c r="U5">
-        <v>277.355</v>
+        <v>276.725</v>
       </c>
       <c r="V5">
-        <v>276.66</v>
+        <v>276.142</v>
       </c>
       <c r="W5" s="2">
-        <v>66.7068</v>
+        <v>-49.8768</v>
       </c>
       <c r="X5">
-        <v>34.4707</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>30.4234</v>
+        <v>34.0231</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>29.9269</v>
       </c>
       <c r="Z5">
-        <v>12.0102</v>
+        <v>12.1682</v>
       </c>
       <c r="AA5">
-        <v>13.6079</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>3082.94</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>3082.62</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>3082.78</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>18.0285</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>25.6726</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>24.9163</v>
+        <v>13.8337</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>8082.88</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>9082.59</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>8582.74</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>18.0672</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>25.6727</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>24.9159</v>
       </c>
       <c r="AH5">
-        <v>21.5015</v>
+        <v>21.5014</v>
       </c>
       <c r="AI5">
-        <v>22.1541</v>
+        <v>22.1545</v>
       </c>
       <c r="AJ5">
-        <v>82.9419</v>
+        <v>-917.116</v>
       </c>
       <c r="AK5">
-        <v>82.616</v>
+        <v>82.5874</v>
       </c>
       <c r="AL5">
-        <v>82.77889999999999</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>24.9919</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>25.6726</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>24.9163</v>
+        <v>-417.264</v>
+      </c>
+      <c r="AM5">
+        <v>49.9721</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>25.6727</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>24.9159</v>
       </c>
       <c r="AP5">
-        <v>21.5015</v>
+        <v>21.5014</v>
       </c>
       <c r="AQ5">
-        <v>22.1541</v>
+        <v>22.1545</v>
       </c>
       <c r="AR5">
-        <v>-5630.990000000001</v>
+        <v>-2142.95</v>
       </c>
       <c r="AS5">
-        <v>-5649.969999999999</v>
+        <v>-1653.21</v>
       </c>
       <c r="AT5" s="2">
-        <v>99.6469</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>232.545</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>230.802</v>
+        <v>3.20119</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>232.641</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>230.87</v>
       </c>
       <c r="AW5">
-        <v>1.7803</v>
+        <v>1.77957</v>
       </c>
       <c r="AX5">
-        <v>1.79374</v>
+        <v>1.79321</v>
       </c>
       <c r="AY5">
-        <v>40.3033</v>
+        <v>40.3016</v>
       </c>
       <c r="AZ5">
-        <v>40.6918</v>
+        <v>40.6921</v>
       </c>
       <c r="BA5" s="2">
-        <v>66.6794</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>3.98132</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>3.85153</v>
+        <v>-49.9615</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>3.97938</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>3.84906</v>
       </c>
       <c r="BD5">
-        <v>103.986</v>
+        <v>104.036</v>
       </c>
       <c r="BE5">
-        <v>107.49</v>
+        <v>107.559</v>
       </c>
       <c r="BF5">
-        <v>63.17160000000001</v>
+        <v>63.0368</v>
       </c>
       <c r="BG5">
-        <v>59.4027</v>
+        <v>59.2721</v>
       </c>
       <c r="BH5" s="2">
-        <v>66.53360000000001</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>11.0118</v>
-      </c>
-      <c r="BJ5" s="3">
-        <v>10.3838</v>
+        <v>-50.3988</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>11.0134</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>10.3388</v>
       </c>
       <c r="BK5">
-        <v>37.5961</v>
+        <v>37.5907</v>
       </c>
       <c r="BL5">
-        <v>39.8699</v>
+        <v>40.0434</v>
       </c>
       <c r="BM5">
-        <v>88.7225</v>
+        <v>88.5646</v>
       </c>
       <c r="BN5">
-        <v>91.9015</v>
+        <v>91.511</v>
       </c>
       <c r="BO5" s="2">
-        <v>66.76130000000001</v>
-      </c>
-      <c r="BP5" s="3">
-        <v>7.042160000000001</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>3.10981</v>
+        <v>-49.7396</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>7.03166</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>3.11862</v>
       </c>
       <c r="BR5">
-        <v>58.7887</v>
+        <v>58.8765</v>
       </c>
       <c r="BS5">
-        <v>133.127</v>
+        <v>132.751</v>
       </c>
       <c r="BT5" s="4" t="s">
         <v>92</v>
@@ -2066,160 +2066,160 @@
         <v>108</v>
       </c>
       <c r="T6">
-        <v>282.324</v>
+        <v>282.053</v>
       </c>
       <c r="U6">
-        <v>284.948</v>
+        <v>284.639</v>
       </c>
       <c r="V6">
-        <v>283.636</v>
+        <v>283.346</v>
       </c>
       <c r="W6" s="2">
-        <v>66.77079999999999</v>
-      </c>
-      <c r="X6" s="3">
-        <v>29.9479</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>25.1347</v>
+        <v>-49.7086</v>
+      </c>
+      <c r="X6" s="2">
+        <v>29.8579</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>24.9888</v>
       </c>
       <c r="Z6">
-        <v>13.824</v>
+        <v>13.8657</v>
       </c>
       <c r="AA6">
-        <v>16.4712</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>3084.48</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>3083.78</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>3084.13</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>0.343681</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>24.9491</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>23.1599</v>
+        <v>16.5674</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>8084.41</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>9083.700000000001</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>8584.060000000001</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1.44158</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>24.9497</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>23.1607</v>
       </c>
       <c r="AH6">
-        <v>22.1251</v>
+        <v>22.1246</v>
       </c>
       <c r="AI6">
-        <v>23.8343</v>
+        <v>23.8334</v>
       </c>
       <c r="AJ6">
-        <v>84.47920000000001</v>
+        <v>-915.5910000000001</v>
       </c>
       <c r="AK6">
-        <v>83.7771</v>
+        <v>83.70320000000001</v>
       </c>
       <c r="AL6">
-        <v>84.12820000000001</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>24.9817</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>24.9491</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>23.1599</v>
+        <v>-415.944</v>
+      </c>
+      <c r="AM6">
+        <v>49.933</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>24.9497</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>23.1607</v>
       </c>
       <c r="AP6">
-        <v>22.1251</v>
+        <v>22.1246</v>
       </c>
       <c r="AQ6">
-        <v>23.8343</v>
+        <v>23.8334</v>
       </c>
       <c r="AR6">
-        <v>-5654.04</v>
+        <v>-1650.89</v>
       </c>
       <c r="AS6">
-        <v>-7635.96</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>64.0187</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>229.833</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>227.42</v>
+        <v>-1780.08</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>2587.88</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>229.895</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>227.475</v>
       </c>
       <c r="AW6">
-        <v>1.80131</v>
+        <v>1.80082</v>
       </c>
       <c r="AX6">
-        <v>1.82042</v>
+        <v>1.81998</v>
       </c>
       <c r="AY6">
-        <v>40.301</v>
+        <v>40.3033</v>
       </c>
       <c r="AZ6">
-        <v>40.7134</v>
+        <v>40.7173</v>
       </c>
       <c r="BA6" s="2">
-        <v>66.6807</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>3.60311</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>3.40753</v>
+        <v>-49.9576</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>3.60542</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>3.40992</v>
       </c>
       <c r="BD6">
-        <v>114.901</v>
+        <v>114.827</v>
       </c>
       <c r="BE6">
-        <v>121.496</v>
+        <v>121.411</v>
       </c>
       <c r="BF6">
-        <v>64.32300000000001</v>
+        <v>64.16930000000001</v>
       </c>
       <c r="BG6">
-        <v>60.05350000000001</v>
+        <v>59.9026</v>
       </c>
       <c r="BH6" s="2">
-        <v>66.5162</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>10.3315</v>
-      </c>
-      <c r="BJ6" s="3">
-        <v>9.664349999999999</v>
+        <v>-50.4517</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>10.3347</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>9.66099</v>
       </c>
       <c r="BK6">
-        <v>40.0715</v>
+        <v>40.0593</v>
       </c>
       <c r="BL6">
-        <v>42.8378</v>
+        <v>42.8527</v>
       </c>
       <c r="BM6">
-        <v>93.1195</v>
+        <v>92.96469999999999</v>
       </c>
       <c r="BN6">
-        <v>97.9945</v>
+        <v>97.8314</v>
       </c>
       <c r="BO6" s="2">
-        <v>66.8206</v>
-      </c>
-      <c r="BP6" s="3">
-        <v>7.16331</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>3.10003</v>
+        <v>-49.5449</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>7.15097</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>3.09849</v>
       </c>
       <c r="BR6">
-        <v>57.7945</v>
+        <v>57.8943</v>
       </c>
       <c r="BS6">
-        <v>133.547</v>
+        <v>133.613</v>
       </c>
       <c r="BT6" s="4" t="s">
         <v>92</v>
@@ -2302,160 +2302,160 @@
         <v>128</v>
       </c>
       <c r="T7">
-        <v>211.105</v>
+        <v>210.936</v>
       </c>
       <c r="U7">
-        <v>211.358</v>
+        <v>211.209</v>
       </c>
       <c r="V7">
-        <v>211.232</v>
+        <v>211.073</v>
       </c>
       <c r="W7" s="2">
-        <v>66.6857</v>
-      </c>
-      <c r="X7" s="3">
-        <v>18.4716</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>17.9146</v>
+        <v>-49.935</v>
+      </c>
+      <c r="X7" s="2">
+        <v>18.3373</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>17.8112</v>
       </c>
       <c r="Z7">
-        <v>25.0113</v>
+        <v>25.1946</v>
       </c>
       <c r="AA7">
-        <v>25.789</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>3053.86</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>3054.38</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>3054.12</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>0.134983</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>15.8763</v>
-      </c>
-      <c r="AG7" s="3">
+        <v>25.9388</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>8053.850000000001</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>9054.389999999999</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>8554.120000000001</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0.404881</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>15.8769</v>
+      </c>
+      <c r="AG7" s="2">
         <v>15.5551</v>
       </c>
       <c r="AH7">
-        <v>38.951</v>
+        <v>38.9497</v>
       </c>
       <c r="AI7">
         <v>39.7554</v>
       </c>
       <c r="AJ7">
-        <v>53.8564</v>
+        <v>-946.1460000000001</v>
       </c>
       <c r="AK7">
-        <v>54.3843</v>
+        <v>54.3854</v>
       </c>
       <c r="AL7">
-        <v>54.1203</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>25.0133</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>15.8763</v>
-      </c>
-      <c r="AO7" s="3">
+        <v>-445.8800000000001</v>
+      </c>
+      <c r="AM7">
+        <v>50.0538</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>15.8769</v>
+      </c>
+      <c r="AO7" s="2">
         <v>15.5551</v>
       </c>
       <c r="AP7">
-        <v>38.951</v>
+        <v>38.9497</v>
       </c>
       <c r="AQ7">
         <v>39.7554</v>
       </c>
       <c r="AR7">
-        <v>110.323</v>
+        <v>110.339</v>
       </c>
       <c r="AS7">
-        <v>110.115</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>66.66589999999999</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>222.345</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>221.85</v>
+        <v>110.08</v>
+      </c>
+      <c r="AT7">
+        <v>49.9939</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>222.357</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>221.852</v>
       </c>
       <c r="AW7">
-        <v>2.07785</v>
+        <v>2.07774</v>
       </c>
       <c r="AX7">
-        <v>2.08248</v>
+        <v>2.08247</v>
       </c>
       <c r="AY7">
-        <v>30.1853</v>
+        <v>30.1861</v>
       </c>
       <c r="AZ7">
-        <v>30.648</v>
+        <v>30.649</v>
       </c>
       <c r="BA7" s="2">
-        <v>66.6814</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>3.74896</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>3.58804</v>
+        <v>-49.9554</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>3.73033</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>3.56953</v>
       </c>
       <c r="BD7">
-        <v>123.714</v>
+        <v>124.332</v>
       </c>
       <c r="BE7">
-        <v>129.263</v>
+        <v>129.933</v>
       </c>
       <c r="BF7">
-        <v>42.8267</v>
+        <v>42.7555</v>
       </c>
       <c r="BG7">
-        <v>41.3243</v>
+        <v>41.2618</v>
       </c>
       <c r="BH7" s="2">
-        <v>66.6133</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>7.27206</v>
-      </c>
-      <c r="BJ7" s="3">
-        <v>6.33347</v>
+        <v>-50.1591</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>7.27229</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>6.32022</v>
       </c>
       <c r="BK7">
-        <v>63.7783</v>
+        <v>63.7763</v>
       </c>
       <c r="BL7">
-        <v>73.23</v>
+        <v>73.3836</v>
       </c>
       <c r="BM7">
-        <v>57.7212</v>
+        <v>57.6433</v>
       </c>
       <c r="BN7">
-        <v>58.24079999999999</v>
+        <v>58.1412</v>
       </c>
       <c r="BO7" s="2">
-        <v>66.679</v>
-      </c>
-      <c r="BP7" s="3">
-        <v>4.505590000000001</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>2.02516</v>
+        <v>-49.9654</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>4.50455</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>2.02715</v>
       </c>
       <c r="BR7">
-        <v>102.539</v>
+        <v>102.563</v>
       </c>
       <c r="BS7">
-        <v>228.13</v>
+        <v>227.906</v>
       </c>
       <c r="BT7" s="4" t="s">
         <v>92</v>
@@ -2538,160 +2538,160 @@
         <v>130</v>
       </c>
       <c r="T8">
-        <v>202.249</v>
+        <v>202.017</v>
       </c>
       <c r="U8">
-        <v>203.69</v>
+        <v>203.482</v>
       </c>
       <c r="V8">
-        <v>202.97</v>
+        <v>202.749</v>
       </c>
       <c r="W8" s="2">
-        <v>66.7324</v>
-      </c>
-      <c r="X8" s="3">
-        <v>16.3058</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>15.5124</v>
+        <v>-49.7978</v>
+      </c>
+      <c r="X8" s="2">
+        <v>16.1749</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>15.4331</v>
       </c>
       <c r="Z8">
-        <v>28.3335</v>
+        <v>28.5627</v>
       </c>
       <c r="AA8">
-        <v>29.7827</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>3049.02</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>3049.49</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>3049.26</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>0.143622</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>13.4221</v>
+        <v>29.9357</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>8049</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>9049.469999999999</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>8549.23</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.43146</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>14.1319</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>13.4218</v>
       </c>
       <c r="AH8">
-        <v>43.7584</v>
+        <v>43.7591</v>
       </c>
       <c r="AI8">
-        <v>46.0732</v>
+        <v>46.0744</v>
       </c>
       <c r="AJ8">
-        <v>49.0222</v>
+        <v>-951.003</v>
       </c>
       <c r="AK8">
-        <v>49.49140000000001</v>
+        <v>49.4731</v>
       </c>
       <c r="AL8">
-        <v>49.2568</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>25.0117</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>13.4221</v>
+        <v>-450.765</v>
+      </c>
+      <c r="AM8">
+        <v>50.0493</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>14.1319</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>13.4218</v>
       </c>
       <c r="AP8">
-        <v>43.7584</v>
+        <v>43.7591</v>
       </c>
       <c r="AQ8">
-        <v>46.0732</v>
+        <v>46.0744</v>
       </c>
       <c r="AR8">
-        <v>99.9689</v>
+        <v>99.6579</v>
       </c>
       <c r="AS8">
-        <v>101.053</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>66.7106</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>219.876</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>219.102</v>
+        <v>100.78</v>
+      </c>
+      <c r="AT8">
+        <v>49.8602</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>219.936</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>219.142</v>
       </c>
       <c r="AW8">
-        <v>2.10118</v>
+        <v>2.10061</v>
       </c>
       <c r="AX8">
-        <v>2.10861</v>
+        <v>2.10822</v>
       </c>
       <c r="AY8">
-        <v>26.8662</v>
+        <v>26.8665</v>
       </c>
       <c r="AZ8">
-        <v>27.351</v>
+        <v>27.3543</v>
       </c>
       <c r="BA8" s="2">
-        <v>66.6833</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>2.72655</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>2.55582</v>
+        <v>-49.9498</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>2.71883</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>2.55071</v>
       </c>
       <c r="BD8">
-        <v>170.105</v>
+        <v>170.588</v>
       </c>
       <c r="BE8">
-        <v>181.468</v>
+        <v>181.831</v>
       </c>
       <c r="BF8">
-        <v>38.5626</v>
+        <v>38.4959</v>
       </c>
       <c r="BG8">
-        <v>37.2704</v>
+        <v>37.2131</v>
       </c>
       <c r="BH8" s="2">
-        <v>66.62130000000001</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>6.25607</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>5.45586</v>
+        <v>-50.1353</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>6.25505</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>5.44112</v>
       </c>
       <c r="BK8">
-        <v>74.136</v>
+        <v>74.1481</v>
       </c>
       <c r="BL8">
-        <v>85.00960000000001</v>
+        <v>85.2398</v>
       </c>
       <c r="BM8">
-        <v>53.1427</v>
+        <v>53.0675</v>
       </c>
       <c r="BN8">
-        <v>54.9101</v>
+        <v>54.8005</v>
       </c>
       <c r="BO8" s="2">
-        <v>66.7189</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>4.16793</v>
-      </c>
-      <c r="BQ8" s="3">
-        <v>1.83852</v>
+        <v>-49.8485</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>4.16359</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>1.8404</v>
       </c>
       <c r="BR8">
-        <v>110.846</v>
+        <v>110.962</v>
       </c>
       <c r="BS8">
-        <v>251.289</v>
+        <v>251.032</v>
       </c>
       <c r="BT8" s="4" t="s">
         <v>92</v>
@@ -2774,160 +2774,160 @@
         <v>91</v>
       </c>
       <c r="T9">
-        <v>218.786</v>
+        <v>218.633</v>
       </c>
       <c r="U9">
-        <v>219.583</v>
+        <v>219.43</v>
       </c>
       <c r="V9">
-        <v>219.185</v>
+        <v>219.031</v>
       </c>
       <c r="W9" s="2">
-        <v>66.7032</v>
-      </c>
-      <c r="X9" s="3">
-        <v>19.595</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>19.0075</v>
+        <v>-49.8834</v>
+      </c>
+      <c r="X9" s="2">
+        <v>19.4595</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>18.9047</v>
       </c>
       <c r="Z9">
-        <v>21.1279</v>
+        <v>21.2749</v>
       </c>
       <c r="AA9">
-        <v>21.7808</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>3057.17</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>3057.57</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>3057.37</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>0.150082</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>17.0359</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>16.714</v>
+        <v>21.8993</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>8057.17</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>9057.57</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>8557.370000000001</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.450108</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>17.0358</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>16.7137</v>
       </c>
       <c r="AH9">
-        <v>32.4021</v>
+        <v>32.4024</v>
       </c>
       <c r="AI9">
-        <v>33.0262</v>
+        <v>33.0268</v>
       </c>
       <c r="AJ9">
-        <v>57.16820000000001</v>
+        <v>-942.831</v>
       </c>
       <c r="AK9">
-        <v>57.5678</v>
+        <v>57.567</v>
       </c>
       <c r="AL9">
-        <v>57.368</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>25.0102</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>17.0359</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>16.714</v>
+        <v>-442.632</v>
+      </c>
+      <c r="AM9">
+        <v>50.0406</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>17.0358</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>16.7137</v>
       </c>
       <c r="AP9">
-        <v>32.4021</v>
+        <v>32.4024</v>
       </c>
       <c r="AQ9">
-        <v>33.0262</v>
+        <v>33.0268</v>
       </c>
       <c r="AR9">
-        <v>119.334</v>
+        <v>119.511</v>
       </c>
       <c r="AS9">
-        <v>119.49</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>66.6801</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>223.368</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>222.897</v>
+        <v>119.548</v>
+      </c>
+      <c r="AT9">
+        <v>49.9508</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>223.376</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>222.894</v>
       </c>
       <c r="AW9">
-        <v>1.85345</v>
+        <v>1.85338</v>
       </c>
       <c r="AX9">
-        <v>1.85736</v>
+        <v>1.85738</v>
       </c>
       <c r="AY9">
-        <v>31.2662</v>
+        <v>31.27060000000001</v>
       </c>
       <c r="AZ9">
-        <v>31.691</v>
+        <v>31.6956</v>
       </c>
       <c r="BA9" s="2">
-        <v>66.6802</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>3.74697</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>3.60424</v>
+        <v>-49.9593</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>3.73009</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>3.58901</v>
       </c>
       <c r="BD9">
-        <v>110.489</v>
+        <v>110.989</v>
       </c>
       <c r="BE9">
-        <v>114.865</v>
+        <v>115.352</v>
       </c>
       <c r="BF9">
-        <v>44.9796</v>
+        <v>44.9119</v>
       </c>
       <c r="BG9">
-        <v>43.2908</v>
+        <v>43.2252</v>
       </c>
       <c r="BH9" s="2">
-        <v>66.6067</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>7.697340000000001</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>6.78125</v>
+        <v>-50.1795</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>7.70014</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>6.76681</v>
       </c>
       <c r="BK9">
-        <v>53.7848</v>
+        <v>53.7652</v>
       </c>
       <c r="BL9">
-        <v>61.0507</v>
+        <v>61.181</v>
       </c>
       <c r="BM9">
-        <v>61.66030000000001</v>
+        <v>61.5807</v>
       </c>
       <c r="BN9">
-        <v>62.8127</v>
+        <v>62.69580000000001</v>
       </c>
       <c r="BO9" s="2">
-        <v>66.69880000000001</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>5.04746</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>2.24794</v>
+        <v>-49.9072</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>5.04742</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>2.25084</v>
       </c>
       <c r="BR9">
-        <v>82.0214</v>
+        <v>82.02209999999999</v>
       </c>
       <c r="BS9">
-        <v>184.169</v>
+        <v>183.931</v>
       </c>
       <c r="BT9" s="4" t="s">
         <v>92</v>
@@ -3010,160 +3010,160 @@
         <v>128</v>
       </c>
       <c r="T10">
-        <v>212.19</v>
+        <v>211.961</v>
       </c>
       <c r="U10">
-        <v>214.308</v>
+        <v>214.076</v>
       </c>
       <c r="V10">
-        <v>213.249</v>
+        <v>213.019</v>
       </c>
       <c r="W10" s="2">
-        <v>66.7572</v>
-      </c>
-      <c r="X10" s="3">
-        <v>17.3959</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>16.4263</v>
+        <v>-49.7259</v>
+      </c>
+      <c r="X10" s="2">
+        <v>17.2526</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>16.3394</v>
       </c>
       <c r="Z10">
-        <v>23.7988</v>
+        <v>23.9964</v>
       </c>
       <c r="AA10">
-        <v>25.2035</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>3053.37</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>3053.66</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>3053.52</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>0.16818</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>15.3793</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>14.5825</v>
+        <v>25.3375</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>8053.34</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>9053.640000000001</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>8553.49</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>9.92365</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>15.3791</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>14.5823</v>
       </c>
       <c r="AH10">
-        <v>35.8924</v>
+        <v>35.8928</v>
       </c>
       <c r="AI10">
-        <v>37.8535</v>
+        <v>37.8541</v>
       </c>
       <c r="AJ10">
-        <v>53.3691</v>
+        <v>-946.6650000000001</v>
       </c>
       <c r="AK10">
-        <v>53.6649</v>
+        <v>53.6356</v>
       </c>
       <c r="AL10">
-        <v>53.517</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>25.0072</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>15.3793</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>14.5825</v>
+        <v>-446.515</v>
+      </c>
+      <c r="AM10">
+        <v>50.0317</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>15.3791</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>14.5823</v>
       </c>
       <c r="AP10">
-        <v>35.8924</v>
+        <v>35.8928</v>
       </c>
       <c r="AQ10">
-        <v>37.8535</v>
+        <v>37.8541</v>
       </c>
       <c r="AR10">
-        <v>110.69</v>
+        <v>110.438</v>
       </c>
       <c r="AS10">
-        <v>112.144</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>66.72709999999999</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>220.921</v>
-      </c>
-      <c r="AV10" s="2">
-        <v>220.06</v>
+        <v>111.902</v>
+      </c>
+      <c r="AT10">
+        <v>49.8108</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>220.955</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>220.078</v>
       </c>
       <c r="AW10">
-        <v>1.87397</v>
+        <v>1.87369</v>
       </c>
       <c r="AX10">
-        <v>1.88131</v>
+        <v>1.88115</v>
       </c>
       <c r="AY10">
-        <v>28.4754</v>
+        <v>28.4769</v>
       </c>
       <c r="AZ10">
-        <v>28.9386</v>
+        <v>28.9399</v>
       </c>
       <c r="BA10" s="2">
-        <v>66.6825</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>2.79516</v>
-      </c>
-      <c r="BC10" s="3">
-        <v>2.64048</v>
+        <v>-49.9523</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>2.78815</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>2.63634</v>
       </c>
       <c r="BD10">
-        <v>148.113</v>
+        <v>148.486</v>
       </c>
       <c r="BE10">
-        <v>156.79</v>
+        <v>157.036</v>
       </c>
       <c r="BF10">
-        <v>41.5242</v>
+        <v>41.4502</v>
       </c>
       <c r="BG10">
-        <v>39.9679</v>
+        <v>39.8979</v>
       </c>
       <c r="BH10" s="2">
-        <v>66.6122</v>
-      </c>
-      <c r="BI10" s="3">
-        <v>6.68982</v>
-      </c>
-      <c r="BJ10" s="3">
-        <v>5.87769</v>
+        <v>-50.1634</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>6.6927</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>5.86544</v>
       </c>
       <c r="BK10">
-        <v>61.8851</v>
+        <v>61.8584</v>
       </c>
       <c r="BL10">
-        <v>70.4358</v>
+        <v>70.5829</v>
       </c>
       <c r="BM10">
-        <v>58.60440000000001</v>
+        <v>58.52490000000001</v>
       </c>
       <c r="BN10">
-        <v>61.2077</v>
+        <v>61.0712</v>
       </c>
       <c r="BO10" s="2">
-        <v>66.745</v>
-      </c>
-      <c r="BP10" s="3">
-        <v>4.79695</v>
-      </c>
-      <c r="BQ10" s="3">
-        <v>2.08736</v>
+        <v>-49.7726</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>4.79197</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>2.08867</v>
       </c>
       <c r="BR10">
-        <v>86.3048</v>
+        <v>86.39449999999999</v>
       </c>
       <c r="BS10">
-        <v>198.337</v>
+        <v>198.212</v>
       </c>
       <c r="BT10" s="4" t="s">
         <v>92</v>
@@ -3428,160 +3428,160 @@
         <v>133</v>
       </c>
       <c r="T12" s="1">
-        <v>202.249</v>
+        <v>202.017</v>
       </c>
       <c r="U12" s="1">
-        <v>203.69</v>
+        <v>203.482</v>
       </c>
       <c r="V12" s="1">
-        <v>202.97</v>
+        <v>202.749</v>
       </c>
       <c r="W12" s="2">
-        <v>66.6833</v>
-      </c>
-      <c r="X12" s="3">
-        <v>16.3058</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>15.5124</v>
+        <v>-49.9551</v>
+      </c>
+      <c r="X12" s="2">
+        <v>16.1749</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>15.4331</v>
       </c>
       <c r="Z12" s="1">
-        <v>12.0102</v>
+        <v>12.1682</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.6079</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>3049.02</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>3049.49</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>3049.26</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0.134983</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>13.4221</v>
+        <v>13.8337</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>8049</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>9049.469999999999</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>8549.23</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0.404881</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>14.1319</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>13.4218</v>
       </c>
       <c r="AH12" s="1">
-        <v>21.5015</v>
+        <v>21.5014</v>
       </c>
       <c r="AI12" s="1">
-        <v>22.1541</v>
+        <v>22.1545</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49.0222</v>
+        <v>-951.003</v>
       </c>
       <c r="AK12" s="1">
-        <v>49.49140000000001</v>
+        <v>49.4731</v>
       </c>
       <c r="AL12" s="1">
-        <v>49.2568</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>24.9817</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>14.1321</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>13.4221</v>
+        <v>-450.765</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>49.933</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>14.1319</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>13.4218</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.5015</v>
+        <v>21.5014</v>
       </c>
       <c r="AQ12" s="1">
-        <v>22.1541</v>
+        <v>22.1545</v>
       </c>
       <c r="AR12" s="1">
-        <v>-8653.84</v>
+        <v>-2653.59</v>
       </c>
       <c r="AS12" s="1">
-        <v>-8799</v>
+        <v>-2162.91</v>
       </c>
       <c r="AT12" s="2">
-        <v>64.0187</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>219.876</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>219.102</v>
+        <v>3.20119</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>219.936</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>219.142</v>
       </c>
       <c r="AW12" s="1">
-        <v>1.7803</v>
+        <v>1.77957</v>
       </c>
       <c r="AX12" s="1">
-        <v>1.79374</v>
+        <v>1.79321</v>
       </c>
       <c r="AY12" s="1">
-        <v>26.8662</v>
+        <v>26.8665</v>
       </c>
       <c r="AZ12" s="1">
-        <v>27.351</v>
+        <v>27.3543</v>
       </c>
       <c r="BA12" s="2">
-        <v>66.6794</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>2.72655</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>2.55582</v>
+        <v>-49.9615</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>2.71883</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>2.55071</v>
       </c>
       <c r="BD12" s="1">
-        <v>103.986</v>
+        <v>104.036</v>
       </c>
       <c r="BE12" s="1">
-        <v>107.49</v>
+        <v>107.559</v>
       </c>
       <c r="BF12" s="1">
-        <v>38.5626</v>
+        <v>38.4959</v>
       </c>
       <c r="BG12" s="1">
-        <v>37.2704</v>
+        <v>37.2131</v>
       </c>
       <c r="BH12" s="2">
-        <v>66.5162</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>6.25607</v>
-      </c>
-      <c r="BJ12" s="3">
-        <v>5.45586</v>
+        <v>-50.4517</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>6.25505</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>5.44112</v>
       </c>
       <c r="BK12" s="1">
-        <v>37.5961</v>
+        <v>37.5907</v>
       </c>
       <c r="BL12" s="1">
-        <v>39.8699</v>
+        <v>40.0434</v>
       </c>
       <c r="BM12" s="1">
-        <v>53.1427</v>
+        <v>53.0675</v>
       </c>
       <c r="BN12" s="1">
-        <v>54.9101</v>
+        <v>54.8005</v>
       </c>
       <c r="BO12" s="2">
-        <v>66.679</v>
-      </c>
-      <c r="BP12" s="3">
-        <v>4.16793</v>
-      </c>
-      <c r="BQ12" s="3">
-        <v>1.83852</v>
+        <v>-49.9654</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>4.16359</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>1.8404</v>
       </c>
       <c r="BR12" s="1">
-        <v>57.7945</v>
+        <v>57.8943</v>
       </c>
       <c r="BS12" s="1">
-        <v>133.127</v>
+        <v>132.751</v>
       </c>
       <c r="BT12" s="1" t="s">
         <v>134</v>
@@ -3610,160 +3610,160 @@
         <v>135</v>
       </c>
       <c r="T13" s="1">
-        <v>282.324</v>
+        <v>282.053</v>
       </c>
       <c r="U13" s="1">
-        <v>284.948</v>
+        <v>284.639</v>
       </c>
       <c r="V13" s="1">
-        <v>283.636</v>
+        <v>283.346</v>
       </c>
       <c r="W13" s="2">
-        <v>66.77079999999999</v>
+        <v>-49.7086</v>
       </c>
       <c r="X13" s="1">
-        <v>34.4707</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>30.4234</v>
+        <v>34.0231</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>29.9269</v>
       </c>
       <c r="Z13" s="1">
-        <v>28.3335</v>
+        <v>28.5627</v>
       </c>
       <c r="AA13" s="1">
-        <v>29.7827</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>3084.48</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>3083.78</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>3084.13</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>18.0285</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>25.6726</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>24.9163</v>
+        <v>29.9357</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>8084.41</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>9083.700000000001</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>8584.060000000001</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>18.0672</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>25.6727</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>24.9159</v>
       </c>
       <c r="AH13" s="1">
-        <v>43.7584</v>
+        <v>43.7591</v>
       </c>
       <c r="AI13" s="1">
-        <v>46.0732</v>
+        <v>46.0744</v>
       </c>
       <c r="AJ13" s="1">
-        <v>84.47920000000001</v>
+        <v>-915.5910000000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>83.7771</v>
+        <v>83.70320000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>84.12820000000001</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>25.0133</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>25.6726</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>24.9163</v>
+        <v>-415.944</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>50.0538</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>25.6727</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>24.9159</v>
       </c>
       <c r="AP13" s="1">
-        <v>43.7584</v>
+        <v>43.7591</v>
       </c>
       <c r="AQ13" s="1">
-        <v>46.0732</v>
+        <v>46.0744</v>
       </c>
       <c r="AR13" s="1">
-        <v>167.25</v>
+        <v>172.695</v>
       </c>
       <c r="AS13" s="1">
-        <v>158.264</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>99.6469</v>
-      </c>
-      <c r="AU13" s="2">
-        <v>232.545</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>230.802</v>
+        <v>158.528</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>2587.88</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>232.641</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>230.87</v>
       </c>
       <c r="AW13" s="1">
-        <v>2.10118</v>
+        <v>2.10061</v>
       </c>
       <c r="AX13" s="1">
-        <v>2.10861</v>
+        <v>2.10822</v>
       </c>
       <c r="AY13" s="1">
         <v>40.3033</v>
       </c>
       <c r="AZ13" s="1">
-        <v>40.7134</v>
+        <v>40.7173</v>
       </c>
       <c r="BA13" s="2">
-        <v>66.6833</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>3.98132</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>3.85153</v>
+        <v>-49.9498</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>3.97938</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>3.84906</v>
       </c>
       <c r="BD13" s="1">
-        <v>170.105</v>
+        <v>170.588</v>
       </c>
       <c r="BE13" s="1">
-        <v>181.468</v>
+        <v>181.831</v>
       </c>
       <c r="BF13" s="1">
-        <v>64.32300000000001</v>
+        <v>64.16930000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>60.05350000000001</v>
+        <v>59.9026</v>
       </c>
       <c r="BH13" s="2">
-        <v>66.62130000000001</v>
-      </c>
-      <c r="BI13" s="3">
-        <v>11.0118</v>
-      </c>
-      <c r="BJ13" s="3">
-        <v>10.3838</v>
+        <v>-50.1353</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>11.0134</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>10.3388</v>
       </c>
       <c r="BK13" s="1">
-        <v>74.136</v>
+        <v>74.1481</v>
       </c>
       <c r="BL13" s="1">
-        <v>85.00960000000001</v>
+        <v>85.2398</v>
       </c>
       <c r="BM13" s="1">
-        <v>93.1195</v>
+        <v>92.96469999999999</v>
       </c>
       <c r="BN13" s="1">
-        <v>97.9945</v>
+        <v>97.8314</v>
       </c>
       <c r="BO13" s="2">
-        <v>66.8206</v>
-      </c>
-      <c r="BP13" s="3">
-        <v>7.16331</v>
-      </c>
-      <c r="BQ13" s="3">
-        <v>3.10981</v>
+        <v>-49.5449</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>7.15097</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>3.11862</v>
       </c>
       <c r="BR13" s="1">
-        <v>110.846</v>
+        <v>110.962</v>
       </c>
       <c r="BS13" s="1">
-        <v>251.289</v>
+        <v>251.032</v>
       </c>
       <c r="BT13" s="1" t="s">
         <v>134</v>
@@ -4076,160 +4076,160 @@
         <v>140</v>
       </c>
       <c r="T18" s="1">
-        <v>237.5616666666667</v>
+        <v>237.3241111111111</v>
       </c>
       <c r="U18" s="1">
-        <v>238.9112222222222</v>
+        <v>238.6246666666667</v>
       </c>
       <c r="V18" s="1">
-        <v>238.2366666666666</v>
+        <v>237.9744444444445</v>
       </c>
       <c r="W18" s="1">
-        <v>66.72622222222222</v>
+        <v>-49.82063333333333</v>
       </c>
       <c r="X18" s="1">
-        <v>23.2641</v>
+        <v>23.08445555555555</v>
       </c>
       <c r="Y18" s="1">
-        <v>21.22126666666666</v>
+        <v>21.05781111111111</v>
       </c>
       <c r="Z18" s="1">
-        <v>20.14442222222222</v>
+        <v>20.29607777777778</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.7073</v>
+        <v>21.8493</v>
       </c>
       <c r="AB18" s="1">
-        <v>3065.332222222222</v>
+        <v>8065.295555555556</v>
       </c>
       <c r="AC18" s="1">
-        <v>3065.421111111111</v>
+        <v>9065.394444444444</v>
       </c>
       <c r="AD18" s="1">
-        <v>3065.377777777778</v>
+        <v>8565.344444444445</v>
       </c>
       <c r="AE18" s="1">
-        <v>2.569640555555555</v>
+        <v>4.245608000000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.4745</v>
+        <v>19.47504444444444</v>
       </c>
       <c r="AG18" s="1">
-        <v>18.61441111111111</v>
+        <v>18.61413333333333</v>
       </c>
       <c r="AH18" s="1">
-        <v>31.54107777777777</v>
+        <v>31.5404</v>
       </c>
       <c r="AI18" s="1">
-        <v>32.9558</v>
+        <v>32.95638888888889</v>
       </c>
       <c r="AJ18" s="1">
-        <v>65.33177777777777</v>
+        <v>-934.7045555555555</v>
       </c>
       <c r="AK18" s="1">
-        <v>65.42107777777778</v>
+        <v>65.39252222222221</v>
       </c>
       <c r="AL18" s="1">
-        <v>65.37643333333334</v>
+        <v>-434.6561111111111</v>
       </c>
       <c r="AM18" s="1">
-        <v>25.0021</v>
+        <v>50.01152222222223</v>
       </c>
       <c r="AN18" s="1">
-        <v>19.4745</v>
+        <v>19.47504444444444</v>
       </c>
       <c r="AO18" s="1">
-        <v>18.61441111111111</v>
+        <v>18.61413333333333</v>
       </c>
       <c r="AP18" s="1">
-        <v>31.54107777777777</v>
+        <v>31.5404</v>
       </c>
       <c r="AQ18" s="1">
-        <v>32.9558</v>
+        <v>32.95638888888889</v>
       </c>
       <c r="AR18" s="1">
-        <v>-2133.430788888889</v>
+        <v>-633.7906777777778</v>
       </c>
       <c r="AS18" s="1">
-        <v>-2372.656888888889</v>
+        <v>-540.5995555555556</v>
       </c>
       <c r="AT18" s="1">
-        <v>72.95161111111111</v>
+        <v>550.5544211111112</v>
       </c>
       <c r="AU18" s="1">
-        <v>225.5274444444444</v>
+        <v>225.5692222222222</v>
       </c>
       <c r="AV18" s="1">
-        <v>224.2881111111111</v>
+        <v>224.3175555555556</v>
       </c>
       <c r="AW18" s="1">
-        <v>1.949127777777778</v>
+        <v>1.948775555555555</v>
       </c>
       <c r="AX18" s="1">
-        <v>1.959708888888889</v>
+        <v>1.959456666666667</v>
       </c>
       <c r="AY18" s="1">
-        <v>33.70777777777778</v>
+        <v>33.70903333333334</v>
       </c>
       <c r="AZ18" s="1">
-        <v>34.13852222222222</v>
+        <v>34.14128888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>66.68104444444445</v>
+        <v>-49.95657777777777</v>
       </c>
       <c r="BB18" s="1">
-        <v>3.423778888888889</v>
+        <v>3.417096666666668</v>
       </c>
       <c r="BC18" s="1">
-        <v>3.2682</v>
+        <v>3.262856666666667</v>
       </c>
       <c r="BD18" s="1">
-        <v>130.9184444444444</v>
+        <v>131.1801111111111</v>
       </c>
       <c r="BE18" s="1">
-        <v>137.4777777777778</v>
+        <v>137.6947777777778</v>
       </c>
       <c r="BF18" s="1">
-        <v>50.62835555555557</v>
+        <v>50.528</v>
       </c>
       <c r="BG18" s="1">
-        <v>48.13811111111111</v>
+        <v>48.0444</v>
       </c>
       <c r="BH18" s="1">
-        <v>66.57882222222223</v>
+        <v>-50.26292222222223</v>
       </c>
       <c r="BI18" s="1">
-        <v>8.432101111111111</v>
+        <v>8.434547777777777</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.649778888888889</v>
+        <v>7.630824444444444</v>
       </c>
       <c r="BK18" s="1">
-        <v>54.17833333333334</v>
+        <v>54.16384444444444</v>
       </c>
       <c r="BL18" s="1">
-        <v>60.43114444444445</v>
+        <v>60.57696666666666</v>
       </c>
       <c r="BM18" s="1">
-        <v>70.57175555555557</v>
+        <v>70.46155555555555</v>
       </c>
       <c r="BN18" s="1">
-        <v>72.97874444444444</v>
+        <v>72.79753333333333</v>
       </c>
       <c r="BO18" s="1">
-        <v>66.73885555555556</v>
+        <v>-49.79255555555555</v>
       </c>
       <c r="BP18" s="1">
-        <v>5.5031</v>
+        <v>5.497271111111112</v>
       </c>
       <c r="BQ18" s="1">
-        <v>2.43369</v>
+        <v>2.43649</v>
       </c>
       <c r="BR18" s="1">
-        <v>82.71348888888889</v>
+        <v>82.79175555555555</v>
       </c>
       <c r="BS18" s="1">
-        <v>186.7561111111112</v>
+        <v>186.555</v>
       </c>
       <c r="BT18" s="1" t="s">
         <v>134</v>
@@ -4258,160 +4258,160 @@
         <v>141</v>
       </c>
       <c r="T19" s="1">
-        <v>27.94605839430273</v>
+        <v>27.89696484663378</v>
       </c>
       <c r="U19" s="1">
-        <v>28.20583431678938</v>
+        <v>28.10320238375375</v>
       </c>
       <c r="V19" s="1">
-        <v>28.07406650669301</v>
+        <v>27.99813877985111</v>
       </c>
       <c r="W19" s="1">
-        <v>0.03071231304932065</v>
+        <v>0.08918284588417344</v>
       </c>
       <c r="X19" s="1">
-        <v>5.993343984046896</v>
+        <v>5.923666491870856</v>
       </c>
       <c r="Y19" s="1">
-        <v>4.664816436545673</v>
+        <v>4.552880810711303</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.054615442406799</v>
+        <v>5.090993041261482</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.762039251786524</v>
+        <v>4.749835195737497</v>
       </c>
       <c r="AB19" s="1">
-        <v>12.5334670008632</v>
+        <v>12.5140268952803</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.1755213846329</v>
+        <v>12.15806189883114</v>
       </c>
       <c r="AD19" s="1">
-        <v>12.35305430317883</v>
+        <v>12.33797490236399</v>
       </c>
       <c r="AE19" s="1">
-        <v>5.573379067572644</v>
+        <v>5.765566662061531</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.062172409219262</v>
+        <v>4.062490753250636</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.821512068815008</v>
+        <v>3.82158488762625</v>
       </c>
       <c r="AH19" s="1">
-        <v>7.000540300382817</v>
+        <v>7.000861298440356</v>
       </c>
       <c r="AI19" s="1">
-        <v>7.24397890511684</v>
+        <v>7.244316174068919</v>
       </c>
       <c r="AJ19" s="1">
-        <v>12.53355581715454</v>
+        <v>12.5152044695075</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.17295245961105</v>
+        <v>12.15853790321643</v>
       </c>
       <c r="AL19" s="1">
-        <v>12.35308635182137</v>
+        <v>12.33669318599729</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.009813143114098663</v>
+        <v>0.0376196396042103</v>
       </c>
       <c r="AN19" s="1">
-        <v>4.062172409219262</v>
+        <v>4.062490753250636</v>
       </c>
       <c r="AO19" s="1">
-        <v>3.821512068815008</v>
+        <v>3.82158488762625</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.000540300382817</v>
+        <v>7.000861298440356</v>
       </c>
       <c r="AQ19" s="1">
-        <v>7.24397890511684</v>
+        <v>7.244316174068919</v>
       </c>
       <c r="AR19" s="1">
-        <v>3294.693758459192</v>
+        <v>1097.445599382204</v>
       </c>
       <c r="AS19" s="1">
-        <v>3606.7539559037</v>
+        <v>945.2129182856235</v>
       </c>
       <c r="AT19" s="1">
-        <v>12.57438678756185</v>
+        <v>957.1202158635293</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.18443374932249</v>
+        <v>4.203901515332782</v>
       </c>
       <c r="AV19" s="1">
-        <v>3.700236432219031</v>
+        <v>3.718623703322721</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.1152847478374768</v>
+        <v>0.1153440012514364</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.1139458505357742</v>
+        <v>0.1139912785162873</v>
       </c>
       <c r="AY19" s="1">
-        <v>4.738812442134464</v>
+        <v>4.738270501635239</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.711122360442544</v>
+        <v>4.71087440867627</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.001163434676685754</v>
+        <v>0.003530746782126723</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.4298323107767193</v>
+        <v>0.4292191457363788</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.4368766274361677</v>
+        <v>0.4352556452374984</v>
       </c>
       <c r="BD19" s="1">
-        <v>20.04284917709561</v>
+        <v>20.11159990013748</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.21787797536918</v>
+        <v>22.23554638050313</v>
       </c>
       <c r="BF19" s="1">
-        <v>9.067114019369502</v>
+        <v>9.036414111188625</v>
       </c>
       <c r="BG19" s="1">
-        <v>8.043801090894561</v>
+        <v>8.012916491931428</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.03657831105322091</v>
+        <v>0.109842784396385</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.582052679088113</v>
+        <v>1.582599773465433</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.661815401283551</v>
+        <v>1.655504594497542</v>
       </c>
       <c r="BK19" s="1">
-        <v>11.00267445174632</v>
+        <v>11.00595176207564</v>
       </c>
       <c r="BL19" s="1">
-        <v>13.8319292755816</v>
+        <v>13.8625713243331</v>
       </c>
       <c r="BM19" s="1">
-        <v>13.58877301133477</v>
+        <v>13.55673162496617</v>
       </c>
       <c r="BN19" s="1">
-        <v>14.5663782514629</v>
+        <v>14.50945282351398</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.03872840218499102</v>
+        <v>0.1146079026857438</v>
       </c>
       <c r="BP19" s="1">
-        <v>1.001090420524873</v>
+        <v>0.9980201877433191</v>
       </c>
       <c r="BQ19" s="1">
-        <v>0.4316127355499243</v>
+        <v>0.4326553875263262</v>
       </c>
       <c r="BR19" s="1">
-        <v>16.49928677256111</v>
+        <v>16.49609933099412</v>
       </c>
       <c r="BS19" s="1">
-        <v>36.65229402990106</v>
+        <v>36.64358733651618</v>
       </c>
       <c r="BT19" s="1" t="s">
         <v>134</v>
@@ -4440,160 +4440,160 @@
         <v>142</v>
       </c>
       <c r="T20" s="1">
-        <v>11.76370699297841</v>
+        <v>11.75479588484496</v>
       </c>
       <c r="U20" s="1">
-        <v>11.80598971217595</v>
+        <v>11.77715731417278</v>
       </c>
       <c r="V20" s="1">
-        <v>11.78410817255657</v>
+        <v>11.76518715915621</v>
       </c>
       <c r="W20" s="1">
-        <v>0.04602735180636729</v>
+        <v>0.1790078526049249</v>
       </c>
       <c r="X20" s="1">
-        <v>25.76220005952045</v>
+        <v>25.66084557469779</v>
       </c>
       <c r="Y20" s="1">
-        <v>21.98180019043321</v>
+        <v>21.62086451762778</v>
       </c>
       <c r="Z20" s="1">
-        <v>25.09188591584834</v>
+        <v>25.08362993580771</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.93750144783793</v>
+        <v>21.73907262812766</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.4088779320558285</v>
+        <v>0.1551589375625591</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.397189193370554</v>
+        <v>0.1341150897883101</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.4029863592256509</v>
+        <v>0.1440452860055908</v>
       </c>
       <c r="AE20" s="1">
-        <v>216.8933337981071</v>
+        <v>135.8007301206689</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.85893044349925</v>
+        <v>20.8599819365728</v>
       </c>
       <c r="AG20" s="1">
-        <v>20.5298574636826</v>
+        <v>20.53055503144341</v>
       </c>
       <c r="AH20" s="1">
-        <v>22.19499393681163</v>
+        <v>22.19648862551</v>
       </c>
       <c r="AI20" s="1">
-        <v>21.98089230155797</v>
+        <v>21.98152291045245</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19.18447077896257</v>
+        <v>1.338947627367549</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.60708027611546</v>
+        <v>18.59316247490545</v>
       </c>
       <c r="AL20" s="1">
-        <v>18.89532010539176</v>
+        <v>2.838265210274166</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.0392492755172512</v>
+        <v>0.07522194472915744</v>
       </c>
       <c r="AN20" s="1">
-        <v>20.85893044349925</v>
+        <v>20.8599819365728</v>
       </c>
       <c r="AO20" s="1">
-        <v>20.5298574636826</v>
+        <v>20.53055503144341</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.19499393681163</v>
+        <v>22.19648862551</v>
       </c>
       <c r="AQ20" s="1">
-        <v>21.98089230155797</v>
+        <v>21.98152291045245</v>
       </c>
       <c r="AR20" s="1">
-        <v>154.4317151331213</v>
+        <v>173.1558443286214</v>
       </c>
       <c r="AS20" s="1">
-        <v>152.0132966883693</v>
+        <v>174.8453006614592</v>
       </c>
       <c r="AT20" s="1">
-        <v>17.23661286713744</v>
+        <v>173.8466133705547</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.855398911485146</v>
+        <v>1.863685778546179</v>
       </c>
       <c r="AV20" s="1">
-        <v>1.649769314070309</v>
+        <v>1.657749744157563</v>
       </c>
       <c r="AW20" s="1">
-        <v>5.91468395001349</v>
+        <v>5.918793517427622</v>
       </c>
       <c r="AX20" s="1">
-        <v>5.814427396937459</v>
+        <v>5.817494229673564</v>
       </c>
       <c r="AY20" s="1">
-        <v>14.05851335966317</v>
+        <v>14.05638202312309</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.80001843599391</v>
+        <v>13.79817388853588</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.001744775725063926</v>
+        <v>0.007067631409486397</v>
       </c>
       <c r="BB20" s="1">
-        <v>12.5543244679627</v>
+        <v>12.56093074343947</v>
       </c>
       <c r="BC20" s="1">
-        <v>13.36749976856275</v>
+        <v>13.33971086392083</v>
       </c>
       <c r="BD20" s="1">
-        <v>15.30941592084135</v>
+        <v>15.33128744120571</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.16106859923403</v>
+        <v>16.14843114557949</v>
       </c>
       <c r="BF20" s="1">
-        <v>17.90916161481873</v>
+        <v>17.88397346261207</v>
       </c>
       <c r="BG20" s="1">
-        <v>16.70983947070144</v>
+        <v>16.67814873727516</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.05493985900070796</v>
+        <v>0.2185364072362299</v>
       </c>
       <c r="BI20" s="1">
-        <v>18.76225934961118</v>
+        <v>18.76330320441193</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.72370503018454</v>
+        <v>21.69496371657217</v>
       </c>
       <c r="BK20" s="1">
-        <v>20.30825567123324</v>
+        <v>20.31973888663752</v>
       </c>
       <c r="BL20" s="1">
-        <v>22.88874288703497</v>
+        <v>22.88422825892531</v>
       </c>
       <c r="BM20" s="1">
-        <v>19.25525715544572</v>
+        <v>19.23989829358414</v>
       </c>
       <c r="BN20" s="1">
-        <v>19.95975453174815</v>
+        <v>19.93124239124491</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.05802976671176548</v>
+        <v>0.2301707582730337</v>
       </c>
       <c r="BP20" s="1">
-        <v>18.19139068025064</v>
+        <v>18.154829324792</v>
       </c>
       <c r="BQ20" s="1">
-        <v>17.7349101796007</v>
+        <v>17.75732252241241</v>
       </c>
       <c r="BR20" s="1">
-        <v>19.94751641382824</v>
+        <v>19.9248092038884</v>
       </c>
       <c r="BS20" s="1">
-        <v>19.62575350912863</v>
+        <v>19.64224348664801</v>
       </c>
       <c r="BT20" s="1" t="s">
         <v>134</v>

--- a/txsb_top_timing_bdlmin_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmin_tran_channel_s_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="144">
   <si>
     <t>Process</t>
   </si>
@@ -289,124 +289,127 @@
     <t>typical</t>
   </si>
   <si>
+    <t>8.00000e00</t>
+  </si>
+  <si>
+    <t>6.00000e00</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>mosulvt_ss</t>
+  </si>
+  <si>
+    <t>moselvt_ss</t>
+  </si>
+  <si>
+    <t>moshselvt_ss</t>
+  </si>
+  <si>
+    <t>moslvt_ss</t>
+  </si>
+  <si>
+    <t>nmoscap_s</t>
+  </si>
+  <si>
+    <t>bip_s</t>
+  </si>
+  <si>
+    <t>dio_s</t>
+  </si>
+  <si>
+    <t>res_h</t>
+  </si>
+  <si>
+    <t>cap_h</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.825</t>
+  </si>
+  <si>
+    <t>1.80000e01</t>
+  </si>
+  <si>
+    <t>1.60000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (2)</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1.50000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (3)</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>2.30000e01</t>
+  </si>
+  <si>
+    <t>2.00000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (4)</t>
+  </si>
+  <si>
+    <t>1.90000e01</t>
+  </si>
+  <si>
+    <t>tsmc2ff (5)</t>
+  </si>
+  <si>
+    <t>mosulvt_ff</t>
+  </si>
+  <si>
+    <t>moselvt_ff</t>
+  </si>
+  <si>
+    <t>moshselvt_ff</t>
+  </si>
+  <si>
+    <t>moslvt_ff</t>
+  </si>
+  <si>
+    <t>nmoscap_f</t>
+  </si>
+  <si>
+    <t>bip_f</t>
+  </si>
+  <si>
+    <t>dio_f</t>
+  </si>
+  <si>
+    <t>res_l</t>
+  </si>
+  <si>
+    <t>cap_l</t>
+  </si>
+  <si>
+    <t>rcbest_ccbest_t</t>
+  </si>
+  <si>
     <t>3.00000e00</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>mosulvt_ss</t>
-  </si>
-  <si>
-    <t>moselvt_ss</t>
-  </si>
-  <si>
-    <t>moshselvt_ss</t>
-  </si>
-  <si>
-    <t>moslvt_ss</t>
-  </si>
-  <si>
-    <t>nmoscap_s</t>
-  </si>
-  <si>
-    <t>bip_s</t>
-  </si>
-  <si>
-    <t>dio_s</t>
-  </si>
-  <si>
-    <t>res_h</t>
-  </si>
-  <si>
-    <t>cap_h</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
-    <t>1.10000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (2)</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>7.00000e00</t>
-  </si>
-  <si>
-    <t>5.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (3)</t>
-  </si>
-  <si>
-    <t>0.690</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
-    <t>tsmc2ff (4)</t>
-  </si>
-  <si>
-    <t>tsmc2ff (5)</t>
-  </si>
-  <si>
-    <t>mosulvt_ff</t>
-  </si>
-  <si>
-    <t>moselvt_ff</t>
-  </si>
-  <si>
-    <t>moshselvt_ff</t>
-  </si>
-  <si>
-    <t>moslvt_ff</t>
-  </si>
-  <si>
-    <t>nmoscap_f</t>
-  </si>
-  <si>
-    <t>bip_f</t>
-  </si>
-  <si>
-    <t>dio_f</t>
-  </si>
-  <si>
-    <t>res_l</t>
-  </si>
-  <si>
-    <t>cap_l</t>
-  </si>
-  <si>
-    <t>rcbest_ccbest_t</t>
+    <t>tsmc2ff (6)</t>
   </si>
   <si>
     <t>1.00000e00</t>
-  </si>
-  <si>
-    <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>0.00000e00</t>
   </si>
   <si>
     <t>tsmc2ff (7)</t>
@@ -480,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9133"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,12 +527,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,237 +1129,237 @@
         <v>91</v>
       </c>
       <c r="S2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2">
-        <v>227.965</v>
+        <v>217.542</v>
       </c>
       <c r="U2">
-        <v>229.347</v>
+        <v>216.942</v>
       </c>
       <c r="V2">
-        <v>228.656</v>
+        <v>217.242</v>
       </c>
       <c r="W2" s="2">
-        <v>-49.781</v>
-      </c>
-      <c r="X2" s="2">
-        <v>20.4801</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>19.1687</v>
+        <v>-50.1088</v>
+      </c>
+      <c r="X2" s="3">
+        <v>452.944</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>161.01</v>
       </c>
       <c r="Z2">
-        <v>21.9726</v>
+        <v>0.9935</v>
       </c>
       <c r="AA2">
-        <v>23.4758</v>
+        <v>2.79485</v>
       </c>
       <c r="AB2" s="3">
-        <v>8061.42</v>
+        <v>366.006</v>
       </c>
       <c r="AC2" s="3">
-        <v>9061.629999999999</v>
+        <v>357.972</v>
       </c>
       <c r="AD2" s="3">
-        <v>8561.52</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>5.67019</v>
+        <v>361.989</v>
+      </c>
+      <c r="AE2">
+        <v>50.8022</v>
       </c>
       <c r="AF2" s="2">
-        <v>18.1516</v>
+        <v>17.5749</v>
       </c>
       <c r="AG2" s="2">
-        <v>17.2797</v>
+        <v>16.8289</v>
       </c>
       <c r="AH2">
-        <v>33.0549</v>
+        <v>34.1396</v>
       </c>
       <c r="AI2">
-        <v>34.7228</v>
+        <v>35.6529</v>
       </c>
       <c r="AJ2">
-        <v>-938.5800000000002</v>
-      </c>
-      <c r="AK2">
-        <v>61.62710000000001</v>
+        <v>-634.019</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>357.965</v>
       </c>
       <c r="AL2">
-        <v>-438.477</v>
+        <v>-138.027</v>
       </c>
       <c r="AM2">
-        <v>50.0224</v>
+        <v>49.198</v>
       </c>
       <c r="AN2" s="2">
-        <v>18.1516</v>
+        <v>17.5735</v>
       </c>
       <c r="AO2" s="2">
-        <v>17.2797</v>
+        <v>16.83</v>
       </c>
       <c r="AP2">
-        <v>33.0549</v>
+        <v>34.1424</v>
       </c>
       <c r="AQ2">
-        <v>34.7228</v>
-      </c>
-      <c r="AR2">
-        <v>130.673</v>
+        <v>35.6507</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>312.402</v>
       </c>
       <c r="AS2">
-        <v>129.966</v>
+        <v>311.838</v>
       </c>
       <c r="AT2">
-        <v>49.9209</v>
+        <v>50.2797</v>
       </c>
       <c r="AU2" s="3">
-        <v>224.212</v>
+        <v>240.954</v>
       </c>
       <c r="AV2" s="3">
-        <v>223.084</v>
+        <v>241.765</v>
       </c>
       <c r="AW2">
-        <v>2.00703</v>
+        <v>1.86758</v>
       </c>
       <c r="AX2">
-        <v>2.01718</v>
+        <v>1.86131</v>
       </c>
       <c r="AY2">
-        <v>32.3246</v>
+        <v>32.255</v>
       </c>
       <c r="AZ2">
-        <v>32.7514</v>
+        <v>32.3179</v>
       </c>
       <c r="BA2" s="2">
-        <v>-49.9564</v>
+        <v>-49.9954</v>
       </c>
       <c r="BB2" s="2">
-        <v>3.16764</v>
+        <v>2.84678</v>
       </c>
       <c r="BC2" s="2">
-        <v>3.01785</v>
+        <v>2.75882</v>
       </c>
       <c r="BD2">
-        <v>142.062</v>
+        <v>158.073</v>
       </c>
       <c r="BE2">
-        <v>149.113</v>
+        <v>163.113</v>
       </c>
       <c r="BF2">
-        <v>47.6026</v>
+        <v>42.2003</v>
       </c>
       <c r="BG2">
-        <v>45.5026</v>
+        <v>41.7482</v>
       </c>
       <c r="BH2" s="2">
-        <v>-50.2215</v>
+        <v>-50.0467</v>
       </c>
       <c r="BI2" s="2">
-        <v>7.84989</v>
+        <v>8.9695</v>
       </c>
       <c r="BJ2" s="2">
-        <v>6.99212</v>
+        <v>6.49894</v>
       </c>
       <c r="BK2">
-        <v>57.3256</v>
+        <v>50.17</v>
       </c>
       <c r="BL2">
-        <v>64.35809999999999</v>
-      </c>
-      <c r="BM2">
-        <v>65.9581</v>
-      </c>
-      <c r="BN2">
-        <v>68.17830000000001</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>-49.8054</v>
-      </c>
-      <c r="BP2" s="2">
-        <v>5.11453</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>2.27055</v>
-      </c>
-      <c r="BR2">
-        <v>87.9847</v>
-      </c>
-      <c r="BS2">
-        <v>198.189</v>
-      </c>
-      <c r="BT2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ2" s="4" t="s">
-        <v>92</v>
+        <v>69.24209999999999</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:78">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
         <v>107</v>
@@ -1358,181 +1368,181 @@
         <v>108</v>
       </c>
       <c r="T3">
-        <v>254.352</v>
+        <v>230.538</v>
       </c>
       <c r="U3">
-        <v>254.787</v>
+        <v>227.842</v>
       </c>
       <c r="V3">
-        <v>254.569</v>
+        <v>229.19</v>
       </c>
       <c r="W3" s="2">
-        <v>-49.9551</v>
-      </c>
-      <c r="X3" s="2">
-        <v>28.091</v>
+        <v>-50.3073</v>
+      </c>
+      <c r="X3" s="3">
+        <v>2362.66</v>
       </c>
       <c r="Y3" s="2">
-        <v>25.4894</v>
+        <v>-1867.54</v>
       </c>
       <c r="Z3">
-        <v>16.4465</v>
+        <v>0.209509</v>
       </c>
       <c r="AA3">
-        <v>18.1252</v>
+        <v>-0.265055</v>
       </c>
       <c r="AB3" s="3">
-        <v>8073.75</v>
+        <v>366.775</v>
       </c>
       <c r="AC3" s="3">
-        <v>9073.84</v>
+        <v>361.661</v>
       </c>
       <c r="AD3" s="3">
-        <v>8573.790000000001</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0.738473</v>
+        <v>364.218</v>
+      </c>
+      <c r="AE3">
+        <v>50.5032</v>
       </c>
       <c r="AF3" s="2">
-        <v>22.757</v>
+        <v>21.0788</v>
       </c>
       <c r="AG3" s="2">
-        <v>21.9949</v>
+        <v>20.4481</v>
       </c>
       <c r="AH3">
-        <v>27.174</v>
+        <v>29.9068</v>
       </c>
       <c r="AI3">
-        <v>28.1156</v>
+        <v>30.8293</v>
       </c>
       <c r="AJ3">
-        <v>-926.2479999999999</v>
-      </c>
-      <c r="AK3">
-        <v>73.83499999999999</v>
+        <v>-633.454</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>361.668</v>
       </c>
       <c r="AL3">
-        <v>-426.207</v>
+        <v>-135.893</v>
       </c>
       <c r="AM3">
-        <v>50.01</v>
+        <v>49.5111</v>
       </c>
       <c r="AN3" s="2">
-        <v>22.757</v>
+        <v>21.0803</v>
       </c>
       <c r="AO3" s="2">
-        <v>21.9949</v>
+        <v>20.4466</v>
       </c>
       <c r="AP3">
-        <v>27.174</v>
+        <v>29.9047</v>
       </c>
       <c r="AQ3">
-        <v>28.1156</v>
-      </c>
-      <c r="AR3">
-        <v>-2653.59</v>
+        <v>30.8316</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>324.835</v>
       </c>
       <c r="AS3">
-        <v>-2162.91</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>2064.12</v>
+        <v>322.693</v>
+      </c>
+      <c r="AT3">
+        <v>50.4404</v>
       </c>
       <c r="AU3" s="3">
-        <v>229.89</v>
+        <v>236.73</v>
       </c>
       <c r="AV3" s="3">
-        <v>228.391</v>
+        <v>240.91</v>
       </c>
       <c r="AW3">
-        <v>2.00965</v>
+        <v>2.09099</v>
       </c>
       <c r="AX3">
-        <v>2.02284</v>
+        <v>2.05471</v>
       </c>
       <c r="AY3">
-        <v>37.6057</v>
+        <v>35.10700000000001</v>
       </c>
       <c r="AZ3">
-        <v>38.0082</v>
+        <v>35.1119</v>
       </c>
       <c r="BA3" s="2">
-        <v>-49.9603</v>
+        <v>-50.0019</v>
       </c>
       <c r="BB3" s="2">
-        <v>3.786280000000001</v>
+        <v>3.19551</v>
       </c>
       <c r="BC3" s="2">
-        <v>3.6509</v>
+        <v>3.14073</v>
       </c>
       <c r="BD3">
-        <v>122.495</v>
+        <v>147.958</v>
       </c>
       <c r="BE3">
-        <v>127.037</v>
+        <v>150.538</v>
       </c>
       <c r="BF3">
-        <v>56.9127</v>
+        <v>46.8807</v>
       </c>
       <c r="BG3">
-        <v>53.9154</v>
+        <v>46.28250000000001</v>
       </c>
       <c r="BH3" s="2">
-        <v>-50.3175</v>
+        <v>-50.0621</v>
       </c>
       <c r="BI3" s="2">
-        <v>9.851369999999999</v>
+        <v>10.7166</v>
       </c>
       <c r="BJ3" s="2">
-        <v>9.074340000000001</v>
+        <v>7.78145</v>
       </c>
       <c r="BK3">
-        <v>47.0798</v>
+        <v>44.1184</v>
       </c>
       <c r="BL3">
-        <v>51.1112</v>
-      </c>
-      <c r="BM3">
-        <v>78.0812</v>
-      </c>
-      <c r="BN3">
-        <v>80.0402</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>-49.8327</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>5.9699</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>2.68844</v>
-      </c>
-      <c r="BR3">
-        <v>77.3882</v>
-      </c>
-      <c r="BS3">
-        <v>171.847</v>
-      </c>
-      <c r="BT3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ3" s="4" t="s">
-        <v>92</v>
+        <v>60.7599</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ3" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:78">
@@ -1540,31 +1550,31 @@
         <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
         <v>110</v>
@@ -1573,438 +1583,438 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S4" t="s">
         <v>111</v>
       </c>
-      <c r="S4" t="s">
-        <v>112</v>
-      </c>
       <c r="T4">
-        <v>252.442</v>
+        <v>227.469</v>
       </c>
       <c r="U4">
-        <v>253.927</v>
+        <v>225.751</v>
       </c>
       <c r="V4">
-        <v>253.185</v>
+        <v>226.61</v>
       </c>
       <c r="W4" s="2">
-        <v>-49.7221</v>
-      </c>
-      <c r="X4" s="2">
-        <v>24.0837</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>21.4581</v>
+        <v>-50.1695</v>
+      </c>
+      <c r="X4" s="3">
+        <v>97.66260000000001</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>84.05880000000001</v>
       </c>
       <c r="Z4">
-        <v>19.1831</v>
+        <v>5.06847</v>
       </c>
       <c r="AA4">
-        <v>21.5303</v>
+        <v>5.88874</v>
       </c>
       <c r="AB4" s="3">
-        <v>8071.84</v>
+        <v>378.337</v>
       </c>
       <c r="AC4" s="3">
-        <v>9071.720000000001</v>
+        <v>370.912</v>
       </c>
       <c r="AD4" s="3">
-        <v>8571.780000000001</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>1.08293</v>
+        <v>374.625</v>
+      </c>
+      <c r="AE4">
+        <v>50.7386</v>
       </c>
       <c r="AF4" s="2">
-        <v>21.3207</v>
+        <v>19.8638</v>
       </c>
       <c r="AG4" s="2">
-        <v>19.9031</v>
+        <v>18.6785</v>
       </c>
       <c r="AH4">
-        <v>29.0047</v>
+        <v>31.7361</v>
       </c>
       <c r="AI4">
-        <v>31.0705</v>
+        <v>33.75</v>
       </c>
       <c r="AJ4">
-        <v>-928.1610000000001</v>
-      </c>
-      <c r="AK4">
-        <v>71.7189</v>
+        <v>-621.711</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>370.907</v>
       </c>
       <c r="AL4">
-        <v>-428.221</v>
+        <v>-125.402</v>
       </c>
       <c r="AM4">
-        <v>49.9908</v>
+        <v>49.263</v>
       </c>
       <c r="AN4" s="2">
-        <v>21.3207</v>
+        <v>19.8639</v>
       </c>
       <c r="AO4" s="2">
-        <v>19.9031</v>
+        <v>18.6786</v>
       </c>
       <c r="AP4">
-        <v>29.0047</v>
+        <v>31.736</v>
       </c>
       <c r="AQ4">
-        <v>31.0705</v>
-      </c>
-      <c r="AR4">
-        <v>172.695</v>
+        <v>33.7499</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>321.916</v>
       </c>
       <c r="AS4">
-        <v>158.528</v>
+        <v>319.792</v>
       </c>
       <c r="AT4">
-        <v>50.252</v>
+        <v>50.3785</v>
       </c>
       <c r="AU4" s="3">
-        <v>226.861</v>
+        <v>237.781</v>
       </c>
       <c r="AV4" s="3">
-        <v>225.072</v>
+        <v>237.178</v>
       </c>
       <c r="AW4">
-        <v>2.03649</v>
+        <v>2.08175</v>
       </c>
       <c r="AX4">
-        <v>2.05268</v>
+        <v>2.08704</v>
       </c>
       <c r="AY4">
-        <v>36.046</v>
+        <v>33.65130000000001</v>
       </c>
       <c r="AZ4">
-        <v>36.4638</v>
+        <v>33.7764</v>
       </c>
       <c r="BA4" s="2">
-        <v>-49.9566</v>
+        <v>-49.9895</v>
       </c>
       <c r="BB4" s="2">
-        <v>3.24775</v>
+        <v>2.76994</v>
       </c>
       <c r="BC4" s="2">
-        <v>3.09239</v>
+        <v>2.64322</v>
       </c>
       <c r="BD4">
-        <v>142.806</v>
+        <v>170.69</v>
       </c>
       <c r="BE4">
-        <v>149.981</v>
+        <v>178.873</v>
       </c>
       <c r="BF4">
-        <v>55.4171</v>
+        <v>45.2745</v>
       </c>
       <c r="BG4">
-        <v>52.2089</v>
+        <v>44.7129</v>
       </c>
       <c r="BH4" s="2">
-        <v>-50.3395</v>
+        <v>-50.0574</v>
       </c>
       <c r="BI4" s="2">
-        <v>8.94139</v>
+        <v>9.927720000000001</v>
       </c>
       <c r="BJ4" s="2">
-        <v>8.217580000000002</v>
+        <v>7.04561</v>
       </c>
       <c r="BK4">
-        <v>51.8712</v>
+        <v>47.6242</v>
       </c>
       <c r="BL4">
-        <v>56.44</v>
-      </c>
-      <c r="BM4">
-        <v>77.76900000000001</v>
-      </c>
-      <c r="BN4">
-        <v>80.90820000000001</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>-49.7167</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>5.70085</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>2.54525</v>
-      </c>
-      <c r="BR4">
-        <v>81.04049999999999</v>
-      </c>
-      <c r="BS4">
-        <v>181.514</v>
-      </c>
-      <c r="BT4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ4" s="4" t="s">
-        <v>92</v>
+        <v>67.1056</v>
+      </c>
+      <c r="BM4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ4" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:78">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
         <v>114</v>
-      </c>
-      <c r="N5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" t="s">
-        <v>115</v>
       </c>
       <c r="S5" t="s">
         <v>115</v>
       </c>
       <c r="T5">
-        <v>275.558</v>
+        <v>252.565</v>
       </c>
       <c r="U5">
-        <v>276.725</v>
+        <v>250.584</v>
       </c>
       <c r="V5">
-        <v>276.142</v>
+        <v>251.575</v>
       </c>
       <c r="W5" s="2">
-        <v>-49.8768</v>
-      </c>
-      <c r="X5">
-        <v>34.0231</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>29.9269</v>
+        <v>-50.238</v>
+      </c>
+      <c r="X5" s="3">
+        <v>485.106</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>167.342</v>
       </c>
       <c r="Z5">
-        <v>12.1682</v>
+        <v>0.834869</v>
       </c>
       <c r="AA5">
-        <v>13.8337</v>
+        <v>2.42019</v>
       </c>
       <c r="AB5" s="3">
-        <v>8082.88</v>
+        <v>423.123</v>
       </c>
       <c r="AC5" s="3">
-        <v>9082.59</v>
+        <v>408.303</v>
       </c>
       <c r="AD5" s="3">
-        <v>8582.74</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>18.0672</v>
+        <v>415.713</v>
+      </c>
+      <c r="AE5">
+        <v>51.4828</v>
       </c>
       <c r="AF5" s="2">
-        <v>25.6727</v>
+        <v>25.0917</v>
       </c>
       <c r="AG5" s="2">
-        <v>24.9159</v>
+        <v>24.4316</v>
       </c>
       <c r="AH5">
-        <v>21.5014</v>
+        <v>21.5211</v>
       </c>
       <c r="AI5">
-        <v>22.1545</v>
+        <v>22.1026</v>
       </c>
       <c r="AJ5">
-        <v>-917.116</v>
-      </c>
-      <c r="AK5">
-        <v>82.5874</v>
+        <v>-576.8919999999999</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>408.292</v>
       </c>
       <c r="AL5">
-        <v>-417.264</v>
+        <v>-84.2996</v>
       </c>
       <c r="AM5">
-        <v>49.9721</v>
+        <v>48.518</v>
       </c>
       <c r="AN5" s="2">
-        <v>25.6727</v>
+        <v>25.0919</v>
       </c>
       <c r="AO5" s="2">
-        <v>24.9159</v>
+        <v>24.4331</v>
       </c>
       <c r="AP5">
-        <v>21.5014</v>
+        <v>21.5209</v>
       </c>
       <c r="AQ5">
-        <v>22.1545</v>
-      </c>
-      <c r="AR5">
-        <v>-2142.95</v>
+        <v>22.1012</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>347.401</v>
       </c>
       <c r="AS5">
-        <v>-1653.21</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>3.20119</v>
+        <v>345.322</v>
+      </c>
+      <c r="AT5">
+        <v>50.4354</v>
       </c>
       <c r="AU5" s="3">
-        <v>232.641</v>
+        <v>243.992</v>
       </c>
       <c r="AV5" s="3">
-        <v>230.87</v>
+        <v>242.517</v>
       </c>
       <c r="AW5">
-        <v>1.77957</v>
+        <v>1.65989</v>
       </c>
       <c r="AX5">
-        <v>1.79321</v>
+        <v>1.66999</v>
       </c>
       <c r="AY5">
-        <v>40.3016</v>
+        <v>38.8129</v>
       </c>
       <c r="AZ5">
-        <v>40.6921</v>
+        <v>38.8453</v>
       </c>
       <c r="BA5" s="2">
-        <v>-49.9615</v>
+        <v>-49.9994</v>
       </c>
       <c r="BB5" s="2">
-        <v>3.97938</v>
+        <v>3.45467</v>
       </c>
       <c r="BC5" s="2">
-        <v>3.84906</v>
+        <v>3.37516</v>
       </c>
       <c r="BD5">
-        <v>104.036</v>
+        <v>117.233</v>
       </c>
       <c r="BE5">
-        <v>107.559</v>
+        <v>119.994</v>
       </c>
       <c r="BF5">
-        <v>63.0368</v>
+        <v>53.2529</v>
       </c>
       <c r="BG5">
-        <v>59.2721</v>
+        <v>52.589</v>
       </c>
       <c r="BH5" s="2">
-        <v>-50.3988</v>
+        <v>-50.0694</v>
       </c>
       <c r="BI5" s="2">
-        <v>11.0134</v>
+        <v>12.254</v>
       </c>
       <c r="BJ5" s="2">
-        <v>10.3388</v>
+        <v>9.195779999999999</v>
       </c>
       <c r="BK5">
-        <v>37.5907</v>
+        <v>33.0504</v>
       </c>
       <c r="BL5">
-        <v>40.0434</v>
-      </c>
-      <c r="BM5">
-        <v>88.5646</v>
-      </c>
-      <c r="BN5">
-        <v>91.511</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>-49.7396</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>7.03166</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>3.11862</v>
-      </c>
-      <c r="BR5">
-        <v>58.8765</v>
-      </c>
-      <c r="BS5">
-        <v>132.751</v>
-      </c>
-      <c r="BT5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ5" s="4" t="s">
-        <v>92</v>
+        <v>44.0419</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ5" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:78">
@@ -2012,31 +2022,31 @@
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
         <v>110</v>
@@ -2045,470 +2055,470 @@
         <v>110</v>
       </c>
       <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" t="s">
         <v>114</v>
       </c>
-      <c r="N6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" t="s">
-        <v>107</v>
-      </c>
       <c r="S6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="T6">
-        <v>282.053</v>
+        <v>257.322</v>
       </c>
       <c r="U6">
-        <v>284.639</v>
+        <v>256.199</v>
       </c>
       <c r="V6">
-        <v>283.346</v>
+        <v>256.761</v>
       </c>
       <c r="W6" s="2">
-        <v>-49.7086</v>
-      </c>
-      <c r="X6" s="2">
-        <v>29.8579</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>24.9888</v>
+        <v>-50.1117</v>
+      </c>
+      <c r="X6" s="3">
+        <v>486.12</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>167.275</v>
       </c>
       <c r="Z6">
-        <v>13.8657</v>
+        <v>0.833127</v>
       </c>
       <c r="AA6">
-        <v>16.5674</v>
+        <v>2.42116</v>
       </c>
       <c r="AB6" s="3">
-        <v>8084.41</v>
+        <v>431.812</v>
       </c>
       <c r="AC6" s="3">
-        <v>9083.700000000001</v>
+        <v>422.612</v>
       </c>
       <c r="AD6" s="3">
-        <v>8584.060000000001</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>1.44158</v>
+        <v>427.212</v>
+      </c>
+      <c r="AE6">
+        <v>50.917</v>
       </c>
       <c r="AF6" s="2">
-        <v>24.9497</v>
+        <v>24.7706</v>
       </c>
       <c r="AG6" s="2">
-        <v>23.1607</v>
+        <v>23.0937</v>
       </c>
       <c r="AH6">
-        <v>22.1246</v>
+        <v>21.8</v>
       </c>
       <c r="AI6">
-        <v>23.8334</v>
+        <v>23.383</v>
       </c>
       <c r="AJ6">
-        <v>-915.5910000000001</v>
-      </c>
-      <c r="AK6">
-        <v>83.70320000000001</v>
+        <v>-568.205</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>422.612</v>
       </c>
       <c r="AL6">
-        <v>-415.944</v>
+        <v>-72.7963</v>
       </c>
       <c r="AM6">
-        <v>49.933</v>
+        <v>49.0837</v>
       </c>
       <c r="AN6" s="2">
-        <v>24.9497</v>
+        <v>24.7686</v>
       </c>
       <c r="AO6" s="2">
-        <v>23.1607</v>
+        <v>23.0929</v>
       </c>
       <c r="AP6">
-        <v>22.1246</v>
+        <v>21.8018</v>
       </c>
       <c r="AQ6">
-        <v>23.8334</v>
-      </c>
-      <c r="AR6">
-        <v>-1650.89</v>
-      </c>
-      <c r="AS6">
-        <v>-1780.08</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>2587.88</v>
+        <v>23.3838</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>351.766</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>350.599</v>
+      </c>
+      <c r="AT6">
+        <v>50.2924</v>
       </c>
       <c r="AU6" s="3">
-        <v>229.895</v>
+        <v>242.512</v>
       </c>
       <c r="AV6" s="3">
-        <v>227.475</v>
+        <v>241.206</v>
       </c>
       <c r="AW6">
-        <v>1.80082</v>
+        <v>1.67002</v>
       </c>
       <c r="AX6">
-        <v>1.81998</v>
+        <v>1.67906</v>
       </c>
       <c r="AY6">
-        <v>40.3033</v>
+        <v>39.1772</v>
       </c>
       <c r="AZ6">
-        <v>40.7173</v>
+        <v>39.31480000000001</v>
       </c>
       <c r="BA6" s="2">
-        <v>-49.9576</v>
+        <v>-49.9884</v>
       </c>
       <c r="BB6" s="2">
-        <v>3.60542</v>
+        <v>3.20217</v>
       </c>
       <c r="BC6" s="2">
-        <v>3.40992</v>
+        <v>3.02131</v>
       </c>
       <c r="BD6">
-        <v>114.827</v>
+        <v>126.477</v>
       </c>
       <c r="BE6">
-        <v>121.411</v>
+        <v>134.048</v>
       </c>
       <c r="BF6">
-        <v>64.16930000000001</v>
+        <v>54.22110000000001</v>
       </c>
       <c r="BG6">
-        <v>59.9026</v>
+        <v>53.5074</v>
       </c>
       <c r="BH6" s="2">
-        <v>-50.4517</v>
+        <v>-50.0728</v>
       </c>
       <c r="BI6" s="2">
-        <v>10.3347</v>
+        <v>11.74</v>
       </c>
       <c r="BJ6" s="2">
-        <v>9.66099</v>
+        <v>8.57924</v>
       </c>
       <c r="BK6">
-        <v>40.0593</v>
+        <v>34.4975</v>
       </c>
       <c r="BL6">
-        <v>42.8527</v>
-      </c>
-      <c r="BM6">
-        <v>92.96469999999999</v>
-      </c>
-      <c r="BN6">
-        <v>97.8314</v>
-      </c>
-      <c r="BO6" s="2">
-        <v>-49.5449</v>
-      </c>
-      <c r="BP6" s="2">
-        <v>7.15097</v>
-      </c>
-      <c r="BQ6" s="2">
-        <v>3.09849</v>
-      </c>
-      <c r="BR6">
-        <v>57.8943</v>
-      </c>
-      <c r="BS6">
-        <v>133.613</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>92</v>
+        <v>47.207</v>
+      </c>
+      <c r="BM6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ6" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:78">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T7">
-        <v>210.936</v>
+        <v>205.913</v>
       </c>
       <c r="U7">
-        <v>211.209</v>
+        <v>201.556</v>
       </c>
       <c r="V7">
-        <v>211.073</v>
+        <v>203.734</v>
       </c>
       <c r="W7" s="2">
-        <v>-49.935</v>
-      </c>
-      <c r="X7" s="2">
-        <v>18.3373</v>
+        <v>-50.4702</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2379.56</v>
       </c>
       <c r="Y7" s="2">
-        <v>17.8112</v>
+        <v>-1897.4</v>
       </c>
       <c r="Z7">
-        <v>25.1946</v>
+        <v>0.208022</v>
       </c>
       <c r="AA7">
-        <v>25.9388</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>8053.850000000001</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>9054.389999999999</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>8554.120000000001</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0.404881</v>
+        <v>-0.260883</v>
+      </c>
+      <c r="AB7">
+        <v>346.103</v>
+      </c>
+      <c r="AC7">
+        <v>205.882</v>
+      </c>
+      <c r="AD7">
+        <v>275.992</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>64.0749</v>
       </c>
       <c r="AF7" s="2">
-        <v>15.8769</v>
+        <v>15.1261</v>
       </c>
       <c r="AG7" s="2">
-        <v>15.5551</v>
+        <v>14.9192</v>
       </c>
       <c r="AH7">
-        <v>38.9497</v>
+        <v>41.6764</v>
       </c>
       <c r="AI7">
-        <v>39.7554</v>
+        <v>42.2543</v>
       </c>
       <c r="AJ7">
-        <v>-946.1460000000001</v>
+        <v>-653.9190000000001</v>
       </c>
       <c r="AK7">
-        <v>54.3854</v>
+        <v>205.262</v>
       </c>
       <c r="AL7">
-        <v>-445.8800000000001</v>
-      </c>
-      <c r="AM7">
-        <v>50.0538</v>
+        <v>-224.329</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>35.9177</v>
       </c>
       <c r="AN7" s="2">
-        <v>15.8769</v>
+        <v>15.1264</v>
       </c>
       <c r="AO7" s="2">
-        <v>15.5551</v>
+        <v>14.9194</v>
       </c>
       <c r="AP7">
-        <v>38.9497</v>
+        <v>41.6754</v>
       </c>
       <c r="AQ7">
-        <v>39.7554</v>
-      </c>
-      <c r="AR7">
-        <v>110.339</v>
+        <v>42.2537</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>300.768</v>
       </c>
       <c r="AS7">
-        <v>110.08</v>
+        <v>296.391</v>
       </c>
       <c r="AT7">
-        <v>49.9939</v>
+        <v>50.6342</v>
       </c>
       <c r="AU7" s="3">
-        <v>222.357</v>
+        <v>237.963</v>
       </c>
       <c r="AV7" s="3">
-        <v>221.852</v>
+        <v>238.961</v>
       </c>
       <c r="AW7">
-        <v>2.07774</v>
+        <v>2.08016</v>
       </c>
       <c r="AX7">
-        <v>2.08247</v>
+        <v>2.07146</v>
       </c>
       <c r="AY7">
-        <v>30.1861</v>
+        <v>29.874</v>
       </c>
       <c r="AZ7">
-        <v>30.649</v>
+        <v>29.8126</v>
       </c>
       <c r="BA7" s="2">
-        <v>-49.9554</v>
+        <v>-50.0064</v>
       </c>
       <c r="BB7" s="2">
-        <v>3.73033</v>
+        <v>3.37848</v>
       </c>
       <c r="BC7" s="2">
-        <v>3.56953</v>
+        <v>3.31411</v>
       </c>
       <c r="BD7">
-        <v>124.332</v>
+        <v>139.945</v>
       </c>
       <c r="BE7">
-        <v>129.933</v>
+        <v>142.663</v>
       </c>
       <c r="BF7">
-        <v>42.7555</v>
+        <v>38.234</v>
       </c>
       <c r="BG7">
-        <v>41.2618</v>
+        <v>37.7768</v>
       </c>
       <c r="BH7" s="2">
-        <v>-50.1591</v>
+        <v>-50.0474</v>
       </c>
       <c r="BI7" s="2">
-        <v>7.27229</v>
+        <v>8.21232</v>
       </c>
       <c r="BJ7" s="2">
-        <v>6.32022</v>
+        <v>5.91576</v>
       </c>
       <c r="BK7">
-        <v>63.7763</v>
+        <v>57.572</v>
       </c>
       <c r="BL7">
-        <v>73.3836</v>
-      </c>
-      <c r="BM7">
-        <v>57.6433</v>
-      </c>
-      <c r="BN7">
-        <v>58.1412</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>-49.9654</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>4.50455</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>2.02715</v>
-      </c>
-      <c r="BR7">
-        <v>102.563</v>
-      </c>
-      <c r="BS7">
-        <v>227.906</v>
-      </c>
-      <c r="BT7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ7" s="4" t="s">
-        <v>92</v>
+        <v>79.9221</v>
+      </c>
+      <c r="BM7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ7" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
         <v>110</v>
@@ -2517,470 +2527,470 @@
         <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T8">
-        <v>202.017</v>
+        <v>198.021</v>
       </c>
       <c r="U8">
-        <v>203.482</v>
+        <v>195.901</v>
       </c>
       <c r="V8">
-        <v>202.749</v>
+        <v>196.961</v>
       </c>
       <c r="W8" s="2">
-        <v>-49.7978</v>
-      </c>
-      <c r="X8" s="2">
-        <v>16.1749</v>
+        <v>-50.2322</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2100.17</v>
       </c>
       <c r="Y8" s="2">
-        <v>15.4331</v>
+        <v>-1899.32</v>
       </c>
       <c r="Z8">
-        <v>28.5627</v>
+        <v>0.235695</v>
       </c>
       <c r="AA8">
-        <v>29.9357</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>8049</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>9049.469999999999</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>8549.23</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>0.43146</v>
+        <v>-0.260619</v>
+      </c>
+      <c r="AB8">
+        <v>334.63</v>
+      </c>
+      <c r="AC8">
+        <v>323.793</v>
+      </c>
+      <c r="AD8">
+        <v>329.211</v>
+      </c>
+      <c r="AE8">
+        <v>51.0832</v>
       </c>
       <c r="AF8" s="2">
-        <v>14.1319</v>
+        <v>13.6738</v>
       </c>
       <c r="AG8" s="2">
-        <v>13.4218</v>
+        <v>13.1255</v>
       </c>
       <c r="AH8">
-        <v>43.7591</v>
+        <v>46.1029</v>
       </c>
       <c r="AI8">
-        <v>46.0744</v>
+        <v>48.0286</v>
       </c>
       <c r="AJ8">
-        <v>-951.003</v>
+        <v>-665.4</v>
       </c>
       <c r="AK8">
-        <v>49.4731</v>
+        <v>323.785</v>
       </c>
       <c r="AL8">
-        <v>-450.765</v>
+        <v>-170.808</v>
       </c>
       <c r="AM8">
-        <v>50.0493</v>
+        <v>48.9176</v>
       </c>
       <c r="AN8" s="2">
-        <v>14.1319</v>
+        <v>13.6735</v>
       </c>
       <c r="AO8" s="2">
-        <v>13.4218</v>
+        <v>13.1249</v>
       </c>
       <c r="AP8">
-        <v>43.7591</v>
+        <v>46.1037</v>
       </c>
       <c r="AQ8">
-        <v>46.0744</v>
+        <v>48.0307</v>
       </c>
       <c r="AR8">
-        <v>99.6579</v>
+        <v>292.805</v>
       </c>
       <c r="AS8">
-        <v>100.78</v>
+        <v>290.607</v>
       </c>
       <c r="AT8">
-        <v>49.8602</v>
+        <v>50.395</v>
       </c>
       <c r="AU8" s="3">
-        <v>219.936</v>
+        <v>237.791</v>
       </c>
       <c r="AV8" s="3">
-        <v>219.142</v>
+        <v>238.251</v>
       </c>
       <c r="AW8">
-        <v>2.10061</v>
+        <v>2.08166</v>
       </c>
       <c r="AX8">
-        <v>2.10822</v>
+        <v>2.07764</v>
       </c>
       <c r="AY8">
-        <v>26.8665</v>
+        <v>26.8727</v>
       </c>
       <c r="AZ8">
-        <v>27.3543</v>
+        <v>26.9918</v>
       </c>
       <c r="BA8" s="2">
-        <v>-49.9498</v>
+        <v>-49.9889</v>
       </c>
       <c r="BB8" s="2">
-        <v>2.71883</v>
+        <v>2.50759</v>
       </c>
       <c r="BC8" s="2">
-        <v>2.55071</v>
+        <v>2.41877</v>
       </c>
       <c r="BD8">
-        <v>170.588</v>
+        <v>188.548</v>
       </c>
       <c r="BE8">
-        <v>181.831</v>
+        <v>195.471</v>
       </c>
       <c r="BF8">
-        <v>38.4959</v>
+        <v>34.694</v>
       </c>
       <c r="BG8">
-        <v>37.2131</v>
+        <v>34.3618</v>
       </c>
       <c r="BH8" s="2">
-        <v>-50.1353</v>
+        <v>-50.0342</v>
       </c>
       <c r="BI8" s="2">
-        <v>6.25505</v>
+        <v>7.44568</v>
       </c>
       <c r="BJ8" s="2">
-        <v>5.44112</v>
+        <v>5.26686</v>
       </c>
       <c r="BK8">
-        <v>74.1481</v>
+        <v>63.4999</v>
       </c>
       <c r="BL8">
-        <v>85.2398</v>
-      </c>
-      <c r="BM8">
-        <v>53.0675</v>
-      </c>
-      <c r="BN8">
-        <v>54.8005</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>-49.8485</v>
-      </c>
-      <c r="BP8" s="2">
-        <v>4.16359</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>1.8404</v>
-      </c>
-      <c r="BR8">
-        <v>110.962</v>
-      </c>
-      <c r="BS8">
-        <v>251.032</v>
-      </c>
-      <c r="BT8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ8" s="4" t="s">
-        <v>92</v>
+        <v>89.7689</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T9">
-        <v>218.633</v>
+        <v>212.84</v>
       </c>
       <c r="U9">
-        <v>219.43</v>
+        <v>210.118</v>
       </c>
       <c r="V9">
-        <v>219.031</v>
+        <v>211.479</v>
       </c>
       <c r="W9" s="2">
-        <v>-49.8834</v>
-      </c>
-      <c r="X9" s="2">
-        <v>19.4595</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>18.9047</v>
+        <v>-50.3183</v>
+      </c>
+      <c r="X9" s="3">
+        <v>450.312</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>151.333</v>
       </c>
       <c r="Z9">
-        <v>21.2749</v>
+        <v>0.899376</v>
       </c>
       <c r="AA9">
-        <v>21.8993</v>
+        <v>2.67622</v>
       </c>
       <c r="AB9" s="3">
-        <v>8057.17</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>9057.57</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>8557.370000000001</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0.450108</v>
+        <v>360.067</v>
+      </c>
+      <c r="AC9">
+        <v>313.965</v>
+      </c>
+      <c r="AD9">
+        <v>337.016</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>54.6224</v>
       </c>
       <c r="AF9" s="2">
-        <v>17.0358</v>
+        <v>16.7052</v>
       </c>
       <c r="AG9" s="2">
-        <v>16.7137</v>
+        <v>16.4959</v>
       </c>
       <c r="AH9">
-        <v>32.4024</v>
+        <v>32.3254</v>
       </c>
       <c r="AI9">
-        <v>33.0268</v>
+        <v>32.7354</v>
       </c>
       <c r="AJ9">
-        <v>-942.831</v>
+        <v>-639.952</v>
       </c>
       <c r="AK9">
-        <v>57.567</v>
+        <v>313.889</v>
       </c>
       <c r="AL9">
-        <v>-442.632</v>
-      </c>
-      <c r="AM9">
-        <v>50.0406</v>
+        <v>-163.031</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>45.3824</v>
       </c>
       <c r="AN9" s="2">
-        <v>17.0358</v>
+        <v>16.7064</v>
       </c>
       <c r="AO9" s="2">
-        <v>16.7137</v>
+        <v>16.4972</v>
       </c>
       <c r="AP9">
-        <v>32.4024</v>
+        <v>32.323</v>
       </c>
       <c r="AQ9">
-        <v>33.0268</v>
-      </c>
-      <c r="AR9">
-        <v>119.511</v>
+        <v>32.7329</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>307.926</v>
       </c>
       <c r="AS9">
-        <v>119.548</v>
+        <v>305.098</v>
       </c>
       <c r="AT9">
-        <v>49.9508</v>
+        <v>50.4986</v>
       </c>
       <c r="AU9" s="3">
-        <v>223.376</v>
+        <v>241.09</v>
       </c>
       <c r="AV9" s="3">
-        <v>222.894</v>
+        <v>240.789</v>
       </c>
       <c r="AW9">
-        <v>1.85338</v>
+        <v>1.67987</v>
       </c>
       <c r="AX9">
-        <v>1.85738</v>
+        <v>1.68197</v>
       </c>
       <c r="AY9">
-        <v>31.27060000000001</v>
+        <v>31.3074</v>
       </c>
       <c r="AZ9">
-        <v>31.6956</v>
+        <v>31.2616</v>
       </c>
       <c r="BA9" s="2">
-        <v>-49.9593</v>
+        <v>-50.0055</v>
       </c>
       <c r="BB9" s="2">
-        <v>3.73009</v>
+        <v>3.37185</v>
       </c>
       <c r="BC9" s="2">
-        <v>3.58901</v>
+        <v>3.31867</v>
       </c>
       <c r="BD9">
-        <v>110.989</v>
+        <v>120.112</v>
       </c>
       <c r="BE9">
-        <v>115.352</v>
+        <v>122.037</v>
       </c>
       <c r="BF9">
-        <v>44.9119</v>
+        <v>40.65170000000001</v>
       </c>
       <c r="BG9">
-        <v>43.2252</v>
+        <v>40.1598</v>
       </c>
       <c r="BH9" s="2">
-        <v>-50.1795</v>
+        <v>-50.0513</v>
       </c>
       <c r="BI9" s="2">
-        <v>7.70014</v>
+        <v>8.822559999999999</v>
       </c>
       <c r="BJ9" s="2">
-        <v>6.76681</v>
+        <v>6.50525</v>
       </c>
       <c r="BK9">
-        <v>53.7652</v>
+        <v>45.9051</v>
       </c>
       <c r="BL9">
-        <v>61.181</v>
-      </c>
-      <c r="BM9">
-        <v>61.5807</v>
-      </c>
-      <c r="BN9">
-        <v>62.69580000000001</v>
-      </c>
-      <c r="BO9" s="2">
-        <v>-49.9072</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>5.04742</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>2.25084</v>
-      </c>
-      <c r="BR9">
-        <v>82.02209999999999</v>
-      </c>
-      <c r="BS9">
-        <v>183.931</v>
-      </c>
-      <c r="BT9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ9" s="4" t="s">
-        <v>92</v>
+        <v>62.2575</v>
+      </c>
+      <c r="BM9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ9" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
         <v>110</v>
@@ -2989,202 +2999,202 @@
         <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="T10">
-        <v>211.961</v>
+        <v>207.847</v>
       </c>
       <c r="U10">
-        <v>214.076</v>
+        <v>206.883</v>
       </c>
       <c r="V10">
-        <v>213.019</v>
+        <v>207.365</v>
       </c>
       <c r="W10" s="2">
-        <v>-49.7259</v>
-      </c>
-      <c r="X10" s="2">
-        <v>17.2526</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>16.3394</v>
+        <v>-50.1269</v>
+      </c>
+      <c r="X10" s="3">
+        <v>483.4160000000001</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>160.453</v>
       </c>
       <c r="Z10">
-        <v>23.9964</v>
+        <v>0.837789</v>
       </c>
       <c r="AA10">
-        <v>25.3375</v>
+        <v>2.52411</v>
       </c>
       <c r="AB10" s="3">
-        <v>8053.34</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>9053.640000000001</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>8553.49</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>9.92365</v>
+        <v>353.134</v>
+      </c>
+      <c r="AC10">
+        <v>345.129</v>
+      </c>
+      <c r="AD10">
+        <v>349.131</v>
+      </c>
+      <c r="AE10">
+        <v>50.799</v>
       </c>
       <c r="AF10" s="2">
-        <v>15.3791</v>
+        <v>15.3569</v>
       </c>
       <c r="AG10" s="2">
-        <v>14.5823</v>
+        <v>14.7039</v>
       </c>
       <c r="AH10">
-        <v>35.8928</v>
+        <v>35.1634</v>
       </c>
       <c r="AI10">
-        <v>37.8541</v>
+        <v>36.725</v>
       </c>
       <c r="AJ10">
-        <v>-946.6650000000001</v>
+        <v>-646.888</v>
       </c>
       <c r="AK10">
-        <v>53.6356</v>
+        <v>345.126</v>
       </c>
       <c r="AL10">
-        <v>-446.515</v>
+        <v>-150.881</v>
       </c>
       <c r="AM10">
-        <v>50.0317</v>
+        <v>49.2009</v>
       </c>
       <c r="AN10" s="2">
-        <v>15.3791</v>
+        <v>15.357</v>
       </c>
       <c r="AO10" s="2">
-        <v>14.5823</v>
+        <v>14.7034</v>
       </c>
       <c r="AP10">
-        <v>35.8928</v>
+        <v>35.1632</v>
       </c>
       <c r="AQ10">
-        <v>37.8541</v>
-      </c>
-      <c r="AR10">
-        <v>110.438</v>
+        <v>36.7261</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>302.915</v>
       </c>
       <c r="AS10">
-        <v>111.902</v>
+        <v>301.791</v>
       </c>
       <c r="AT10">
-        <v>49.8108</v>
+        <v>50.3024</v>
       </c>
       <c r="AU10" s="3">
-        <v>220.955</v>
+        <v>242.653</v>
       </c>
       <c r="AV10" s="3">
-        <v>220.078</v>
+        <v>240.861</v>
       </c>
       <c r="AW10">
-        <v>1.87369</v>
+        <v>1.66905</v>
       </c>
       <c r="AX10">
-        <v>1.88115</v>
+        <v>1.68147</v>
       </c>
       <c r="AY10">
-        <v>28.4769</v>
+        <v>28.9305</v>
       </c>
       <c r="AZ10">
-        <v>28.9399</v>
+        <v>29.0771</v>
       </c>
       <c r="BA10" s="2">
-        <v>-49.9523</v>
+        <v>-49.9863</v>
       </c>
       <c r="BB10" s="2">
-        <v>2.78815</v>
+        <v>2.58548</v>
       </c>
       <c r="BC10" s="2">
-        <v>2.63634</v>
+        <v>2.48417</v>
       </c>
       <c r="BD10">
-        <v>148.486</v>
+        <v>156.644</v>
       </c>
       <c r="BE10">
-        <v>157.036</v>
+        <v>163.032</v>
       </c>
       <c r="BF10">
-        <v>41.4502</v>
+        <v>37.9115</v>
       </c>
       <c r="BG10">
-        <v>39.8979</v>
+        <v>37.5418</v>
       </c>
       <c r="BH10" s="2">
-        <v>-50.1634</v>
+        <v>-50.038</v>
       </c>
       <c r="BI10" s="2">
-        <v>6.6927</v>
+        <v>8.057730000000001</v>
       </c>
       <c r="BJ10" s="2">
-        <v>5.86544</v>
+        <v>5.83441</v>
       </c>
       <c r="BK10">
-        <v>61.8584</v>
+        <v>50.2623</v>
       </c>
       <c r="BL10">
-        <v>70.5829</v>
-      </c>
-      <c r="BM10">
-        <v>58.52490000000001</v>
-      </c>
-      <c r="BN10">
-        <v>61.0712</v>
-      </c>
-      <c r="BO10" s="2">
-        <v>-49.7726</v>
-      </c>
-      <c r="BP10" s="2">
-        <v>4.79197</v>
-      </c>
-      <c r="BQ10" s="2">
-        <v>2.08867</v>
-      </c>
-      <c r="BR10">
-        <v>86.39449999999999</v>
-      </c>
-      <c r="BS10">
-        <v>198.212</v>
-      </c>
-      <c r="BT10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BZ10" s="4" t="s">
-        <v>92</v>
+        <v>69.4158</v>
+      </c>
+      <c r="BM10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BN10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BO10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BR10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BS10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BV10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ10" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:78" s="1" customFormat="1">
@@ -3425,371 +3435,371 @@
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T12" s="1">
-        <v>202.017</v>
+        <v>198.021</v>
       </c>
       <c r="U12" s="1">
-        <v>203.482</v>
+        <v>195.901</v>
       </c>
       <c r="V12" s="1">
-        <v>202.749</v>
+        <v>196.961</v>
       </c>
       <c r="W12" s="2">
-        <v>-49.9551</v>
-      </c>
-      <c r="X12" s="2">
-        <v>16.1749</v>
+        <v>-50.4702</v>
+      </c>
+      <c r="X12" s="3">
+        <v>97.66260000000001</v>
       </c>
       <c r="Y12" s="2">
-        <v>15.4331</v>
+        <v>-1899.32</v>
       </c>
       <c r="Z12" s="1">
-        <v>12.1682</v>
+        <v>0.208022</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.8337</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>8049</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>9049.469999999999</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>8549.23</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0.404881</v>
+        <v>-0.265055</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>334.63</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>205.882</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>275.992</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>50.5032</v>
       </c>
       <c r="AF12" s="2">
-        <v>14.1319</v>
+        <v>13.6738</v>
       </c>
       <c r="AG12" s="2">
-        <v>13.4218</v>
+        <v>13.1255</v>
       </c>
       <c r="AH12" s="1">
-        <v>21.5014</v>
+        <v>21.5211</v>
       </c>
       <c r="AI12" s="1">
-        <v>22.1545</v>
+        <v>22.1026</v>
       </c>
       <c r="AJ12" s="1">
-        <v>-951.003</v>
+        <v>-665.4</v>
       </c>
       <c r="AK12" s="1">
-        <v>49.4731</v>
+        <v>205.262</v>
       </c>
       <c r="AL12" s="1">
-        <v>-450.765</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>49.933</v>
+        <v>-224.329</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>35.9177</v>
       </c>
       <c r="AN12" s="2">
-        <v>14.1319</v>
+        <v>13.6735</v>
       </c>
       <c r="AO12" s="2">
-        <v>13.4218</v>
+        <v>13.1249</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.5014</v>
+        <v>21.5209</v>
       </c>
       <c r="AQ12" s="1">
-        <v>22.1545</v>
+        <v>22.1012</v>
       </c>
       <c r="AR12" s="1">
-        <v>-2653.59</v>
+        <v>292.805</v>
       </c>
       <c r="AS12" s="1">
-        <v>-2162.91</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>3.20119</v>
+        <v>290.607</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>50.2797</v>
       </c>
       <c r="AU12" s="3">
-        <v>219.936</v>
+        <v>236.73</v>
       </c>
       <c r="AV12" s="3">
-        <v>219.142</v>
+        <v>237.178</v>
       </c>
       <c r="AW12" s="1">
-        <v>1.77957</v>
+        <v>1.65989</v>
       </c>
       <c r="AX12" s="1">
-        <v>1.79321</v>
+        <v>1.66999</v>
       </c>
       <c r="AY12" s="1">
-        <v>26.8665</v>
+        <v>26.8727</v>
       </c>
       <c r="AZ12" s="1">
-        <v>27.3543</v>
+        <v>26.9918</v>
       </c>
       <c r="BA12" s="2">
-        <v>-49.9615</v>
+        <v>-50.0064</v>
       </c>
       <c r="BB12" s="2">
-        <v>2.71883</v>
+        <v>2.50759</v>
       </c>
       <c r="BC12" s="2">
-        <v>2.55071</v>
+        <v>2.41877</v>
       </c>
       <c r="BD12" s="1">
-        <v>104.036</v>
+        <v>117.233</v>
       </c>
       <c r="BE12" s="1">
-        <v>107.559</v>
+        <v>119.994</v>
       </c>
       <c r="BF12" s="1">
-        <v>38.4959</v>
+        <v>34.694</v>
       </c>
       <c r="BG12" s="1">
-        <v>37.2131</v>
+        <v>34.3618</v>
       </c>
       <c r="BH12" s="2">
-        <v>-50.4517</v>
+        <v>-50.0728</v>
       </c>
       <c r="BI12" s="2">
-        <v>6.25505</v>
+        <v>7.44568</v>
       </c>
       <c r="BJ12" s="2">
-        <v>5.44112</v>
+        <v>5.26686</v>
       </c>
       <c r="BK12" s="1">
-        <v>37.5907</v>
+        <v>33.0504</v>
       </c>
       <c r="BL12" s="1">
-        <v>40.0434</v>
-      </c>
-      <c r="BM12" s="1">
-        <v>53.0675</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>54.8005</v>
-      </c>
-      <c r="BO12" s="2">
-        <v>-49.9654</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>4.16359</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>1.8404</v>
-      </c>
-      <c r="BR12" s="1">
-        <v>57.8943</v>
-      </c>
-      <c r="BS12" s="1">
-        <v>132.751</v>
+        <v>44.0419</v>
+      </c>
+      <c r="BM12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS12" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T13" s="1">
-        <v>282.053</v>
+        <v>257.322</v>
       </c>
       <c r="U13" s="1">
-        <v>284.639</v>
+        <v>256.199</v>
       </c>
       <c r="V13" s="1">
-        <v>283.346</v>
+        <v>256.761</v>
       </c>
       <c r="W13" s="2">
-        <v>-49.7086</v>
-      </c>
-      <c r="X13" s="1">
-        <v>34.0231</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>29.9269</v>
+        <v>-50.1088</v>
+      </c>
+      <c r="X13" s="3">
+        <v>2379.56</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>167.342</v>
       </c>
       <c r="Z13" s="1">
-        <v>28.5627</v>
+        <v>5.06847</v>
       </c>
       <c r="AA13" s="1">
-        <v>29.9357</v>
+        <v>5.88874</v>
       </c>
       <c r="AB13" s="3">
-        <v>8084.41</v>
+        <v>431.812</v>
       </c>
       <c r="AC13" s="3">
-        <v>9083.700000000001</v>
+        <v>422.612</v>
       </c>
       <c r="AD13" s="3">
-        <v>8584.060000000001</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>18.0672</v>
+        <v>427.212</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>64.0749</v>
       </c>
       <c r="AF13" s="2">
-        <v>25.6727</v>
+        <v>25.0917</v>
       </c>
       <c r="AG13" s="2">
-        <v>24.9159</v>
+        <v>24.4316</v>
       </c>
       <c r="AH13" s="1">
-        <v>43.7591</v>
+        <v>46.1029</v>
       </c>
       <c r="AI13" s="1">
-        <v>46.0744</v>
+        <v>48.0286</v>
       </c>
       <c r="AJ13" s="1">
-        <v>-915.5910000000001</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>83.70320000000001</v>
+        <v>-568.205</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>422.612</v>
       </c>
       <c r="AL13" s="1">
-        <v>-415.944</v>
+        <v>-72.7963</v>
       </c>
       <c r="AM13" s="1">
-        <v>50.0538</v>
+        <v>49.5111</v>
       </c>
       <c r="AN13" s="2">
-        <v>25.6727</v>
+        <v>25.0919</v>
       </c>
       <c r="AO13" s="2">
-        <v>24.9159</v>
+        <v>24.4331</v>
       </c>
       <c r="AP13" s="1">
-        <v>43.7591</v>
+        <v>46.1037</v>
       </c>
       <c r="AQ13" s="1">
-        <v>46.0744</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>172.695</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>158.528</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>2587.88</v>
+        <v>48.0307</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>351.766</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>350.599</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>50.6342</v>
       </c>
       <c r="AU13" s="3">
-        <v>232.641</v>
+        <v>243.992</v>
       </c>
       <c r="AV13" s="3">
-        <v>230.87</v>
+        <v>242.517</v>
       </c>
       <c r="AW13" s="1">
-        <v>2.10061</v>
+        <v>2.09099</v>
       </c>
       <c r="AX13" s="1">
-        <v>2.10822</v>
+        <v>2.08704</v>
       </c>
       <c r="AY13" s="1">
-        <v>40.3033</v>
+        <v>39.1772</v>
       </c>
       <c r="AZ13" s="1">
-        <v>40.7173</v>
+        <v>39.31480000000001</v>
       </c>
       <c r="BA13" s="2">
-        <v>-49.9498</v>
+        <v>-49.9863</v>
       </c>
       <c r="BB13" s="2">
-        <v>3.97938</v>
+        <v>3.45467</v>
       </c>
       <c r="BC13" s="2">
-        <v>3.84906</v>
+        <v>3.37516</v>
       </c>
       <c r="BD13" s="1">
-        <v>170.588</v>
+        <v>188.548</v>
       </c>
       <c r="BE13" s="1">
-        <v>181.831</v>
+        <v>195.471</v>
       </c>
       <c r="BF13" s="1">
-        <v>64.16930000000001</v>
+        <v>54.22110000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>59.9026</v>
+        <v>53.5074</v>
       </c>
       <c r="BH13" s="2">
-        <v>-50.1353</v>
+        <v>-50.0342</v>
       </c>
       <c r="BI13" s="2">
-        <v>11.0134</v>
+        <v>12.254</v>
       </c>
       <c r="BJ13" s="2">
-        <v>10.3388</v>
+        <v>9.195779999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>74.1481</v>
+        <v>63.4999</v>
       </c>
       <c r="BL13" s="1">
-        <v>85.2398</v>
-      </c>
-      <c r="BM13" s="1">
-        <v>92.96469999999999</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>97.8314</v>
-      </c>
-      <c r="BO13" s="2">
-        <v>-49.5449</v>
-      </c>
-      <c r="BP13" s="2">
-        <v>7.15097</v>
-      </c>
-      <c r="BQ13" s="2">
-        <v>3.11862</v>
-      </c>
-      <c r="BR13" s="1">
-        <v>110.962</v>
-      </c>
-      <c r="BS13" s="1">
-        <v>251.032</v>
+        <v>89.7689</v>
+      </c>
+      <c r="BM13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS13" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T14" s="1">
         <v>350</v>
@@ -3923,7 +3933,7 @@
     </row>
     <row r="15" spans="1:78" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W15" s="1">
         <v>47</v>
@@ -4000,7 +4010,7 @@
     </row>
     <row r="16" spans="1:78" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W16" s="1">
         <v>51.5</v>
@@ -4044,7 +4054,7 @@
     </row>
     <row r="17" spans="19:78" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="W17" s="1">
         <v>48.5</v>
@@ -4073,548 +4083,548 @@
     </row>
     <row r="18" spans="19:78" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T18" s="1">
-        <v>237.3241111111111</v>
+        <v>223.3396666666667</v>
       </c>
       <c r="U18" s="1">
-        <v>238.6246666666667</v>
+        <v>221.3084444444445</v>
       </c>
       <c r="V18" s="1">
-        <v>237.9744444444445</v>
+        <v>222.3241111111111</v>
       </c>
       <c r="W18" s="1">
-        <v>-49.82063333333333</v>
+        <v>-50.23143333333333</v>
       </c>
       <c r="X18" s="1">
-        <v>23.08445555555555</v>
+        <v>1033.105622222222</v>
       </c>
       <c r="Y18" s="1">
-        <v>21.05781111111111</v>
+        <v>-530.3098</v>
       </c>
       <c r="Z18" s="1">
-        <v>20.29607777777778</v>
+        <v>1.124484111111111</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.8493</v>
+        <v>1.993190333333333</v>
       </c>
       <c r="AB18" s="1">
-        <v>8065.295555555556</v>
+        <v>373.3318888888889</v>
       </c>
       <c r="AC18" s="1">
-        <v>9065.394444444444</v>
+        <v>345.581</v>
       </c>
       <c r="AD18" s="1">
-        <v>8565.344444444445</v>
+        <v>359.4563333333333</v>
       </c>
       <c r="AE18" s="1">
-        <v>4.245608000000001</v>
+        <v>52.78036666666666</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.47504444444444</v>
+        <v>18.80464444444444</v>
       </c>
       <c r="AG18" s="1">
-        <v>18.61413333333333</v>
+        <v>18.08058888888889</v>
       </c>
       <c r="AH18" s="1">
-        <v>31.5404</v>
+        <v>32.70796666666667</v>
       </c>
       <c r="AI18" s="1">
-        <v>32.95638888888889</v>
+        <v>33.94012222222222</v>
       </c>
       <c r="AJ18" s="1">
-        <v>-934.7045555555555</v>
+        <v>-626.7155555555555</v>
       </c>
       <c r="AK18" s="1">
-        <v>65.39252222222221</v>
+        <v>345.5006666666667</v>
       </c>
       <c r="AL18" s="1">
-        <v>-434.6561111111111</v>
+        <v>-140.6074333333333</v>
       </c>
       <c r="AM18" s="1">
-        <v>50.01152222222223</v>
+        <v>47.22137777777778</v>
       </c>
       <c r="AN18" s="1">
-        <v>19.47504444444444</v>
+        <v>18.80461111111111</v>
       </c>
       <c r="AO18" s="1">
-        <v>18.61413333333333</v>
+        <v>18.08067777777778</v>
       </c>
       <c r="AP18" s="1">
-        <v>31.5404</v>
+        <v>32.7079</v>
       </c>
       <c r="AQ18" s="1">
-        <v>32.95638888888889</v>
+        <v>33.94006666666667</v>
       </c>
       <c r="AR18" s="1">
-        <v>-633.7906777777778</v>
+        <v>318.0815555555556</v>
       </c>
       <c r="AS18" s="1">
-        <v>-540.5995555555556</v>
+        <v>316.0145555555556</v>
       </c>
       <c r="AT18" s="1">
-        <v>550.5544211111112</v>
+        <v>50.40628888888889</v>
       </c>
       <c r="AU18" s="1">
-        <v>225.5692222222222</v>
+        <v>240.1628888888889</v>
       </c>
       <c r="AV18" s="1">
-        <v>224.3175555555556</v>
+        <v>240.2708888888889</v>
       </c>
       <c r="AW18" s="1">
-        <v>1.948775555555555</v>
+        <v>1.875663333333333</v>
       </c>
       <c r="AX18" s="1">
-        <v>1.959456666666667</v>
+        <v>1.87385</v>
       </c>
       <c r="AY18" s="1">
-        <v>33.70903333333334</v>
+        <v>32.88755555555556</v>
       </c>
       <c r="AZ18" s="1">
-        <v>34.14128888888889</v>
+        <v>32.94548888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>-49.95657777777777</v>
+        <v>-49.99574444444444</v>
       </c>
       <c r="BB18" s="1">
-        <v>3.417096666666668</v>
+        <v>3.034718888888889</v>
       </c>
       <c r="BC18" s="1">
-        <v>3.262856666666667</v>
+        <v>2.941662222222222</v>
       </c>
       <c r="BD18" s="1">
-        <v>131.1801111111111</v>
+        <v>147.2977777777778</v>
       </c>
       <c r="BE18" s="1">
-        <v>137.6947777777778</v>
+        <v>152.1965555555556</v>
       </c>
       <c r="BF18" s="1">
-        <v>50.528</v>
+        <v>43.70230000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>48.0444</v>
+        <v>43.18668888888889</v>
       </c>
       <c r="BH18" s="1">
-        <v>-50.26292222222223</v>
+        <v>-50.05325555555555</v>
       </c>
       <c r="BI18" s="1">
-        <v>8.434547777777777</v>
+        <v>9.57179</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.630824444444444</v>
+        <v>6.958144444444444</v>
       </c>
       <c r="BK18" s="1">
-        <v>54.16384444444444</v>
+        <v>47.41108888888889</v>
       </c>
       <c r="BL18" s="1">
-        <v>60.57696666666666</v>
-      </c>
-      <c r="BM18" s="1">
-        <v>70.46155555555555</v>
-      </c>
-      <c r="BN18" s="1">
-        <v>72.79753333333333</v>
-      </c>
-      <c r="BO18" s="1">
-        <v>-49.79255555555555</v>
-      </c>
-      <c r="BP18" s="1">
-        <v>5.497271111111112</v>
-      </c>
-      <c r="BQ18" s="1">
-        <v>2.43649</v>
-      </c>
-      <c r="BR18" s="1">
-        <v>82.79175555555555</v>
-      </c>
-      <c r="BS18" s="1">
-        <v>186.555</v>
+        <v>65.52453333333334</v>
+      </c>
+      <c r="BM18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS18" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="19:78" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="T19" s="1">
-        <v>27.89696484663378</v>
+        <v>19.45475873233419</v>
       </c>
       <c r="U19" s="1">
-        <v>28.10320238375375</v>
+        <v>19.79033235985643</v>
       </c>
       <c r="V19" s="1">
-        <v>27.99813877985111</v>
+        <v>19.61609888979767</v>
       </c>
       <c r="W19" s="1">
-        <v>0.08918284588417344</v>
+        <v>0.1127892626883325</v>
       </c>
       <c r="X19" s="1">
-        <v>5.923666491870856</v>
+        <v>892.7003802885737</v>
       </c>
       <c r="Y19" s="1">
-        <v>4.552880810711303</v>
+        <v>960.4289396387243</v>
       </c>
       <c r="Z19" s="1">
-        <v>5.090993041261482</v>
+        <v>1.427540367026247</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.749835195737497</v>
+        <v>1.891267431707402</v>
       </c>
       <c r="AB19" s="1">
-        <v>12.5140268952803</v>
+        <v>31.3474282214469</v>
       </c>
       <c r="AC19" s="1">
-        <v>12.15806189883114</v>
+        <v>59.54633153361432</v>
       </c>
       <c r="AD19" s="1">
-        <v>12.33797490236399</v>
+        <v>42.82532405533487</v>
       </c>
       <c r="AE19" s="1">
-        <v>5.765566662061531</v>
+        <v>4.165853463043984</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.062490753250636</v>
+        <v>3.931036353349842</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.82158488762625</v>
+        <v>3.673576959690029</v>
       </c>
       <c r="AH19" s="1">
-        <v>7.000861298440356</v>
+        <v>7.608495994610236</v>
       </c>
       <c r="AI19" s="1">
-        <v>7.244316174068919</v>
+        <v>7.753453632884119</v>
       </c>
       <c r="AJ19" s="1">
-        <v>12.5152044695075</v>
+        <v>31.3551500611626</v>
       </c>
       <c r="AK19" s="1">
-        <v>12.15853790321643</v>
+        <v>59.71136590856608</v>
       </c>
       <c r="AL19" s="1">
-        <v>12.33669318599729</v>
+        <v>42.8936010321664</v>
       </c>
       <c r="AM19" s="1">
-        <v>0.0376196396042103</v>
+        <v>4.168908815872773</v>
       </c>
       <c r="AN19" s="1">
-        <v>4.062490753250636</v>
+        <v>3.930814206424935</v>
       </c>
       <c r="AO19" s="1">
-        <v>3.82158488762625</v>
+        <v>3.673656234681912</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.000861298440356</v>
+        <v>7.608419724226577</v>
       </c>
       <c r="AQ19" s="1">
-        <v>7.244316174068919</v>
+        <v>7.753853555920868</v>
       </c>
       <c r="AR19" s="1">
-        <v>1097.445599382204</v>
+        <v>19.31799428921192</v>
       </c>
       <c r="AS19" s="1">
-        <v>945.2129182856235</v>
+        <v>19.6735382069481</v>
       </c>
       <c r="AT19" s="1">
-        <v>957.1202158635293</v>
+        <v>0.1070637550916325</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.203901515332782</v>
+        <v>2.489755652644762</v>
       </c>
       <c r="AV19" s="1">
-        <v>3.718623703322721</v>
+        <v>1.651217425917713</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.1153440012514364</v>
+        <v>0.1952285134001804</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.1139912785162873</v>
+        <v>0.1862577920815962</v>
       </c>
       <c r="AY19" s="1">
-        <v>4.738270501635239</v>
+        <v>3.999915061073481</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.71087440867627</v>
+        <v>4.002982664753995</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.003530746782126723</v>
+        <v>0.007371583745273162</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.4292191457363788</v>
+        <v>0.3411078373132802</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.4352556452374984</v>
+        <v>0.3527603422148048</v>
       </c>
       <c r="BD19" s="1">
-        <v>20.11159990013748</v>
+        <v>22.56643420745746</v>
       </c>
       <c r="BE19" s="1">
-        <v>22.23554638050313</v>
+        <v>24.01503875635298</v>
       </c>
       <c r="BF19" s="1">
-        <v>9.036414111188625</v>
+        <v>6.416822127813735</v>
       </c>
       <c r="BG19" s="1">
-        <v>8.012916491931428</v>
+        <v>6.298814154257654</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.109842784396385</v>
+        <v>0.01253866120011955</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.582599773465433</v>
+        <v>1.595745737293034</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.655504594497542</v>
+        <v>1.244821073453362</v>
       </c>
       <c r="BK19" s="1">
-        <v>11.00595176207564</v>
+        <v>9.213398065672793</v>
       </c>
       <c r="BL19" s="1">
-        <v>13.8625713243331</v>
-      </c>
-      <c r="BM19" s="1">
-        <v>13.55673162496617</v>
-      </c>
-      <c r="BN19" s="1">
-        <v>14.50945282351398</v>
-      </c>
-      <c r="BO19" s="1">
-        <v>0.1146079026857438</v>
-      </c>
-      <c r="BP19" s="1">
-        <v>0.9980201877433191</v>
-      </c>
-      <c r="BQ19" s="1">
-        <v>0.4326553875263262</v>
-      </c>
-      <c r="BR19" s="1">
-        <v>16.49609933099412</v>
-      </c>
-      <c r="BS19" s="1">
-        <v>36.64358733651618</v>
+        <v>13.56855871712247</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS19" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="19:78" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T20" s="1">
-        <v>11.75479588484496</v>
+        <v>8.710838975760774</v>
       </c>
       <c r="U20" s="1">
-        <v>11.77715731417278</v>
+        <v>8.942420796249571</v>
       </c>
       <c r="V20" s="1">
-        <v>11.76518715915621</v>
+        <v>8.823199063638272</v>
       </c>
       <c r="W20" s="1">
-        <v>0.1790078526049249</v>
+        <v>0.2245392082281794</v>
       </c>
       <c r="X20" s="1">
-        <v>25.66084557469779</v>
+        <v>86.40940104152803</v>
       </c>
       <c r="Y20" s="1">
-        <v>21.62086451762778</v>
+        <v>181.1071452269455</v>
       </c>
       <c r="Z20" s="1">
-        <v>25.08362993580771</v>
+        <v>126.9506925816572</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.73907262812766</v>
+        <v>94.88644411316805</v>
       </c>
       <c r="AB20" s="1">
-        <v>0.1551589375625591</v>
+        <v>8.396665046413039</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.1341150897883101</v>
+        <v>17.23078859474749</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.1440452860055908</v>
+        <v>11.9139155674917</v>
       </c>
       <c r="AE20" s="1">
-        <v>135.8007301206689</v>
+        <v>7.892808872195503</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.8599819365728</v>
+        <v>20.90460346093494</v>
       </c>
       <c r="AG20" s="1">
-        <v>20.53055503144341</v>
+        <v>20.31779485870375</v>
       </c>
       <c r="AH20" s="1">
-        <v>22.19648862551</v>
+        <v>23.26190457557303</v>
       </c>
       <c r="AI20" s="1">
-        <v>21.98152291045245</v>
+        <v>22.84450710612811</v>
       </c>
       <c r="AJ20" s="1">
-        <v>1.338947627367549</v>
+        <v>5.00309108066859</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.59316247490545</v>
+        <v>17.28256170520638</v>
       </c>
       <c r="AL20" s="1">
-        <v>2.838265210274166</v>
+        <v>30.50592704475302</v>
       </c>
       <c r="AM20" s="1">
-        <v>0.07522194472915744</v>
+        <v>8.828435365633586</v>
       </c>
       <c r="AN20" s="1">
-        <v>20.8599819365728</v>
+        <v>20.90345917391681</v>
       </c>
       <c r="AO20" s="1">
-        <v>20.53055503144341</v>
+        <v>20.31813342305703</v>
       </c>
       <c r="AP20" s="1">
-        <v>22.19648862551</v>
+        <v>23.2617188025724</v>
       </c>
       <c r="AQ20" s="1">
-        <v>21.98152291045245</v>
+        <v>22.84572282097521</v>
       </c>
       <c r="AR20" s="1">
-        <v>173.1558443286214</v>
+        <v>6.073283392830325</v>
       </c>
       <c r="AS20" s="1">
-        <v>174.8453006614592</v>
+        <v>6.22551647102517</v>
       </c>
       <c r="AT20" s="1">
-        <v>173.8466133705547</v>
+        <v>0.2124015821272507</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.863685778546179</v>
+        <v>1.036694580150826</v>
       </c>
       <c r="AV20" s="1">
-        <v>1.657749744157563</v>
+        <v>0.6872315799694335</v>
       </c>
       <c r="AW20" s="1">
-        <v>5.918793517427622</v>
+        <v>10.40850508354451</v>
       </c>
       <c r="AX20" s="1">
-        <v>5.817494229673564</v>
+        <v>9.939845349499491</v>
       </c>
       <c r="AY20" s="1">
-        <v>14.05638202312309</v>
+        <v>12.16239697206013</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.79817388853588</v>
+        <v>12.15032102954778</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.007067631409486397</v>
+        <v>0.01474442240471988</v>
       </c>
       <c r="BB20" s="1">
-        <v>12.56093074343947</v>
+        <v>11.24017906772812</v>
       </c>
       <c r="BC20" s="1">
-        <v>13.33971086392083</v>
+        <v>11.99187111116785</v>
       </c>
       <c r="BD20" s="1">
-        <v>15.33128744120571</v>
+        <v>15.32028150587752</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.14843114557949</v>
+        <v>15.77896337318021</v>
       </c>
       <c r="BF20" s="1">
-        <v>17.88397346261207</v>
+        <v>14.68303070505153</v>
       </c>
       <c r="BG20" s="1">
-        <v>16.67814873727516</v>
+        <v>14.58508238606414</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.2185364072362299</v>
+        <v>0.02505064068450558</v>
       </c>
       <c r="BI20" s="1">
-        <v>18.76330320441193</v>
+        <v>16.67134085989176</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.69496371657217</v>
+        <v>17.89012980963995</v>
       </c>
       <c r="BK20" s="1">
-        <v>20.31973888663752</v>
+        <v>19.43300245068199</v>
       </c>
       <c r="BL20" s="1">
-        <v>22.88422825892531</v>
-      </c>
-      <c r="BM20" s="1">
-        <v>19.23989829358414</v>
-      </c>
-      <c r="BN20" s="1">
-        <v>19.93124239124491</v>
-      </c>
-      <c r="BO20" s="1">
-        <v>0.2301707582730337</v>
-      </c>
-      <c r="BP20" s="1">
-        <v>18.154829324792</v>
-      </c>
-      <c r="BQ20" s="1">
-        <v>17.75732252241241</v>
-      </c>
-      <c r="BR20" s="1">
-        <v>19.9248092038884</v>
-      </c>
-      <c r="BS20" s="1">
-        <v>19.64224348664801</v>
+        <v>20.70760069071706</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="19:78" s="1" customFormat="1"/>

--- a/txsb_top_timing_bdlmin_tran_channel_s_tsmc2ff_meas.xlsx
+++ b/txsb_top_timing_bdlmin_tran_channel_s_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="135">
   <si>
     <t>Process</t>
   </si>
@@ -64,15 +64,15 @@
     <t>vccaon</t>
   </si>
   <si>
+    <t>pcal</t>
+  </si>
+  <si>
+    <t>ncal</t>
+  </si>
+  <si>
     <t>rcxt_corner</t>
   </si>
   <si>
-    <t>pcal_50ohms</t>
-  </si>
-  <si>
-    <t>ncal_50ohms</t>
-  </si>
-  <si>
     <t>rise_tpd_fe (ps)</t>
   </si>
   <si>
@@ -286,15 +286,12 @@
     <t>0.750</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>typical</t>
   </si>
   <si>
-    <t>8.00000e00</t>
-  </si>
-  <si>
-    <t>6.00000e00</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -337,39 +334,21 @@
     <t>0.825</t>
   </si>
   <si>
-    <t>1.80000e01</t>
-  </si>
-  <si>
-    <t>1.60000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (2)</t>
   </si>
   <si>
     <t>-20</t>
   </si>
   <si>
-    <t>1.50000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (3)</t>
   </si>
   <si>
     <t>0.675</t>
   </si>
   <si>
-    <t>2.30000e01</t>
-  </si>
-  <si>
-    <t>2.00000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (4)</t>
   </si>
   <si>
-    <t>1.90000e01</t>
-  </si>
-  <si>
     <t>tsmc2ff (5)</t>
   </si>
   <si>
@@ -403,13 +382,7 @@
     <t>rcbest_ccbest_t</t>
   </si>
   <si>
-    <t>3.00000e00</t>
-  </si>
-  <si>
     <t>tsmc2ff (6)</t>
-  </si>
-  <si>
-    <t>1.00000e00</t>
   </si>
   <si>
     <t>tsmc2ff (7)</t>
@@ -498,13 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9133"/>
+        <fgColor rgb="FFFFE8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8B8"/>
+        <fgColor rgb="FFFF9133"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,8 +504,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,2075 +1099,2075 @@
         <v>90</v>
       </c>
       <c r="R2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" t="s">
         <v>91</v>
       </c>
-      <c r="S2" t="s">
-        <v>92</v>
-      </c>
       <c r="T2">
-        <v>217.542</v>
+        <v>218.832</v>
       </c>
       <c r="U2">
-        <v>216.942</v>
+        <v>217.452</v>
       </c>
       <c r="V2">
-        <v>217.242</v>
+        <v>218.142</v>
       </c>
       <c r="W2" s="2">
-        <v>-50.1088</v>
-      </c>
-      <c r="X2" s="3">
-        <v>452.944</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>161.01</v>
+        <v>-50.1099</v>
+      </c>
+      <c r="X2" s="2">
+        <v>31.8957</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>29.4046</v>
       </c>
       <c r="Z2">
-        <v>0.9935</v>
+        <v>14.1085</v>
       </c>
       <c r="AA2">
-        <v>2.79485</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>366.006</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>357.972</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>361.989</v>
-      </c>
-      <c r="AE2">
-        <v>50.8022</v>
+        <v>15.3037</v>
+      </c>
+      <c r="AB2">
+        <v>185.893</v>
+      </c>
+      <c r="AC2">
+        <v>169.95</v>
+      </c>
+      <c r="AD2">
+        <v>177.921</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>51.6125</v>
       </c>
       <c r="AF2" s="2">
-        <v>17.5749</v>
+        <v>16.898</v>
       </c>
       <c r="AG2" s="2">
-        <v>16.8289</v>
+        <v>16.7084</v>
       </c>
       <c r="AH2">
-        <v>34.1396</v>
+        <v>35.5072</v>
       </c>
       <c r="AI2">
-        <v>35.6529</v>
+        <v>35.9101</v>
       </c>
       <c r="AJ2">
-        <v>-634.019</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>357.965</v>
+        <v>186.135</v>
+      </c>
+      <c r="AK2">
+        <v>169.999</v>
       </c>
       <c r="AL2">
-        <v>-138.027</v>
-      </c>
-      <c r="AM2">
-        <v>49.198</v>
+        <v>178.067</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>51.6151</v>
       </c>
       <c r="AN2" s="2">
-        <v>17.5735</v>
+        <v>16.8983</v>
       </c>
       <c r="AO2" s="2">
-        <v>16.83</v>
+        <v>16.7084</v>
       </c>
       <c r="AP2">
-        <v>34.1424</v>
+        <v>35.5066</v>
       </c>
       <c r="AQ2">
-        <v>35.6507</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>312.402</v>
+        <v>35.91</v>
+      </c>
+      <c r="AR2">
+        <v>-2776.4</v>
       </c>
       <c r="AS2">
-        <v>311.838</v>
-      </c>
-      <c r="AT2">
-        <v>50.2797</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>240.954</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>241.765</v>
+        <v>-2693.34</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>1617.9</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>234.868</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>233.503</v>
       </c>
       <c r="AW2">
-        <v>1.86758</v>
+        <v>1.91597</v>
       </c>
       <c r="AX2">
-        <v>1.86131</v>
+        <v>1.92717</v>
       </c>
       <c r="AY2">
-        <v>32.255</v>
+        <v>33.0083</v>
       </c>
       <c r="AZ2">
-        <v>32.3179</v>
+        <v>33.4204</v>
       </c>
       <c r="BA2" s="2">
-        <v>-49.9954</v>
+        <v>-49.9584</v>
       </c>
       <c r="BB2" s="2">
-        <v>2.84678</v>
+        <v>2.85993</v>
       </c>
       <c r="BC2" s="2">
-        <v>2.75882</v>
+        <v>2.75153</v>
       </c>
       <c r="BD2">
-        <v>158.073</v>
+        <v>157.347</v>
       </c>
       <c r="BE2">
-        <v>163.113</v>
+        <v>163.546</v>
       </c>
       <c r="BF2">
-        <v>42.2003</v>
+        <v>42.2593</v>
       </c>
       <c r="BG2">
-        <v>41.7482</v>
+        <v>42.6009</v>
       </c>
       <c r="BH2" s="2">
-        <v>-50.0467</v>
+        <v>-49.9701</v>
       </c>
       <c r="BI2" s="2">
-        <v>8.9695</v>
+        <v>8.124910000000002</v>
       </c>
       <c r="BJ2" s="2">
-        <v>6.49894</v>
+        <v>6.46549</v>
       </c>
       <c r="BK2">
-        <v>50.17</v>
+        <v>55.3852</v>
       </c>
       <c r="BL2">
-        <v>69.24209999999999</v>
+        <v>69.6003</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:78">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>99</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>101</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>103</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
         <v>104</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>104</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" t="s">
         <v>105</v>
-      </c>
-      <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
       </c>
       <c r="Q3" t="s">
         <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="S3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="T3">
-        <v>230.538</v>
+        <v>231.979</v>
       </c>
       <c r="U3">
-        <v>227.842</v>
+        <v>227.659</v>
       </c>
       <c r="V3">
-        <v>229.19</v>
+        <v>229.819</v>
       </c>
       <c r="W3" s="2">
-        <v>-50.3073</v>
-      </c>
-      <c r="X3" s="3">
-        <v>2362.66</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>-1867.54</v>
+        <v>-50.4273</v>
+      </c>
+      <c r="X3">
+        <v>37.69730000000001</v>
+      </c>
+      <c r="Y3">
+        <v>34.37390000000001</v>
       </c>
       <c r="Z3">
-        <v>0.209509</v>
+        <v>13.1309</v>
       </c>
       <c r="AA3">
-        <v>-0.265055</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>366.775</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>361.661</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>364.218</v>
-      </c>
-      <c r="AE3">
-        <v>50.5032</v>
+        <v>14.4005</v>
+      </c>
+      <c r="AB3">
+        <v>214.423</v>
+      </c>
+      <c r="AC3">
+        <v>186.402</v>
+      </c>
+      <c r="AD3">
+        <v>200.412</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>52.8387</v>
       </c>
       <c r="AF3" s="2">
-        <v>21.0788</v>
+        <v>19.7607</v>
       </c>
       <c r="AG3" s="2">
-        <v>20.4481</v>
+        <v>19.6595</v>
       </c>
       <c r="AH3">
-        <v>29.9068</v>
+        <v>31.9017</v>
       </c>
       <c r="AI3">
-        <v>30.8293</v>
+        <v>32.0659</v>
       </c>
       <c r="AJ3">
-        <v>-633.454</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>361.668</v>
+        <v>214.872</v>
+      </c>
+      <c r="AK3">
+        <v>186.468</v>
       </c>
       <c r="AL3">
-        <v>-135.893</v>
-      </c>
-      <c r="AM3">
-        <v>49.5111</v>
+        <v>200.67</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>52.8431</v>
       </c>
       <c r="AN3" s="2">
-        <v>21.0803</v>
+        <v>19.7608</v>
       </c>
       <c r="AO3" s="2">
-        <v>20.4466</v>
+        <v>19.6596</v>
       </c>
       <c r="AP3">
-        <v>29.9047</v>
+        <v>31.9016</v>
       </c>
       <c r="AQ3">
-        <v>30.8316</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>324.835</v>
+        <v>32.0658</v>
+      </c>
+      <c r="AR3">
+        <v>-2194.52</v>
       </c>
       <c r="AS3">
-        <v>322.693</v>
-      </c>
-      <c r="AT3">
-        <v>50.4404</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>236.73</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>240.91</v>
+        <v>-1707.05</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>4.2556</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>238.371</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>236.866</v>
       </c>
       <c r="AW3">
-        <v>2.09099</v>
+        <v>2.0766</v>
       </c>
       <c r="AX3">
-        <v>2.05471</v>
+        <v>2.08979</v>
       </c>
       <c r="AY3">
-        <v>35.10700000000001</v>
+        <v>35.3974</v>
       </c>
       <c r="AZ3">
-        <v>35.1119</v>
+        <v>35.7965</v>
       </c>
       <c r="BA3" s="2">
-        <v>-50.0019</v>
+        <v>-49.961</v>
       </c>
       <c r="BB3" s="2">
-        <v>3.19551</v>
+        <v>3.16123</v>
       </c>
       <c r="BC3" s="2">
-        <v>3.14073</v>
+        <v>3.07062</v>
       </c>
       <c r="BD3">
-        <v>147.958</v>
+        <v>149.562</v>
       </c>
       <c r="BE3">
-        <v>150.538</v>
+        <v>153.976</v>
       </c>
       <c r="BF3">
-        <v>46.8807</v>
+        <v>46.1527</v>
       </c>
       <c r="BG3">
-        <v>46.28250000000001</v>
+        <v>46.3829</v>
       </c>
       <c r="BH3" s="2">
-        <v>-50.0621</v>
+        <v>-49.9829</v>
       </c>
       <c r="BI3" s="2">
-        <v>10.7166</v>
+        <v>9.54322</v>
       </c>
       <c r="BJ3" s="2">
-        <v>7.78145</v>
+        <v>7.47099</v>
       </c>
       <c r="BK3">
-        <v>44.1184</v>
+        <v>49.543</v>
       </c>
       <c r="BL3">
-        <v>60.7599</v>
+        <v>63.2848</v>
       </c>
       <c r="BM3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ3" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:78">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" t="s">
-        <v>103</v>
-      </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
         <v>105</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
       </c>
       <c r="Q4" t="s">
         <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="S4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="T4">
-        <v>227.469</v>
+        <v>228.807</v>
       </c>
       <c r="U4">
-        <v>225.751</v>
+        <v>225.404</v>
       </c>
       <c r="V4">
-        <v>226.61</v>
+        <v>227.105</v>
       </c>
       <c r="W4" s="2">
-        <v>-50.1695</v>
-      </c>
-      <c r="X4" s="3">
-        <v>97.66260000000001</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>84.05880000000001</v>
+        <v>-50.2861</v>
+      </c>
+      <c r="X4" s="2">
+        <v>33.246</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>29.2244</v>
       </c>
       <c r="Z4">
-        <v>5.06847</v>
+        <v>14.889</v>
       </c>
       <c r="AA4">
-        <v>5.88874</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>378.337</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>370.912</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>374.625</v>
-      </c>
-      <c r="AE4">
-        <v>50.7386</v>
+        <v>16.9379</v>
+      </c>
+      <c r="AB4">
+        <v>204.169</v>
+      </c>
+      <c r="AC4">
+        <v>184.978</v>
+      </c>
+      <c r="AD4">
+        <v>194.574</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>51.94</v>
       </c>
       <c r="AF4" s="2">
-        <v>19.8638</v>
+        <v>18.654</v>
       </c>
       <c r="AG4" s="2">
-        <v>18.6785</v>
+        <v>18.1614</v>
       </c>
       <c r="AH4">
-        <v>31.7361</v>
+        <v>33.7944</v>
       </c>
       <c r="AI4">
-        <v>33.75</v>
+        <v>34.7109</v>
       </c>
       <c r="AJ4">
-        <v>-621.711</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>370.907</v>
+        <v>204.468</v>
+      </c>
+      <c r="AK4">
+        <v>185.044</v>
       </c>
       <c r="AL4">
-        <v>-125.402</v>
-      </c>
-      <c r="AM4">
-        <v>49.263</v>
+        <v>194.756</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>51.943</v>
       </c>
       <c r="AN4" s="2">
-        <v>19.8639</v>
+        <v>18.6539</v>
       </c>
       <c r="AO4" s="2">
-        <v>18.6786</v>
+        <v>18.1616</v>
       </c>
       <c r="AP4">
-        <v>31.736</v>
+        <v>33.7945</v>
       </c>
       <c r="AQ4">
-        <v>33.7499</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>321.916</v>
+        <v>34.7106</v>
+      </c>
+      <c r="AR4">
+        <v>-1725.82</v>
       </c>
       <c r="AS4">
-        <v>319.792</v>
-      </c>
-      <c r="AT4">
-        <v>50.3785</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>237.781</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>237.178</v>
+        <v>-1847.06</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>1469.47</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>235.36</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>233.222</v>
       </c>
       <c r="AW4">
-        <v>2.08175</v>
+        <v>2.10316</v>
       </c>
       <c r="AX4">
-        <v>2.08704</v>
+        <v>2.12244</v>
       </c>
       <c r="AY4">
-        <v>33.65130000000001</v>
+        <v>34.3564</v>
       </c>
       <c r="AZ4">
-        <v>33.7764</v>
+        <v>34.7596</v>
       </c>
       <c r="BA4" s="2">
-        <v>-49.9895</v>
+        <v>-49.9592</v>
       </c>
       <c r="BB4" s="2">
-        <v>2.76994</v>
+        <v>2.75676</v>
       </c>
       <c r="BC4" s="2">
-        <v>2.64322</v>
+        <v>2.67404</v>
       </c>
       <c r="BD4">
-        <v>170.69</v>
+        <v>171.506</v>
       </c>
       <c r="BE4">
-        <v>178.873</v>
+        <v>176.811</v>
       </c>
       <c r="BF4">
-        <v>45.2745</v>
+        <v>45.0842</v>
       </c>
       <c r="BG4">
-        <v>44.7129</v>
+        <v>45.2775</v>
       </c>
       <c r="BH4" s="2">
-        <v>-50.0574</v>
+        <v>-49.986</v>
       </c>
       <c r="BI4" s="2">
-        <v>9.927720000000001</v>
+        <v>8.936969999999999</v>
       </c>
       <c r="BJ4" s="2">
-        <v>7.04561</v>
+        <v>6.850379999999999</v>
       </c>
       <c r="BK4">
-        <v>47.6242</v>
+        <v>52.9038</v>
       </c>
       <c r="BL4">
-        <v>67.1056</v>
+        <v>69.018</v>
       </c>
       <c r="BM4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ4" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:78">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>96</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>99</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>100</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>101</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>102</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>103</v>
       </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q5" t="s">
         <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="S5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="T5">
-        <v>252.565</v>
+        <v>255.028</v>
       </c>
       <c r="U5">
-        <v>250.584</v>
+        <v>253.294</v>
       </c>
       <c r="V5">
-        <v>251.575</v>
+        <v>254.161</v>
       </c>
       <c r="W5" s="2">
-        <v>-50.238</v>
-      </c>
-      <c r="X5" s="3">
-        <v>485.106</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>167.342</v>
+        <v>-50.1772</v>
+      </c>
+      <c r="X5" s="4">
+        <v>102.668</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>73.17989999999999</v>
       </c>
       <c r="Z5">
-        <v>0.834869</v>
+        <v>3.94474</v>
       </c>
       <c r="AA5">
-        <v>2.42019</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>423.123</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>408.303</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>415.713</v>
-      </c>
-      <c r="AE5">
-        <v>51.4828</v>
+        <v>5.53431</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>422.368</v>
+      </c>
+      <c r="AC5">
+        <v>319.527</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>370.947</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>60.5495</v>
       </c>
       <c r="AF5" s="2">
-        <v>25.0917</v>
+        <v>23.3515</v>
       </c>
       <c r="AG5" s="2">
-        <v>24.4316</v>
+        <v>23.5519</v>
       </c>
       <c r="AH5">
-        <v>21.5211</v>
+        <v>23.1249</v>
       </c>
       <c r="AI5">
-        <v>22.1026</v>
+        <v>22.9281</v>
       </c>
       <c r="AJ5">
-        <v>-576.8919999999999</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>408.292</v>
+        <v>-577.7089999999999</v>
+      </c>
+      <c r="AK5">
+        <v>316.634</v>
       </c>
       <c r="AL5">
-        <v>-84.2996</v>
-      </c>
-      <c r="AM5">
-        <v>48.518</v>
+        <v>-130.537</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>39.4321</v>
       </c>
       <c r="AN5" s="2">
-        <v>25.0919</v>
+        <v>23.3502</v>
       </c>
       <c r="AO5" s="2">
-        <v>24.4331</v>
+        <v>23.5525</v>
       </c>
       <c r="AP5">
-        <v>21.5209</v>
+        <v>23.1261</v>
       </c>
       <c r="AQ5">
-        <v>22.1012</v>
-      </c>
-      <c r="AR5" s="4">
-        <v>347.401</v>
+        <v>22.9275</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>349.961</v>
       </c>
       <c r="AS5">
-        <v>345.322</v>
+        <v>348.172</v>
       </c>
       <c r="AT5">
-        <v>50.4354</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>243.992</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>242.517</v>
+        <v>50.4361</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>248.525</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>246.478</v>
       </c>
       <c r="AW5">
-        <v>1.65989</v>
+        <v>1.62961</v>
       </c>
       <c r="AX5">
-        <v>1.66999</v>
+        <v>1.64315</v>
       </c>
       <c r="AY5">
-        <v>38.8129</v>
+        <v>39.4882</v>
       </c>
       <c r="AZ5">
-        <v>38.8453</v>
+        <v>39.8546</v>
       </c>
       <c r="BA5" s="2">
-        <v>-49.9994</v>
+        <v>-49.9644</v>
       </c>
       <c r="BB5" s="2">
-        <v>3.45467</v>
+        <v>3.43724</v>
       </c>
       <c r="BC5" s="2">
-        <v>3.37516</v>
+        <v>3.3696</v>
       </c>
       <c r="BD5">
-        <v>117.233</v>
+        <v>117.827</v>
       </c>
       <c r="BE5">
-        <v>119.994</v>
+        <v>120.192</v>
       </c>
       <c r="BF5">
-        <v>53.2529</v>
+        <v>52.7956</v>
       </c>
       <c r="BG5">
-        <v>52.589</v>
+        <v>52.9124</v>
       </c>
       <c r="BH5" s="2">
-        <v>-50.0694</v>
+        <v>-49.9963</v>
       </c>
       <c r="BI5" s="2">
-        <v>12.254</v>
+        <v>10.853</v>
       </c>
       <c r="BJ5" s="2">
-        <v>9.195779999999999</v>
+        <v>8.840339999999999</v>
       </c>
       <c r="BK5">
-        <v>33.0504</v>
+        <v>37.3168</v>
       </c>
       <c r="BL5">
-        <v>44.0419</v>
+        <v>45.8127</v>
       </c>
       <c r="BM5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:78">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>99</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>101</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>102</v>
       </c>
-      <c r="J6" t="s">
-        <v>103</v>
-      </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q6" t="s">
         <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="T6">
-        <v>257.322</v>
+        <v>260.791</v>
       </c>
       <c r="U6">
-        <v>256.199</v>
+        <v>259.096</v>
       </c>
       <c r="V6">
-        <v>256.761</v>
+        <v>259.944</v>
       </c>
       <c r="W6" s="2">
-        <v>-50.1117</v>
-      </c>
-      <c r="X6" s="3">
-        <v>486.12</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>167.275</v>
+        <v>-50.1484</v>
+      </c>
+      <c r="X6" s="4">
+        <v>122.447</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>59.33860000000001</v>
       </c>
       <c r="Z6">
-        <v>0.833127</v>
+        <v>3.30754</v>
       </c>
       <c r="AA6">
-        <v>2.42116</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>431.812</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>422.612</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>427.212</v>
+        <v>6.82524</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>433.647</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>419.598</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>426.623</v>
       </c>
       <c r="AE6">
-        <v>50.917</v>
+        <v>51.4115</v>
       </c>
       <c r="AF6" s="2">
-        <v>24.7706</v>
+        <v>22.8953</v>
       </c>
       <c r="AG6" s="2">
-        <v>23.0937</v>
+        <v>22.5015</v>
       </c>
       <c r="AH6">
-        <v>21.8</v>
+        <v>23.5856</v>
       </c>
       <c r="AI6">
-        <v>23.383</v>
+        <v>23.9984</v>
       </c>
       <c r="AJ6">
-        <v>-568.205</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>422.612</v>
+        <v>-566.396</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>419.519</v>
       </c>
       <c r="AL6">
-        <v>-72.7963</v>
+        <v>-73.43809999999999</v>
       </c>
       <c r="AM6">
-        <v>49.0837</v>
+        <v>48.5909</v>
       </c>
       <c r="AN6" s="2">
-        <v>24.7686</v>
+        <v>22.8947</v>
       </c>
       <c r="AO6" s="2">
-        <v>23.0929</v>
+        <v>22.4988</v>
       </c>
       <c r="AP6">
-        <v>21.8018</v>
+        <v>23.5863</v>
       </c>
       <c r="AQ6">
-        <v>23.3838</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>351.766</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>350.599</v>
+        <v>24.0013</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>355.27</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>353.34</v>
       </c>
       <c r="AT6">
-        <v>50.2924</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>242.512</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>241.206</v>
+        <v>50.3741</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>247.332</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>243.488</v>
       </c>
       <c r="AW6">
-        <v>1.67002</v>
+        <v>1.63748</v>
       </c>
       <c r="AX6">
-        <v>1.67906</v>
+        <v>1.66332</v>
       </c>
       <c r="AY6">
-        <v>39.1772</v>
+        <v>40.3999</v>
       </c>
       <c r="AZ6">
-        <v>39.31480000000001</v>
+        <v>40.7764</v>
       </c>
       <c r="BA6" s="2">
-        <v>-49.9884</v>
+        <v>-49.9627</v>
       </c>
       <c r="BB6" s="2">
-        <v>3.20217</v>
+        <v>3.18377</v>
       </c>
       <c r="BC6" s="2">
-        <v>3.02131</v>
+        <v>3.09013</v>
       </c>
       <c r="BD6">
-        <v>126.477</v>
+        <v>127.208</v>
       </c>
       <c r="BE6">
-        <v>134.048</v>
+        <v>131.062</v>
       </c>
       <c r="BF6">
-        <v>54.22110000000001</v>
+        <v>54.4081</v>
       </c>
       <c r="BG6">
-        <v>53.5074</v>
+        <v>54.4003</v>
       </c>
       <c r="BH6" s="2">
-        <v>-50.0728</v>
+        <v>-50.0084</v>
       </c>
       <c r="BI6" s="2">
-        <v>11.74</v>
+        <v>10.4163</v>
       </c>
       <c r="BJ6" s="2">
-        <v>8.57924</v>
+        <v>8.35942</v>
       </c>
       <c r="BK6">
-        <v>34.4975</v>
+        <v>38.8813</v>
       </c>
       <c r="BL6">
-        <v>47.207</v>
+        <v>48.4483</v>
       </c>
       <c r="BM6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:78">
       <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
         <v>118</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
         <v>119</v>
       </c>
-      <c r="C7" t="s">
+      <c r="J7" t="s">
         <v>120</v>
       </c>
-      <c r="D7" t="s">
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>129</v>
-      </c>
       <c r="T7">
-        <v>205.913</v>
+        <v>206.166</v>
       </c>
       <c r="U7">
-        <v>201.556</v>
+        <v>201.174</v>
       </c>
       <c r="V7">
-        <v>203.734</v>
+        <v>203.67</v>
       </c>
       <c r="W7" s="2">
-        <v>-50.4702</v>
-      </c>
-      <c r="X7" s="3">
-        <v>2379.56</v>
+        <v>-50.4397</v>
+      </c>
+      <c r="X7" s="2">
+        <v>25.0759</v>
       </c>
       <c r="Y7" s="2">
-        <v>-1897.4</v>
+        <v>24.0051</v>
       </c>
       <c r="Z7">
-        <v>0.208022</v>
+        <v>19.7401</v>
       </c>
       <c r="AA7">
-        <v>-0.260883</v>
+        <v>20.6207</v>
       </c>
       <c r="AB7">
-        <v>346.103</v>
+        <v>154.641</v>
       </c>
       <c r="AC7">
-        <v>205.882</v>
+        <v>136.729</v>
       </c>
       <c r="AD7">
-        <v>275.992</v>
+        <v>145.685</v>
       </c>
       <c r="AE7" s="3">
-        <v>64.0749</v>
+        <v>51.8018</v>
       </c>
       <c r="AF7" s="2">
-        <v>15.1261</v>
+        <v>14.7364</v>
       </c>
       <c r="AG7" s="2">
-        <v>14.9192</v>
+        <v>14.805</v>
       </c>
       <c r="AH7">
-        <v>41.6764</v>
+        <v>42.7784</v>
       </c>
       <c r="AI7">
-        <v>42.2543</v>
+        <v>42.5802</v>
       </c>
       <c r="AJ7">
-        <v>-653.9190000000001</v>
+        <v>154.739</v>
       </c>
       <c r="AK7">
-        <v>205.262</v>
+        <v>136.731</v>
       </c>
       <c r="AL7">
-        <v>-224.329</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>35.9177</v>
+        <v>145.735</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>51.803</v>
       </c>
       <c r="AN7" s="2">
-        <v>15.1264</v>
+        <v>14.7364</v>
       </c>
       <c r="AO7" s="2">
-        <v>14.9194</v>
+        <v>14.8051</v>
       </c>
       <c r="AP7">
-        <v>41.6754</v>
+        <v>42.7783</v>
       </c>
       <c r="AQ7">
-        <v>42.2537</v>
-      </c>
-      <c r="AR7" s="4">
-        <v>300.768</v>
+        <v>42.5798</v>
+      </c>
+      <c r="AR7">
+        <v>110.085</v>
       </c>
       <c r="AS7">
-        <v>296.391</v>
+        <v>103.185</v>
       </c>
       <c r="AT7">
-        <v>50.6342</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>237.963</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>238.961</v>
+        <v>50.5541</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>230.394</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>229.592</v>
       </c>
       <c r="AW7">
-        <v>2.08016</v>
+        <v>2.14849</v>
       </c>
       <c r="AX7">
-        <v>2.07146</v>
+        <v>2.15599</v>
       </c>
       <c r="AY7">
-        <v>29.874</v>
+        <v>30.3544</v>
       </c>
       <c r="AZ7">
-        <v>29.8126</v>
+        <v>30.8526</v>
       </c>
       <c r="BA7" s="2">
-        <v>-50.0064</v>
+        <v>-49.9518</v>
       </c>
       <c r="BB7" s="2">
-        <v>3.37848</v>
+        <v>3.35835</v>
       </c>
       <c r="BC7" s="2">
-        <v>3.31411</v>
+        <v>3.20612</v>
       </c>
       <c r="BD7">
-        <v>139.945</v>
+        <v>140.784</v>
       </c>
       <c r="BE7">
-        <v>142.663</v>
+        <v>147.468</v>
       </c>
       <c r="BF7">
-        <v>38.234</v>
+        <v>38.1641</v>
       </c>
       <c r="BG7">
-        <v>37.7768</v>
+        <v>38.5229</v>
       </c>
       <c r="BH7" s="2">
-        <v>-50.0474</v>
+        <v>-49.9694</v>
       </c>
       <c r="BI7" s="2">
-        <v>8.21232</v>
+        <v>7.51096</v>
       </c>
       <c r="BJ7" s="2">
-        <v>5.91576</v>
+        <v>5.91213</v>
       </c>
       <c r="BK7">
-        <v>57.572</v>
+        <v>62.948</v>
       </c>
       <c r="BL7">
-        <v>79.9221</v>
+        <v>79.9712</v>
       </c>
       <c r="BM7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" t="s">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" t="s">
         <v>121</v>
       </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" t="s">
-        <v>131</v>
-      </c>
-      <c r="S8" t="s">
-        <v>131</v>
-      </c>
       <c r="T8">
-        <v>198.021</v>
+        <v>197.517</v>
       </c>
       <c r="U8">
-        <v>195.901</v>
+        <v>194.575</v>
       </c>
       <c r="V8">
-        <v>196.961</v>
+        <v>196.046</v>
       </c>
       <c r="W8" s="2">
-        <v>-50.2322</v>
-      </c>
-      <c r="X8" s="3">
-        <v>2100.17</v>
+        <v>-50.2246</v>
+      </c>
+      <c r="X8" s="2">
+        <v>22.2353</v>
       </c>
       <c r="Y8" s="2">
-        <v>-1899.32</v>
+        <v>21.1239</v>
       </c>
       <c r="Z8">
-        <v>0.235695</v>
+        <v>22.2619</v>
       </c>
       <c r="AA8">
-        <v>-0.260619</v>
+        <v>23.4332</v>
       </c>
       <c r="AB8">
-        <v>334.63</v>
+        <v>140.355</v>
       </c>
       <c r="AC8">
-        <v>323.793</v>
+        <v>128.393</v>
       </c>
       <c r="AD8">
-        <v>329.211</v>
+        <v>134.374</v>
       </c>
       <c r="AE8">
-        <v>51.0832</v>
+        <v>51.2033</v>
       </c>
       <c r="AF8" s="2">
-        <v>13.6738</v>
+        <v>13.3601</v>
       </c>
       <c r="AG8" s="2">
-        <v>13.1255</v>
+        <v>13.181</v>
       </c>
       <c r="AH8">
-        <v>46.1029</v>
+        <v>47.1851</v>
       </c>
       <c r="AI8">
-        <v>48.0286</v>
+        <v>47.8263</v>
       </c>
       <c r="AJ8">
-        <v>-665.4</v>
+        <v>140.421</v>
       </c>
       <c r="AK8">
-        <v>323.785</v>
+        <v>128.391</v>
       </c>
       <c r="AL8">
-        <v>-170.808</v>
+        <v>134.406</v>
       </c>
       <c r="AM8">
-        <v>48.9176</v>
+        <v>51.2045</v>
       </c>
       <c r="AN8" s="2">
-        <v>13.6735</v>
+        <v>13.3607</v>
       </c>
       <c r="AO8" s="2">
-        <v>13.1249</v>
+        <v>13.1811</v>
       </c>
       <c r="AP8">
-        <v>46.1037</v>
+        <v>47.1832</v>
       </c>
       <c r="AQ8">
-        <v>48.0307</v>
+        <v>47.826</v>
       </c>
       <c r="AR8">
-        <v>292.805</v>
+        <v>97.3762</v>
       </c>
       <c r="AS8">
-        <v>290.607</v>
+        <v>93.2199</v>
       </c>
       <c r="AT8">
-        <v>50.395</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>237.791</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>238.251</v>
+        <v>50.3336</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>227.629</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>226.643</v>
       </c>
       <c r="AW8">
-        <v>2.08166</v>
+        <v>2.17459</v>
       </c>
       <c r="AX8">
-        <v>2.07764</v>
+        <v>2.18405</v>
       </c>
       <c r="AY8">
-        <v>26.8727</v>
+        <v>27.6527</v>
       </c>
       <c r="AZ8">
-        <v>26.9918</v>
+        <v>28.1011</v>
       </c>
       <c r="BA8" s="2">
-        <v>-49.9889</v>
+        <v>-49.9547</v>
       </c>
       <c r="BB8" s="2">
-        <v>2.50759</v>
+        <v>2.53834</v>
       </c>
       <c r="BC8" s="2">
-        <v>2.41877</v>
+        <v>2.39485</v>
       </c>
       <c r="BD8">
-        <v>188.548</v>
+        <v>186.264</v>
       </c>
       <c r="BE8">
-        <v>195.471</v>
+        <v>197.424</v>
       </c>
       <c r="BF8">
-        <v>34.694</v>
+        <v>34.9432</v>
       </c>
       <c r="BG8">
-        <v>34.3618</v>
+        <v>35.3543</v>
       </c>
       <c r="BH8" s="2">
-        <v>-50.0342</v>
+        <v>-49.9622</v>
       </c>
       <c r="BI8" s="2">
-        <v>7.44568</v>
+        <v>6.82466</v>
       </c>
       <c r="BJ8" s="2">
-        <v>5.26686</v>
+        <v>5.34249</v>
       </c>
       <c r="BK8">
-        <v>63.4999</v>
+        <v>69.2782</v>
       </c>
       <c r="BL8">
-        <v>89.7689</v>
+        <v>88.498</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
         <v>119</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
         <v>120</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" t="s">
-        <v>92</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
       <c r="T9">
-        <v>212.84</v>
+        <v>214.039</v>
       </c>
       <c r="U9">
-        <v>210.118</v>
+        <v>211.336</v>
       </c>
       <c r="V9">
-        <v>211.479</v>
+        <v>212.687</v>
       </c>
       <c r="W9" s="2">
-        <v>-50.3183</v>
-      </c>
-      <c r="X9" s="3">
-        <v>450.312</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>151.333</v>
+        <v>-50.2274</v>
+      </c>
+      <c r="X9" s="2">
+        <v>30.0952</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>28.8589</v>
       </c>
       <c r="Z9">
-        <v>0.899376</v>
+        <v>13.4573</v>
       </c>
       <c r="AA9">
-        <v>2.67622</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>360.067</v>
+        <v>14.0338</v>
+      </c>
+      <c r="AB9">
+        <v>177.153</v>
       </c>
       <c r="AC9">
-        <v>313.965</v>
+        <v>156.838</v>
       </c>
       <c r="AD9">
-        <v>337.016</v>
+        <v>166.996</v>
       </c>
       <c r="AE9" s="3">
-        <v>54.6224</v>
+        <v>52.0509</v>
       </c>
       <c r="AF9" s="2">
-        <v>16.7052</v>
+        <v>16.2583</v>
       </c>
       <c r="AG9" s="2">
-        <v>16.4959</v>
+        <v>16.4659</v>
       </c>
       <c r="AH9">
-        <v>32.3254</v>
+        <v>33.2139</v>
       </c>
       <c r="AI9">
-        <v>32.7354</v>
+        <v>32.795</v>
       </c>
       <c r="AJ9">
-        <v>-639.952</v>
+        <v>177.374</v>
       </c>
       <c r="AK9">
-        <v>313.889</v>
+        <v>156.867</v>
       </c>
       <c r="AL9">
-        <v>-163.031</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>45.3824</v>
+        <v>167.121</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>52.0531</v>
       </c>
       <c r="AN9" s="2">
-        <v>16.7064</v>
+        <v>16.2578</v>
       </c>
       <c r="AO9" s="2">
-        <v>16.4972</v>
+        <v>16.4659</v>
       </c>
       <c r="AP9">
-        <v>32.323</v>
+        <v>33.2148</v>
       </c>
       <c r="AQ9">
-        <v>32.7329</v>
-      </c>
-      <c r="AR9" s="4">
-        <v>307.926</v>
+        <v>32.7949</v>
+      </c>
+      <c r="AR9">
+        <v>-2695.71</v>
       </c>
       <c r="AS9">
-        <v>305.098</v>
-      </c>
-      <c r="AT9">
-        <v>50.4986</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>241.09</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>240.789</v>
+        <v>-2202.38</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1.32894</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>233.954</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>233.217</v>
       </c>
       <c r="AW9">
-        <v>1.67987</v>
+        <v>1.73111</v>
       </c>
       <c r="AX9">
-        <v>1.68197</v>
+        <v>1.73658</v>
       </c>
       <c r="AY9">
-        <v>31.3074</v>
+        <v>31.9358</v>
       </c>
       <c r="AZ9">
-        <v>31.2616</v>
+        <v>32.3772</v>
       </c>
       <c r="BA9" s="2">
-        <v>-50.0055</v>
+        <v>-49.9574</v>
       </c>
       <c r="BB9" s="2">
-        <v>3.37185</v>
+        <v>3.35369</v>
       </c>
       <c r="BC9" s="2">
-        <v>3.31867</v>
+        <v>3.23129</v>
       </c>
       <c r="BD9">
-        <v>120.112</v>
+        <v>120.762</v>
       </c>
       <c r="BE9">
-        <v>122.037</v>
+        <v>125.337</v>
       </c>
       <c r="BF9">
-        <v>40.65170000000001</v>
+        <v>40.7191</v>
       </c>
       <c r="BG9">
-        <v>40.1598</v>
+        <v>41.0266</v>
       </c>
       <c r="BH9" s="2">
-        <v>-50.0513</v>
+        <v>-49.9749</v>
       </c>
       <c r="BI9" s="2">
-        <v>8.822559999999999</v>
+        <v>8.115629999999999</v>
       </c>
       <c r="BJ9" s="2">
-        <v>6.50525</v>
+        <v>6.54634</v>
       </c>
       <c r="BK9">
-        <v>45.9051</v>
+        <v>49.9037</v>
       </c>
       <c r="BL9">
-        <v>62.2575</v>
+        <v>61.8666</v>
       </c>
       <c r="BM9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" t="s">
+      <c r="J10" t="s">
         <v>120</v>
       </c>
-      <c r="D10" t="s">
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S10" t="s">
         <v>121</v>
       </c>
-      <c r="E10" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s">
-        <v>113</v>
-      </c>
-      <c r="P10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" t="s">
-        <v>129</v>
-      </c>
       <c r="T10">
-        <v>207.847</v>
+        <v>208.205</v>
       </c>
       <c r="U10">
-        <v>206.883</v>
+        <v>207.319</v>
       </c>
       <c r="V10">
-        <v>207.365</v>
+        <v>207.762</v>
       </c>
       <c r="W10" s="2">
-        <v>-50.1269</v>
-      </c>
-      <c r="X10" s="3">
-        <v>483.4160000000001</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>160.453</v>
+        <v>-50.0142</v>
+      </c>
+      <c r="X10" s="2">
+        <v>27.009</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>25.4835</v>
       </c>
       <c r="Z10">
-        <v>0.837789</v>
+        <v>14.995</v>
       </c>
       <c r="AA10">
-        <v>2.52411</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>353.134</v>
+        <v>15.8926</v>
+      </c>
+      <c r="AB10">
+        <v>165.176</v>
       </c>
       <c r="AC10">
-        <v>345.129</v>
+        <v>153.446</v>
       </c>
       <c r="AD10">
-        <v>349.131</v>
+        <v>159.311</v>
       </c>
       <c r="AE10">
-        <v>50.799</v>
+        <v>51.1846</v>
       </c>
       <c r="AF10" s="2">
-        <v>15.3569</v>
+        <v>14.9275</v>
       </c>
       <c r="AG10" s="2">
-        <v>14.7039</v>
+        <v>14.854</v>
       </c>
       <c r="AH10">
-        <v>35.1634</v>
+        <v>36.1748</v>
       </c>
       <c r="AI10">
-        <v>36.725</v>
+        <v>36.3538</v>
       </c>
       <c r="AJ10">
-        <v>-646.888</v>
+        <v>165.317</v>
       </c>
       <c r="AK10">
-        <v>345.126</v>
+        <v>153.469</v>
       </c>
       <c r="AL10">
-        <v>-150.881</v>
+        <v>159.393</v>
       </c>
       <c r="AM10">
-        <v>49.2009</v>
+        <v>51.1866</v>
       </c>
       <c r="AN10" s="2">
-        <v>15.357</v>
+        <v>14.9282</v>
       </c>
       <c r="AO10" s="2">
-        <v>14.7034</v>
+        <v>14.8535</v>
       </c>
       <c r="AP10">
-        <v>35.1632</v>
+        <v>36.1731</v>
       </c>
       <c r="AQ10">
-        <v>36.7261</v>
-      </c>
-      <c r="AR10" s="4">
-        <v>302.915</v>
+        <v>36.3551</v>
+      </c>
+      <c r="AR10">
+        <v>117.941</v>
       </c>
       <c r="AS10">
-        <v>301.791</v>
+        <v>112.46</v>
       </c>
       <c r="AT10">
-        <v>50.3024</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>242.653</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>240.861</v>
+        <v>50.2469</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>231.162</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>230.224</v>
       </c>
       <c r="AW10">
-        <v>1.66905</v>
+        <v>1.75202</v>
       </c>
       <c r="AX10">
-        <v>1.68147</v>
+        <v>1.75915</v>
       </c>
       <c r="AY10">
-        <v>28.9305</v>
+        <v>30.0045</v>
       </c>
       <c r="AZ10">
-        <v>29.0771</v>
+        <v>30.4053</v>
       </c>
       <c r="BA10" s="2">
-        <v>-49.9863</v>
+        <v>-49.9593</v>
       </c>
       <c r="BB10" s="2">
-        <v>2.58548</v>
+        <v>2.62064</v>
       </c>
       <c r="BC10" s="2">
-        <v>2.48417</v>
+        <v>2.51581</v>
       </c>
       <c r="BD10">
-        <v>156.644</v>
+        <v>154.543</v>
       </c>
       <c r="BE10">
-        <v>163.032</v>
+        <v>160.982</v>
       </c>
       <c r="BF10">
-        <v>37.9115</v>
+        <v>38.47340000000001</v>
       </c>
       <c r="BG10">
-        <v>37.5418</v>
+        <v>38.8058</v>
       </c>
       <c r="BH10" s="2">
-        <v>-50.038</v>
+        <v>-49.9704</v>
       </c>
       <c r="BI10" s="2">
-        <v>8.057730000000001</v>
+        <v>7.4204</v>
       </c>
       <c r="BJ10" s="2">
-        <v>5.83441</v>
+        <v>5.9552</v>
       </c>
       <c r="BK10">
-        <v>50.2623</v>
+        <v>54.5793</v>
       </c>
       <c r="BL10">
-        <v>69.4158</v>
+        <v>68.0078</v>
       </c>
       <c r="BM10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BQ10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BR10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BS10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BU10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BV10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BW10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BX10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BY10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BZ10" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:78" s="1" customFormat="1">
@@ -3435,371 +3408,371 @@
     </row>
     <row r="12" spans="1:78" s="1" customFormat="1">
       <c r="S12" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="T12" s="1">
-        <v>198.021</v>
+        <v>197.517</v>
       </c>
       <c r="U12" s="1">
-        <v>195.901</v>
+        <v>194.575</v>
       </c>
       <c r="V12" s="1">
-        <v>196.961</v>
+        <v>196.046</v>
       </c>
       <c r="W12" s="2">
-        <v>-50.4702</v>
-      </c>
-      <c r="X12" s="3">
-        <v>97.66260000000001</v>
+        <v>-50.4397</v>
+      </c>
+      <c r="X12" s="2">
+        <v>22.2353</v>
       </c>
       <c r="Y12" s="2">
-        <v>-1899.32</v>
+        <v>21.1239</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.208022</v>
+        <v>3.30754</v>
       </c>
       <c r="AA12" s="1">
-        <v>-0.265055</v>
+        <v>5.53431</v>
       </c>
       <c r="AB12" s="1">
-        <v>334.63</v>
+        <v>140.355</v>
       </c>
       <c r="AC12" s="1">
-        <v>205.882</v>
+        <v>128.393</v>
       </c>
       <c r="AD12" s="1">
-        <v>275.992</v>
+        <v>134.374</v>
       </c>
       <c r="AE12" s="1">
-        <v>50.5032</v>
+        <v>51.1846</v>
       </c>
       <c r="AF12" s="2">
-        <v>13.6738</v>
+        <v>13.3601</v>
       </c>
       <c r="AG12" s="2">
-        <v>13.1255</v>
+        <v>13.181</v>
       </c>
       <c r="AH12" s="1">
-        <v>21.5211</v>
+        <v>23.1249</v>
       </c>
       <c r="AI12" s="1">
-        <v>22.1026</v>
+        <v>22.9281</v>
       </c>
       <c r="AJ12" s="1">
-        <v>-665.4</v>
+        <v>-577.7089999999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>205.262</v>
+        <v>128.391</v>
       </c>
       <c r="AL12" s="1">
-        <v>-224.329</v>
+        <v>-130.537</v>
       </c>
       <c r="AM12" s="2">
-        <v>35.9177</v>
+        <v>39.4321</v>
       </c>
       <c r="AN12" s="2">
-        <v>13.6735</v>
+        <v>13.3607</v>
       </c>
       <c r="AO12" s="2">
-        <v>13.1249</v>
+        <v>13.1811</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.5209</v>
+        <v>23.1261</v>
       </c>
       <c r="AQ12" s="1">
-        <v>22.1012</v>
+        <v>22.9275</v>
       </c>
       <c r="AR12" s="1">
-        <v>292.805</v>
+        <v>-2776.4</v>
       </c>
       <c r="AS12" s="1">
-        <v>290.607</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>50.2797</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>236.73</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>237.178</v>
+        <v>-2693.34</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>1.32894</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>227.629</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>226.643</v>
       </c>
       <c r="AW12" s="1">
-        <v>1.65989</v>
+        <v>1.62961</v>
       </c>
       <c r="AX12" s="1">
-        <v>1.66999</v>
+        <v>1.64315</v>
       </c>
       <c r="AY12" s="1">
-        <v>26.8727</v>
+        <v>27.6527</v>
       </c>
       <c r="AZ12" s="1">
-        <v>26.9918</v>
+        <v>28.1011</v>
       </c>
       <c r="BA12" s="2">
-        <v>-50.0064</v>
+        <v>-49.9644</v>
       </c>
       <c r="BB12" s="2">
-        <v>2.50759</v>
+        <v>2.53834</v>
       </c>
       <c r="BC12" s="2">
-        <v>2.41877</v>
+        <v>2.39485</v>
       </c>
       <c r="BD12" s="1">
-        <v>117.233</v>
+        <v>117.827</v>
       </c>
       <c r="BE12" s="1">
-        <v>119.994</v>
+        <v>120.192</v>
       </c>
       <c r="BF12" s="1">
-        <v>34.694</v>
+        <v>34.9432</v>
       </c>
       <c r="BG12" s="1">
-        <v>34.3618</v>
+        <v>35.3543</v>
       </c>
       <c r="BH12" s="2">
-        <v>-50.0728</v>
+        <v>-50.0084</v>
       </c>
       <c r="BI12" s="2">
-        <v>7.44568</v>
+        <v>6.82466</v>
       </c>
       <c r="BJ12" s="2">
-        <v>5.26686</v>
+        <v>5.34249</v>
       </c>
       <c r="BK12" s="1">
-        <v>33.0504</v>
+        <v>37.3168</v>
       </c>
       <c r="BL12" s="1">
-        <v>44.0419</v>
+        <v>45.8127</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:78" s="1" customFormat="1">
       <c r="S13" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="T13" s="1">
-        <v>257.322</v>
+        <v>260.791</v>
       </c>
       <c r="U13" s="1">
-        <v>256.199</v>
+        <v>259.096</v>
       </c>
       <c r="V13" s="1">
-        <v>256.761</v>
+        <v>259.944</v>
       </c>
       <c r="W13" s="2">
-        <v>-50.1088</v>
-      </c>
-      <c r="X13" s="3">
-        <v>2379.56</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>167.342</v>
+        <v>-50.0142</v>
+      </c>
+      <c r="X13" s="4">
+        <v>122.447</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>73.17989999999999</v>
       </c>
       <c r="Z13" s="1">
-        <v>5.06847</v>
+        <v>22.2619</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.88874</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>431.812</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>422.612</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>427.212</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>64.0749</v>
+        <v>23.4332</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>433.647</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>419.598</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>426.623</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>60.5495</v>
       </c>
       <c r="AF13" s="2">
-        <v>25.0917</v>
+        <v>23.3515</v>
       </c>
       <c r="AG13" s="2">
-        <v>24.4316</v>
+        <v>23.5519</v>
       </c>
       <c r="AH13" s="1">
-        <v>46.1029</v>
+        <v>47.1851</v>
       </c>
       <c r="AI13" s="1">
-        <v>48.0286</v>
+        <v>47.8263</v>
       </c>
       <c r="AJ13" s="1">
-        <v>-568.205</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>422.612</v>
+        <v>214.872</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>419.519</v>
       </c>
       <c r="AL13" s="1">
-        <v>-72.7963</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>49.5111</v>
+        <v>200.67</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>52.8431</v>
       </c>
       <c r="AN13" s="2">
-        <v>25.0919</v>
+        <v>23.3502</v>
       </c>
       <c r="AO13" s="2">
-        <v>24.4331</v>
+        <v>23.5525</v>
       </c>
       <c r="AP13" s="1">
-        <v>46.1037</v>
+        <v>47.1832</v>
       </c>
       <c r="AQ13" s="1">
-        <v>48.0307</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>351.766</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>350.599</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>50.6342</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>243.992</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>242.517</v>
+        <v>47.826</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>355.27</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>353.34</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>1617.9</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>248.525</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>246.478</v>
       </c>
       <c r="AW13" s="1">
-        <v>2.09099</v>
+        <v>2.17459</v>
       </c>
       <c r="AX13" s="1">
-        <v>2.08704</v>
+        <v>2.18405</v>
       </c>
       <c r="AY13" s="1">
-        <v>39.1772</v>
+        <v>40.3999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>39.31480000000001</v>
+        <v>40.7764</v>
       </c>
       <c r="BA13" s="2">
-        <v>-49.9863</v>
+        <v>-49.9518</v>
       </c>
       <c r="BB13" s="2">
-        <v>3.45467</v>
+        <v>3.43724</v>
       </c>
       <c r="BC13" s="2">
-        <v>3.37516</v>
+        <v>3.3696</v>
       </c>
       <c r="BD13" s="1">
-        <v>188.548</v>
+        <v>186.264</v>
       </c>
       <c r="BE13" s="1">
-        <v>195.471</v>
+        <v>197.424</v>
       </c>
       <c r="BF13" s="1">
-        <v>54.22110000000001</v>
+        <v>54.4081</v>
       </c>
       <c r="BG13" s="1">
-        <v>53.5074</v>
+        <v>54.4003</v>
       </c>
       <c r="BH13" s="2">
-        <v>-50.0342</v>
+        <v>-49.9622</v>
       </c>
       <c r="BI13" s="2">
-        <v>12.254</v>
+        <v>10.853</v>
       </c>
       <c r="BJ13" s="2">
-        <v>9.195779999999999</v>
+        <v>8.840339999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>63.4999</v>
+        <v>69.2782</v>
       </c>
       <c r="BL13" s="1">
-        <v>89.7689</v>
+        <v>88.498</v>
       </c>
       <c r="BM13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:78" s="1" customFormat="1">
       <c r="S14" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="T14" s="1">
         <v>350</v>
@@ -3933,7 +3906,7 @@
     </row>
     <row r="15" spans="1:78" s="1" customFormat="1">
       <c r="S15" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="W15" s="1">
         <v>47</v>
@@ -4010,7 +3983,7 @@
     </row>
     <row r="16" spans="1:78" s="1" customFormat="1">
       <c r="S16" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="W16" s="1">
         <v>51.5</v>
@@ -4054,7 +4027,7 @@
     </row>
     <row r="17" spans="19:78" s="1" customFormat="1">
       <c r="S17" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="W17" s="1">
         <v>48.5</v>
@@ -4083,548 +4056,548 @@
     </row>
     <row r="18" spans="19:78" s="1" customFormat="1">
       <c r="S18" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="T18" s="1">
-        <v>223.3396666666667</v>
+        <v>224.596</v>
       </c>
       <c r="U18" s="1">
-        <v>221.3084444444445</v>
+        <v>221.9232222222222</v>
       </c>
       <c r="V18" s="1">
-        <v>222.3241111111111</v>
+        <v>223.2595555555556</v>
       </c>
       <c r="W18" s="1">
-        <v>-50.23143333333333</v>
+        <v>-50.22831111111112</v>
       </c>
       <c r="X18" s="1">
-        <v>1033.105622222222</v>
+        <v>48.04104444444445</v>
       </c>
       <c r="Y18" s="1">
-        <v>-530.3098</v>
+        <v>36.11031111111111</v>
       </c>
       <c r="Z18" s="1">
-        <v>1.124484111111111</v>
+        <v>13.31499777777778</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.993190333333333</v>
+        <v>14.77577222222222</v>
       </c>
       <c r="AB18" s="1">
-        <v>373.3318888888889</v>
+        <v>233.0916666666667</v>
       </c>
       <c r="AC18" s="1">
-        <v>345.581</v>
+        <v>206.2067777777778</v>
       </c>
       <c r="AD18" s="1">
-        <v>359.4563333333333</v>
+        <v>219.6492222222222</v>
       </c>
       <c r="AE18" s="1">
-        <v>52.78036666666666</v>
+        <v>52.73253333333334</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.80464444444444</v>
+        <v>17.87131111111111</v>
       </c>
       <c r="AG18" s="1">
-        <v>18.08058888888889</v>
+        <v>17.7654</v>
       </c>
       <c r="AH18" s="1">
-        <v>32.70796666666667</v>
+        <v>34.14066666666667</v>
       </c>
       <c r="AI18" s="1">
-        <v>33.94012222222222</v>
+        <v>34.35207777777778</v>
       </c>
       <c r="AJ18" s="1">
-        <v>-626.7155555555555</v>
+        <v>11.02455555555556</v>
       </c>
       <c r="AK18" s="1">
-        <v>345.5006666666667</v>
+        <v>205.9024444444445</v>
       </c>
       <c r="AL18" s="1">
-        <v>-140.6074333333333</v>
+        <v>108.4636555555555</v>
       </c>
       <c r="AM18" s="1">
-        <v>47.22137777777778</v>
+        <v>50.0746</v>
       </c>
       <c r="AN18" s="1">
-        <v>18.80461111111111</v>
+        <v>17.87122222222222</v>
       </c>
       <c r="AO18" s="1">
-        <v>18.08067777777778</v>
+        <v>17.76516666666667</v>
       </c>
       <c r="AP18" s="1">
-        <v>32.7079</v>
+        <v>34.1405</v>
       </c>
       <c r="AQ18" s="1">
-        <v>33.94006666666667</v>
+        <v>34.35233333333333</v>
       </c>
       <c r="AR18" s="1">
-        <v>318.0815555555556</v>
+        <v>-929.0907555555555</v>
       </c>
       <c r="AS18" s="1">
-        <v>316.0145555555556</v>
+        <v>-826.6059</v>
       </c>
       <c r="AT18" s="1">
-        <v>50.40628888888889</v>
+        <v>371.6554822222222</v>
       </c>
       <c r="AU18" s="1">
-        <v>240.1628888888889</v>
+        <v>236.3994444444445</v>
       </c>
       <c r="AV18" s="1">
-        <v>240.2708888888889</v>
+        <v>234.8036666666667</v>
       </c>
       <c r="AW18" s="1">
-        <v>1.875663333333333</v>
+        <v>1.90767</v>
       </c>
       <c r="AX18" s="1">
-        <v>1.87385</v>
+        <v>1.920182222222222</v>
       </c>
       <c r="AY18" s="1">
-        <v>32.88755555555556</v>
+        <v>33.62195555555556</v>
       </c>
       <c r="AZ18" s="1">
-        <v>32.94548888888889</v>
+        <v>34.03818888888889</v>
       </c>
       <c r="BA18" s="1">
-        <v>-49.99574444444444</v>
+        <v>-49.95876666666666</v>
       </c>
       <c r="BB18" s="1">
-        <v>3.034718888888889</v>
+        <v>3.029994444444445</v>
       </c>
       <c r="BC18" s="1">
-        <v>2.941662222222222</v>
+        <v>2.922665555555556</v>
       </c>
       <c r="BD18" s="1">
-        <v>147.2977777777778</v>
+        <v>147.3114444444444</v>
       </c>
       <c r="BE18" s="1">
-        <v>152.1965555555556</v>
+        <v>152.9775555555556</v>
       </c>
       <c r="BF18" s="1">
-        <v>43.70230000000001</v>
+        <v>43.66663333333334</v>
       </c>
       <c r="BG18" s="1">
-        <v>43.18668888888889</v>
+        <v>43.9204</v>
       </c>
       <c r="BH18" s="1">
-        <v>-50.05325555555555</v>
+        <v>-49.98006666666666</v>
       </c>
       <c r="BI18" s="1">
-        <v>9.57179</v>
+        <v>8.638449999999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.958144444444444</v>
+        <v>6.860308888888888</v>
       </c>
       <c r="BK18" s="1">
-        <v>47.41108888888889</v>
+        <v>52.30436666666667</v>
       </c>
       <c r="BL18" s="1">
-        <v>65.52453333333334</v>
+        <v>66.05641111111112</v>
       </c>
       <c r="BM18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="19:78" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="T19" s="1">
-        <v>19.45475873233419</v>
+        <v>20.5337170581028</v>
       </c>
       <c r="U19" s="1">
-        <v>19.79033235985643</v>
+        <v>20.90926418163212</v>
       </c>
       <c r="V19" s="1">
-        <v>19.61609888979767</v>
+        <v>20.71213362640423</v>
       </c>
       <c r="W19" s="1">
-        <v>0.1127892626883325</v>
+        <v>0.1318664681869455</v>
       </c>
       <c r="X19" s="1">
-        <v>892.7003802885737</v>
+        <v>35.06286982597945</v>
       </c>
       <c r="Y19" s="1">
-        <v>960.4289396387243</v>
+        <v>16.81846212255016</v>
       </c>
       <c r="Z19" s="1">
-        <v>1.427540367026247</v>
+        <v>5.918554798157661</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.891267431707402</v>
+        <v>5.422401924186115</v>
       </c>
       <c r="AB19" s="1">
-        <v>31.3474282214469</v>
+        <v>106.4356846164752</v>
       </c>
       <c r="AC19" s="1">
-        <v>59.54633153361432</v>
+        <v>92.2784747728042</v>
       </c>
       <c r="AD19" s="1">
-        <v>42.82532405533487</v>
+        <v>98.67166475604026</v>
       </c>
       <c r="AE19" s="1">
-        <v>4.165853463043984</v>
+        <v>2.80494588539601</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.931036353349842</v>
+        <v>3.36401188181428</v>
       </c>
       <c r="AG19" s="1">
-        <v>3.673576959690029</v>
+        <v>3.345337501658091</v>
       </c>
       <c r="AH19" s="1">
-        <v>7.608495994610236</v>
+        <v>7.375041290129236</v>
       </c>
       <c r="AI19" s="1">
-        <v>7.753453632884119</v>
+        <v>7.462325747941795</v>
       </c>
       <c r="AJ19" s="1">
-        <v>31.3551500611626</v>
+        <v>312.4340089309923</v>
       </c>
       <c r="AK19" s="1">
-        <v>59.71136590856608</v>
+        <v>91.85846208900966</v>
       </c>
       <c r="AL19" s="1">
-        <v>42.8936010321664</v>
+        <v>115.0358431042459</v>
       </c>
       <c r="AM19" s="1">
-        <v>4.168908815872773</v>
+        <v>3.921562469503989</v>
       </c>
       <c r="AN19" s="1">
-        <v>3.930814206424935</v>
+        <v>3.363540214244437</v>
       </c>
       <c r="AO19" s="1">
-        <v>3.673656234681912</v>
+        <v>3.345060421311134</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.608419724226577</v>
+        <v>7.374270275009513</v>
       </c>
       <c r="AQ19" s="1">
-        <v>7.753853555920868</v>
+        <v>7.461912154401176</v>
       </c>
       <c r="AR19" s="1">
-        <v>19.31799428921192</v>
+        <v>1303.198448426209</v>
       </c>
       <c r="AS19" s="1">
-        <v>19.6735382069481</v>
+        <v>1181.27848742283</v>
       </c>
       <c r="AT19" s="1">
-        <v>0.1070637550916325</v>
+        <v>627.7391071075618</v>
       </c>
       <c r="AU19" s="1">
-        <v>2.489755652644762</v>
+        <v>6.833412586712936</v>
       </c>
       <c r="AV19" s="1">
-        <v>1.651217425917713</v>
+        <v>6.12284550769584</v>
       </c>
       <c r="AW19" s="1">
-        <v>0.1952285134001804</v>
+        <v>0.2112879787294004</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.1862577920815962</v>
+        <v>0.2101114926666728</v>
       </c>
       <c r="AY19" s="1">
-        <v>3.999915061073481</v>
+        <v>4.036769555284167</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.002982664753995</v>
+        <v>4.008070318035974</v>
       </c>
       <c r="BA19" s="1">
-        <v>0.007371583745273162</v>
+        <v>0.003647525797638637</v>
       </c>
       <c r="BB19" s="1">
-        <v>0.3411078373132802</v>
+        <v>0.3218331088247486</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.3527603422148048</v>
+        <v>0.3266842638495365</v>
       </c>
       <c r="BD19" s="1">
-        <v>22.56643420745746</v>
+        <v>21.81159820987761</v>
       </c>
       <c r="BE19" s="1">
-        <v>24.01503875635298</v>
+        <v>23.73422114496334</v>
       </c>
       <c r="BF19" s="1">
-        <v>6.416822127813735</v>
+        <v>6.244299941190808</v>
       </c>
       <c r="BG19" s="1">
-        <v>6.298814154257654</v>
+        <v>6.122593513463972</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.01253866120011955</v>
+        <v>0.01399206124120989</v>
       </c>
       <c r="BI19" s="1">
-        <v>1.595745737293034</v>
+        <v>1.314639072521428</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.244821073453362</v>
+        <v>1.096326453332465</v>
       </c>
       <c r="BK19" s="1">
-        <v>9.213398065672793</v>
+        <v>9.629920642455989</v>
       </c>
       <c r="BL19" s="1">
-        <v>13.56855871712247</v>
+        <v>12.76920818579205</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="19:78" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T20" s="1">
-        <v>8.710838975760774</v>
+        <v>9.142512359126075</v>
       </c>
       <c r="U20" s="1">
-        <v>8.942420796249571</v>
+        <v>9.421845975494485</v>
       </c>
       <c r="V20" s="1">
-        <v>8.823199063638272</v>
+        <v>9.277154375258197</v>
       </c>
       <c r="W20" s="1">
-        <v>0.2245392082281794</v>
+        <v>0.2625341471172321</v>
       </c>
       <c r="X20" s="1">
-        <v>86.40940104152803</v>
+        <v>72.98523633583112</v>
       </c>
       <c r="Y20" s="1">
-        <v>181.1071452269455</v>
+        <v>46.57523462149051</v>
       </c>
       <c r="Z20" s="1">
-        <v>126.9506925816572</v>
+        <v>44.45028753993111</v>
       </c>
       <c r="AA20" s="1">
-        <v>94.88644411316805</v>
+        <v>36.6979257844204</v>
       </c>
       <c r="AB20" s="1">
-        <v>8.396665046413039</v>
+        <v>45.66258680053278</v>
       </c>
       <c r="AC20" s="1">
-        <v>17.23078859474749</v>
+        <v>44.7504566858853</v>
       </c>
       <c r="AD20" s="1">
-        <v>11.9139155674917</v>
+        <v>44.92238295121881</v>
       </c>
       <c r="AE20" s="1">
-        <v>7.892808872195503</v>
+        <v>5.319194258438833</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.90460346093494</v>
+        <v>18.82353152994341</v>
       </c>
       <c r="AG20" s="1">
-        <v>20.31779485870375</v>
+        <v>18.83063427594139</v>
       </c>
       <c r="AH20" s="1">
-        <v>23.26190457557303</v>
+        <v>21.60192524104949</v>
       </c>
       <c r="AI20" s="1">
-        <v>22.84450710612811</v>
+        <v>21.72306955117906</v>
       </c>
       <c r="AJ20" s="1">
-        <v>5.00309108066859</v>
+        <v>2833.982806441105</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.28256170520638</v>
+        <v>44.61261367579074</v>
       </c>
       <c r="AL20" s="1">
-        <v>30.50592704475302</v>
+        <v>106.0593454231534</v>
       </c>
       <c r="AM20" s="1">
-        <v>8.828435365633586</v>
+        <v>7.831440429886587</v>
       </c>
       <c r="AN20" s="1">
-        <v>20.90345917391681</v>
+        <v>18.8209858979986</v>
       </c>
       <c r="AO20" s="1">
-        <v>20.31813342305703</v>
+        <v>18.82932192011221</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.2617188025724</v>
+        <v>21.59977233786709</v>
       </c>
       <c r="AQ20" s="1">
-        <v>22.84572282097521</v>
+        <v>21.72170397275637</v>
       </c>
       <c r="AR20" s="1">
-        <v>6.073283392830325</v>
+        <v>140.2660009943758</v>
       </c>
       <c r="AS20" s="1">
-        <v>6.22551647102517</v>
+        <v>142.9070960445395</v>
       </c>
       <c r="AT20" s="1">
-        <v>0.2124015821272507</v>
+        <v>168.903497226558</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.036694580150826</v>
+        <v>2.890621254534647</v>
       </c>
       <c r="AV20" s="1">
-        <v>0.6872315799694335</v>
+        <v>2.607644758967069</v>
       </c>
       <c r="AW20" s="1">
-        <v>10.40850508354451</v>
+        <v>11.07570904450981</v>
       </c>
       <c r="AX20" s="1">
-        <v>9.939845349499491</v>
+        <v>10.94226840739684</v>
       </c>
       <c r="AY20" s="1">
-        <v>12.16239697206013</v>
+        <v>12.00634968603766</v>
       </c>
       <c r="AZ20" s="1">
-        <v>12.15032102954778</v>
+        <v>11.77521615829663</v>
       </c>
       <c r="BA20" s="1">
-        <v>0.01474442240471988</v>
+        <v>0.007301072546437237</v>
       </c>
       <c r="BB20" s="1">
-        <v>11.24017906772812</v>
+        <v>10.62157422152493</v>
       </c>
       <c r="BC20" s="1">
-        <v>11.99187111116785</v>
+        <v>11.17761364205897</v>
       </c>
       <c r="BD20" s="1">
-        <v>15.32028150587752</v>
+        <v>14.8064519305582</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.77896337318021</v>
+        <v>15.51483880022124</v>
       </c>
       <c r="BF20" s="1">
-        <v>14.68303070505153</v>
+        <v>14.29993444542509</v>
       </c>
       <c r="BG20" s="1">
-        <v>14.58508238606414</v>
+        <v>13.94020435484188</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.02505064068450558</v>
+        <v>0.02799528326868289</v>
       </c>
       <c r="BI20" s="1">
-        <v>16.67134085989176</v>
+        <v>15.21846016960714</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.89012980963995</v>
+        <v>15.98071560754503</v>
       </c>
       <c r="BK20" s="1">
-        <v>19.43300245068199</v>
+        <v>18.41131296709323</v>
       </c>
       <c r="BL20" s="1">
-        <v>20.70760069071706</v>
+        <v>19.33076286011577</v>
       </c>
       <c r="BM20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BN20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="19:78" s="1" customFormat="1"/>
